--- a/outputs/aht/wl_sales_aht_monthly.xlsx
+++ b/outputs/aht/wl_sales_aht_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,40 +524,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>42370</v>
+        <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>487.4392987176896</v>
+        <v>543.0388860309306</v>
       </c>
       <c r="D2" t="n">
-        <v>410.1480732150694</v>
+        <v>463.2857697133598</v>
       </c>
       <c r="E2" t="n">
-        <v>548.9898282517495</v>
+        <v>620.1081073604606</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4392987176896</v>
+        <v>543.0388860309306</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4392987176896</v>
+        <v>543.0388860309306</v>
       </c>
       <c r="H2" t="n">
-        <v>-11.82425486114979</v>
+        <v>0.7460898233241319</v>
       </c>
       <c r="I2" t="n">
-        <v>-11.82425486114979</v>
+        <v>0.7460898233241319</v>
       </c>
       <c r="J2" t="n">
-        <v>-11.82425486114979</v>
+        <v>0.7460898233241319</v>
       </c>
       <c r="K2" t="n">
-        <v>-11.82425486114979</v>
+        <v>0.7460898233241319</v>
       </c>
       <c r="L2" t="n">
-        <v>-11.82425486114979</v>
+        <v>0.7460898233241319</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.82425486114979</v>
+        <v>0.7460898233241319</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>475.6150438565398</v>
+        <v>543.7849758542548</v>
       </c>
     </row>
     <row r="3">
@@ -577,40 +577,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>42401</v>
+        <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>488.905970798327</v>
+        <v>543.5254935276794</v>
       </c>
       <c r="D3" t="n">
-        <v>419.3725757571215</v>
+        <v>438.292650953395</v>
       </c>
       <c r="E3" t="n">
-        <v>547.7882351675472</v>
+        <v>602.1229423932339</v>
       </c>
       <c r="F3" t="n">
-        <v>488.905970798327</v>
+        <v>543.5254935276794</v>
       </c>
       <c r="G3" t="n">
-        <v>488.905970798327</v>
+        <v>543.5254935276794</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.968415475986201</v>
+        <v>-21.25254600516292</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.968415475986201</v>
+        <v>-21.25254600516292</v>
       </c>
       <c r="J3" t="n">
-        <v>-4.968415475986201</v>
+        <v>-21.25254600516292</v>
       </c>
       <c r="K3" t="n">
-        <v>-4.968415475986201</v>
+        <v>-21.25254600516292</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.968415475986201</v>
+        <v>-21.25254600516292</v>
       </c>
       <c r="M3" t="n">
-        <v>-4.968415475986201</v>
+        <v>-21.25254600516292</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>483.9375553223408</v>
+        <v>522.2729475225165</v>
       </c>
     </row>
     <row r="4">
@@ -630,40 +630,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>42430</v>
+        <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>490.2780188737621</v>
+        <v>543.9650099763558</v>
       </c>
       <c r="D4" t="n">
-        <v>423.9781663708248</v>
+        <v>462.9153256697152</v>
       </c>
       <c r="E4" t="n">
-        <v>550.3416692758312</v>
+        <v>632.9009942386922</v>
       </c>
       <c r="F4" t="n">
-        <v>490.2780188737621</v>
+        <v>543.9650099763558</v>
       </c>
       <c r="G4" t="n">
-        <v>490.2780188737621</v>
+        <v>543.9650099763558</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1408400611398617</v>
+        <v>0.6832938580679327</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1408400611398617</v>
+        <v>0.6832938580679327</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1408400611398617</v>
+        <v>0.6832938580679327</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1408400611398617</v>
+        <v>0.6832938580679327</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.1408400611398617</v>
+        <v>0.6832938580679327</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.1408400611398617</v>
+        <v>0.6832938580679327</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>490.1371788126222</v>
+        <v>544.6483038344237</v>
       </c>
     </row>
     <row r="5">
@@ -683,40 +683,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>491.7446909662633</v>
+        <v>544.4516174745452</v>
       </c>
       <c r="D5" t="n">
-        <v>414.3506898596527</v>
+        <v>457.687795118989</v>
       </c>
       <c r="E5" t="n">
-        <v>544.5955644926827</v>
+        <v>616.5249580168738</v>
       </c>
       <c r="F5" t="n">
-        <v>491.7446909662633</v>
+        <v>544.4516174745452</v>
       </c>
       <c r="G5" t="n">
-        <v>491.7446909662633</v>
+        <v>544.4516174745452</v>
       </c>
       <c r="H5" t="n">
-        <v>-10.79945732114324</v>
+        <v>-5.196770686700813</v>
       </c>
       <c r="I5" t="n">
-        <v>-10.79945732114324</v>
+        <v>-5.196770686700813</v>
       </c>
       <c r="J5" t="n">
-        <v>-10.79945732114324</v>
+        <v>-5.196770686700813</v>
       </c>
       <c r="K5" t="n">
-        <v>-10.79945732114324</v>
+        <v>-5.196770686700813</v>
       </c>
       <c r="L5" t="n">
-        <v>-10.79945732114324</v>
+        <v>-5.196770686700813</v>
       </c>
       <c r="M5" t="n">
-        <v>-10.79945732114324</v>
+        <v>-5.196770686700813</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>480.9452336451201</v>
+        <v>539.2548467878444</v>
       </c>
     </row>
     <row r="6">
@@ -736,40 +736,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>42491</v>
+        <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>493.1640510557806</v>
+        <v>544.922527956664</v>
       </c>
       <c r="D6" t="n">
-        <v>425.0090086631675</v>
+        <v>470.5771958211694</v>
       </c>
       <c r="E6" t="n">
-        <v>556.6567430308826</v>
+        <v>638.5825033824324</v>
       </c>
       <c r="F6" t="n">
-        <v>493.1640510557806</v>
+        <v>544.922527956664</v>
       </c>
       <c r="G6" t="n">
-        <v>493.1640510557806</v>
+        <v>544.922527956664</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1400726405949547</v>
+        <v>10.60202496868847</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1400726405949547</v>
+        <v>10.60202496868847</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1400726405949547</v>
+        <v>10.60202496868847</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1400726405949547</v>
+        <v>10.60202496868847</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1400726405949547</v>
+        <v>10.60202496868847</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1400726405949547</v>
+        <v>10.60202496868847</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>493.3041236963755</v>
+        <v>555.5245529253525</v>
       </c>
     </row>
     <row r="7">
@@ -789,40 +789,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>42522</v>
+        <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>494.6307231482818</v>
+        <v>545.4091354516642</v>
       </c>
       <c r="D7" t="n">
-        <v>388.8470460780437</v>
+        <v>465.7558852156833</v>
       </c>
       <c r="E7" t="n">
-        <v>523.168807812699</v>
+        <v>635.9487865761201</v>
       </c>
       <c r="F7" t="n">
-        <v>494.6307231482818</v>
+        <v>545.4091354516642</v>
       </c>
       <c r="G7" t="n">
-        <v>494.6307231482818</v>
+        <v>545.4091354516642</v>
       </c>
       <c r="H7" t="n">
-        <v>-32.73731439016142</v>
+        <v>4.440455707139662</v>
       </c>
       <c r="I7" t="n">
-        <v>-32.73731439016142</v>
+        <v>4.440455707139662</v>
       </c>
       <c r="J7" t="n">
-        <v>-32.73731439016142</v>
+        <v>4.440455707139662</v>
       </c>
       <c r="K7" t="n">
-        <v>-32.73731439016142</v>
+        <v>4.440455707139662</v>
       </c>
       <c r="L7" t="n">
-        <v>-32.73731439016142</v>
+        <v>4.440455707139662</v>
       </c>
       <c r="M7" t="n">
-        <v>-32.73731439016142</v>
+        <v>4.440455707139662</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>461.8934087581204</v>
+        <v>549.8495911588038</v>
       </c>
     </row>
     <row r="8">
@@ -842,40 +842,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>42552</v>
+        <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>496.0500832216505</v>
+        <v>545.8800459306967</v>
       </c>
       <c r="D8" t="n">
-        <v>444.3815643920237</v>
+        <v>482.5455724016585</v>
       </c>
       <c r="E8" t="n">
-        <v>576.3147406826241</v>
+        <v>649.4321381282612</v>
       </c>
       <c r="F8" t="n">
-        <v>496.0500832216505</v>
+        <v>545.8800459306967</v>
       </c>
       <c r="G8" t="n">
-        <v>496.0500832216505</v>
+        <v>545.8800459306967</v>
       </c>
       <c r="H8" t="n">
-        <v>12.97529143657898</v>
+        <v>20.33765650931013</v>
       </c>
       <c r="I8" t="n">
-        <v>12.97529143657898</v>
+        <v>20.33765650931013</v>
       </c>
       <c r="J8" t="n">
-        <v>12.97529143657898</v>
+        <v>20.33765650931013</v>
       </c>
       <c r="K8" t="n">
-        <v>12.97529143657898</v>
+        <v>20.33765650931013</v>
       </c>
       <c r="L8" t="n">
-        <v>12.97529143657898</v>
+        <v>20.33765650931013</v>
       </c>
       <c r="M8" t="n">
-        <v>12.97529143657898</v>
+        <v>20.33765650931013</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>509.0253746582295</v>
+        <v>566.2177024400069</v>
       </c>
     </row>
     <row r="9">
@@ -895,40 +895,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>42583</v>
+        <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>497.516755297465</v>
+        <v>546.366653424732</v>
       </c>
       <c r="D9" t="n">
-        <v>434.5944745138776</v>
+        <v>481.9723139791058</v>
       </c>
       <c r="E9" t="n">
-        <v>571.8687015610273</v>
+        <v>645.1010759564072</v>
       </c>
       <c r="F9" t="n">
-        <v>497.516755297465</v>
+        <v>546.366653424732</v>
       </c>
       <c r="G9" t="n">
-        <v>497.516755297465</v>
+        <v>546.366653424732</v>
       </c>
       <c r="H9" t="n">
-        <v>5.732512616505881</v>
+        <v>20.20425978801597</v>
       </c>
       <c r="I9" t="n">
-        <v>5.732512616505881</v>
+        <v>20.20425978801597</v>
       </c>
       <c r="J9" t="n">
-        <v>5.732512616505881</v>
+        <v>20.20425978801597</v>
       </c>
       <c r="K9" t="n">
-        <v>5.732512616505881</v>
+        <v>20.20425978801597</v>
       </c>
       <c r="L9" t="n">
-        <v>5.732512616505881</v>
+        <v>20.20425978801597</v>
       </c>
       <c r="M9" t="n">
-        <v>5.732512616505881</v>
+        <v>20.20425978801597</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>503.2492679139708</v>
+        <v>566.570913212748</v>
       </c>
     </row>
     <row r="10">
@@ -948,40 +948,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42614</v>
+        <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>498.9834273586381</v>
+        <v>546.8532609187675</v>
       </c>
       <c r="D10" t="n">
-        <v>445.9466031757592</v>
+        <v>484.7572639037526</v>
       </c>
       <c r="E10" t="n">
-        <v>581.324411703644</v>
+        <v>656.0879586159413</v>
       </c>
       <c r="F10" t="n">
-        <v>498.9834273586381</v>
+        <v>546.8532609187675</v>
       </c>
       <c r="G10" t="n">
-        <v>498.9834273586381</v>
+        <v>546.8532609187675</v>
       </c>
       <c r="H10" t="n">
-        <v>15.77341136376106</v>
+        <v>20.82876716305963</v>
       </c>
       <c r="I10" t="n">
-        <v>15.77341136376106</v>
+        <v>20.82876716305963</v>
       </c>
       <c r="J10" t="n">
-        <v>15.77341136376106</v>
+        <v>20.82876716305963</v>
       </c>
       <c r="K10" t="n">
-        <v>15.77341136376106</v>
+        <v>20.82876716305963</v>
       </c>
       <c r="L10" t="n">
-        <v>15.77341136376106</v>
+        <v>20.82876716305963</v>
       </c>
       <c r="M10" t="n">
-        <v>15.77341136376106</v>
+        <v>20.82876716305963</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>514.7568387223992</v>
+        <v>567.6820280818272</v>
       </c>
     </row>
     <row r="11">
@@ -1001,40 +1001,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>42644</v>
+        <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>500.4027874178379</v>
+        <v>547.3241714017516</v>
       </c>
       <c r="D11" t="n">
-        <v>425.2626892490006</v>
+        <v>467.2629887101758</v>
       </c>
       <c r="E11" t="n">
-        <v>551.7640249074385</v>
+        <v>625.8386952961896</v>
       </c>
       <c r="F11" t="n">
-        <v>500.4027874178379</v>
+        <v>547.3241714017516</v>
       </c>
       <c r="G11" t="n">
-        <v>500.4027874178379</v>
+        <v>547.3241714017516</v>
       </c>
       <c r="H11" t="n">
-        <v>-13.89528032425363</v>
+        <v>-1.384662825244241</v>
       </c>
       <c r="I11" t="n">
-        <v>-13.89528032425363</v>
+        <v>-1.384662825244241</v>
       </c>
       <c r="J11" t="n">
-        <v>-13.89528032425363</v>
+        <v>-1.384662825244241</v>
       </c>
       <c r="K11" t="n">
-        <v>-13.89528032425363</v>
+        <v>-1.384662825244241</v>
       </c>
       <c r="L11" t="n">
-        <v>-13.89528032425363</v>
+        <v>-1.384662825244241</v>
       </c>
       <c r="M11" t="n">
-        <v>-13.89528032425363</v>
+        <v>-1.384662825244241</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>486.5075070935843</v>
+        <v>545.9395085765074</v>
       </c>
     </row>
     <row r="12">
@@ -1054,40 +1054,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>42675</v>
+        <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>501.8694594795095</v>
+        <v>547.8107789008351</v>
       </c>
       <c r="D12" t="n">
-        <v>420.4698101041539</v>
+        <v>459.5513880954387</v>
       </c>
       <c r="E12" t="n">
-        <v>549.7635944044084</v>
+        <v>618.5017354783688</v>
       </c>
       <c r="F12" t="n">
-        <v>501.8694594795095</v>
+        <v>547.8107789008351</v>
       </c>
       <c r="G12" t="n">
-        <v>501.8694594795095</v>
+        <v>547.8107789008351</v>
       </c>
       <c r="H12" t="n">
-        <v>-17.82756778808966</v>
+        <v>-8.147140066854659</v>
       </c>
       <c r="I12" t="n">
-        <v>-17.82756778808966</v>
+        <v>-8.147140066854659</v>
       </c>
       <c r="J12" t="n">
-        <v>-17.82756778808966</v>
+        <v>-8.147140066854659</v>
       </c>
       <c r="K12" t="n">
-        <v>-17.82756778808966</v>
+        <v>-8.147140066854659</v>
       </c>
       <c r="L12" t="n">
-        <v>-17.82756778808966</v>
+        <v>-8.147140066854659</v>
       </c>
       <c r="M12" t="n">
-        <v>-17.82756778808966</v>
+        <v>-8.147140066854659</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>484.0418916914198</v>
+        <v>539.6636388339805</v>
       </c>
     </row>
     <row r="13">
@@ -1107,40 +1107,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>42705</v>
+        <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>503.2888195391917</v>
+        <v>548.2816893856602</v>
       </c>
       <c r="D13" t="n">
-        <v>421.6657261434314</v>
+        <v>456.9247834620095</v>
       </c>
       <c r="E13" t="n">
-        <v>555.2572074309355</v>
+        <v>616.3341563444658</v>
       </c>
       <c r="F13" t="n">
-        <v>503.2888195391917</v>
+        <v>548.2816893856602</v>
       </c>
       <c r="G13" t="n">
-        <v>503.2888195391917</v>
+        <v>548.2816893856602</v>
       </c>
       <c r="H13" t="n">
-        <v>-12.20121731154332</v>
+        <v>-14.62095178672296</v>
       </c>
       <c r="I13" t="n">
-        <v>-12.20121731154332</v>
+        <v>-14.62095178672296</v>
       </c>
       <c r="J13" t="n">
-        <v>-12.20121731154332</v>
+        <v>-14.62095178672296</v>
       </c>
       <c r="K13" t="n">
-        <v>-12.20121731154332</v>
+        <v>-14.62095178672296</v>
       </c>
       <c r="L13" t="n">
-        <v>-12.20121731154332</v>
+        <v>-14.62095178672296</v>
       </c>
       <c r="M13" t="n">
-        <v>-12.20121731154332</v>
+        <v>-14.62095178672296</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>491.0876022276484</v>
+        <v>533.6607375989373</v>
       </c>
     </row>
     <row r="14">
@@ -1160,40 +1160,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>504.7554916008634</v>
+        <v>548.7682968866463</v>
       </c>
       <c r="D14" t="n">
-        <v>423.8624026411025</v>
+        <v>451.2495355855768</v>
       </c>
       <c r="E14" t="n">
-        <v>555.0355624924789</v>
+        <v>616.6594987231907</v>
       </c>
       <c r="F14" t="n">
-        <v>504.7554916008634</v>
+        <v>548.7682968866463</v>
       </c>
       <c r="G14" t="n">
-        <v>504.7554916008634</v>
+        <v>548.7682968866463</v>
       </c>
       <c r="H14" t="n">
-        <v>-13.57374507294718</v>
+        <v>-12.05683188150643</v>
       </c>
       <c r="I14" t="n">
-        <v>-13.57374507294718</v>
+        <v>-12.05683188150643</v>
       </c>
       <c r="J14" t="n">
-        <v>-13.57374507294718</v>
+        <v>-12.05683188150643</v>
       </c>
       <c r="K14" t="n">
-        <v>-13.57374507294718</v>
+        <v>-12.05683188150643</v>
       </c>
       <c r="L14" t="n">
-        <v>-13.57374507294718</v>
+        <v>-12.05683188150643</v>
       </c>
       <c r="M14" t="n">
-        <v>-13.57374507294718</v>
+        <v>-12.05683188150643</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>491.1817465279162</v>
+        <v>536.7114650051399</v>
       </c>
     </row>
     <row r="15">
@@ -1213,40 +1213,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>42767</v>
+        <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>506.2221636394491</v>
+        <v>549.2613821512824</v>
       </c>
       <c r="D15" t="n">
-        <v>409.4014822487788</v>
+        <v>445.7410795174479</v>
       </c>
       <c r="E15" t="n">
-        <v>540.5510484297138</v>
+        <v>610.1245006270353</v>
       </c>
       <c r="F15" t="n">
-        <v>506.2221636394491</v>
+        <v>549.2613821512824</v>
       </c>
       <c r="G15" t="n">
-        <v>506.2221636394491</v>
+        <v>549.2613821512824</v>
       </c>
       <c r="H15" t="n">
-        <v>-33.80309327333152</v>
+        <v>-22.03678930801966</v>
       </c>
       <c r="I15" t="n">
-        <v>-33.80309327333152</v>
+        <v>-22.03678930801966</v>
       </c>
       <c r="J15" t="n">
-        <v>-33.80309327333152</v>
+        <v>-22.03678930801966</v>
       </c>
       <c r="K15" t="n">
-        <v>-33.80309327333152</v>
+        <v>-22.03678930801966</v>
       </c>
       <c r="L15" t="n">
-        <v>-33.80309327333152</v>
+        <v>-22.03678930801966</v>
       </c>
       <c r="M15" t="n">
-        <v>-33.80309327333152</v>
+        <v>-22.03678930801966</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>472.4190703661176</v>
+        <v>527.2245928432627</v>
       </c>
     </row>
     <row r="16">
@@ -1266,40 +1266,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>42795</v>
+        <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>507.5468996743008</v>
+        <v>549.7067494870829</v>
       </c>
       <c r="D16" t="n">
-        <v>437.465443792093</v>
+        <v>460.8388018526633</v>
       </c>
       <c r="E16" t="n">
-        <v>565.2526935352768</v>
+        <v>638.7468385404584</v>
       </c>
       <c r="F16" t="n">
-        <v>507.5468996743008</v>
+        <v>549.7067494870829</v>
       </c>
       <c r="G16" t="n">
-        <v>507.5468996743008</v>
+        <v>549.7067494870829</v>
       </c>
       <c r="H16" t="n">
-        <v>-6.853902974993715</v>
+        <v>-2.390666922401272</v>
       </c>
       <c r="I16" t="n">
-        <v>-6.853902974993715</v>
+        <v>-2.390666922401272</v>
       </c>
       <c r="J16" t="n">
-        <v>-6.853902974993715</v>
+        <v>-2.390666922401272</v>
       </c>
       <c r="K16" t="n">
-        <v>-6.853902974993715</v>
+        <v>-2.390666922401272</v>
       </c>
       <c r="L16" t="n">
-        <v>-6.853902974993715</v>
+        <v>-2.390666922401272</v>
       </c>
       <c r="M16" t="n">
-        <v>-6.853902974993715</v>
+        <v>-2.390666922401272</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>500.6929966993071</v>
+        <v>547.3160825646817</v>
       </c>
     </row>
     <row r="17">
@@ -1319,40 +1319,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>509.0135717403757</v>
+        <v>550.199985008734</v>
       </c>
       <c r="D17" t="n">
-        <v>431.6222749564616</v>
+        <v>467.1964380777112</v>
       </c>
       <c r="E17" t="n">
-        <v>568.0391027699563</v>
+        <v>639.3972677160342</v>
       </c>
       <c r="F17" t="n">
-        <v>509.0135717403757</v>
+        <v>550.199985008734</v>
       </c>
       <c r="G17" t="n">
-        <v>509.0135717403757</v>
+        <v>550.199985008734</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.99150116068259</v>
+        <v>4.034762998056243</v>
       </c>
       <c r="I17" t="n">
-        <v>-7.99150116068259</v>
+        <v>4.034762998056243</v>
       </c>
       <c r="J17" t="n">
-        <v>-7.99150116068259</v>
+        <v>4.034762998056243</v>
       </c>
       <c r="K17" t="n">
-        <v>-7.99150116068259</v>
+        <v>4.034762998056243</v>
       </c>
       <c r="L17" t="n">
-        <v>-7.99150116068259</v>
+        <v>4.034762998056243</v>
       </c>
       <c r="M17" t="n">
-        <v>-7.99150116068259</v>
+        <v>4.034762998056243</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>501.022070579693</v>
+        <v>554.2347480067903</v>
       </c>
     </row>
     <row r="18">
@@ -1372,40 +1372,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>42856</v>
+        <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>510.432931804319</v>
+        <v>550.677309707106</v>
       </c>
       <c r="D18" t="n">
-        <v>431.5046921434582</v>
+        <v>479.278824409269</v>
       </c>
       <c r="E18" t="n">
-        <v>565.6870577151569</v>
+        <v>646.9606221189234</v>
       </c>
       <c r="F18" t="n">
-        <v>510.432931804319</v>
+        <v>550.677309707106</v>
       </c>
       <c r="G18" t="n">
-        <v>510.432931804319</v>
+        <v>550.677309707106</v>
       </c>
       <c r="H18" t="n">
-        <v>-11.07344215059028</v>
+        <v>14.34855030516579</v>
       </c>
       <c r="I18" t="n">
-        <v>-11.07344215059028</v>
+        <v>14.34855030516579</v>
       </c>
       <c r="J18" t="n">
-        <v>-11.07344215059028</v>
+        <v>14.34855030516579</v>
       </c>
       <c r="K18" t="n">
-        <v>-11.07344215059028</v>
+        <v>14.34855030516579</v>
       </c>
       <c r="L18" t="n">
-        <v>-11.07344215059028</v>
+        <v>14.34855030516579</v>
       </c>
       <c r="M18" t="n">
-        <v>-11.07344215059028</v>
+        <v>14.34855030516579</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>499.3594896537288</v>
+        <v>565.0258600122718</v>
       </c>
     </row>
     <row r="19">
@@ -1425,40 +1425,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>42887</v>
+        <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>511.8996038703939</v>
+        <v>551.176128168338</v>
       </c>
       <c r="D19" t="n">
-        <v>423.7362769284837</v>
+        <v>478.0033311248549</v>
       </c>
       <c r="E19" t="n">
-        <v>560.6638975227675</v>
+        <v>643.0390197914562</v>
       </c>
       <c r="F19" t="n">
-        <v>511.8996038703939</v>
+        <v>551.176128168338</v>
       </c>
       <c r="G19" t="n">
-        <v>511.8996038703939</v>
+        <v>551.176128168338</v>
       </c>
       <c r="H19" t="n">
-        <v>-19.30190888597626</v>
+        <v>4.410590747370378</v>
       </c>
       <c r="I19" t="n">
-        <v>-19.30190888597626</v>
+        <v>4.410590747370378</v>
       </c>
       <c r="J19" t="n">
-        <v>-19.30190888597626</v>
+        <v>4.410590747370378</v>
       </c>
       <c r="K19" t="n">
-        <v>-19.30190888597626</v>
+        <v>4.410590747370378</v>
       </c>
       <c r="L19" t="n">
-        <v>-19.30190888597626</v>
+        <v>4.410590747370378</v>
       </c>
       <c r="M19" t="n">
-        <v>-19.30190888597626</v>
+        <v>4.410590747370378</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>492.5976949844176</v>
+        <v>555.5867189157084</v>
       </c>
     </row>
     <row r="20">
@@ -1478,40 +1478,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>513.3189639502325</v>
+        <v>551.6588557114658</v>
       </c>
       <c r="D20" t="n">
-        <v>456.9835060625447</v>
+        <v>479.544683703798</v>
       </c>
       <c r="E20" t="n">
-        <v>585.9666777962345</v>
+        <v>648.0563355396268</v>
       </c>
       <c r="F20" t="n">
-        <v>513.3189639502325</v>
+        <v>551.6588557114658</v>
       </c>
       <c r="G20" t="n">
-        <v>513.3189639502325</v>
+        <v>551.6588557114658</v>
       </c>
       <c r="H20" t="n">
-        <v>8.171411248662997</v>
+        <v>10.82475607698445</v>
       </c>
       <c r="I20" t="n">
-        <v>8.171411248662997</v>
+        <v>10.82475607698445</v>
       </c>
       <c r="J20" t="n">
-        <v>8.171411248662997</v>
+        <v>10.82475607698445</v>
       </c>
       <c r="K20" t="n">
-        <v>8.171411248662997</v>
+        <v>10.82475607698445</v>
       </c>
       <c r="L20" t="n">
-        <v>8.171411248662997</v>
+        <v>10.82475607698445</v>
       </c>
       <c r="M20" t="n">
-        <v>8.171411248662997</v>
+        <v>10.82475607698445</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>521.4903751988955</v>
+        <v>562.4836117884503</v>
       </c>
     </row>
     <row r="21">
@@ -1531,40 +1531,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>42948</v>
+        <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>514.7856360327324</v>
+        <v>552.1609068686735</v>
       </c>
       <c r="D21" t="n">
-        <v>457.631515224206</v>
+        <v>495.5849593727685</v>
       </c>
       <c r="E21" t="n">
-        <v>587.0252169675178</v>
+        <v>657.8697372590963</v>
       </c>
       <c r="F21" t="n">
-        <v>514.7856360327324</v>
+        <v>552.1609068686735</v>
       </c>
       <c r="G21" t="n">
-        <v>514.7856360327324</v>
+        <v>552.1609068686735</v>
       </c>
       <c r="H21" t="n">
-        <v>8.682353848052202</v>
+        <v>21.5770679880594</v>
       </c>
       <c r="I21" t="n">
-        <v>8.682353848052202</v>
+        <v>21.5770679880594</v>
       </c>
       <c r="J21" t="n">
-        <v>8.682353848052202</v>
+        <v>21.5770679880594</v>
       </c>
       <c r="K21" t="n">
-        <v>8.682353848052202</v>
+        <v>21.5770679880594</v>
       </c>
       <c r="L21" t="n">
-        <v>8.682353848052202</v>
+        <v>21.5770679880594</v>
       </c>
       <c r="M21" t="n">
-        <v>8.682353848052202</v>
+        <v>21.5770679880594</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>523.4679898807847</v>
+        <v>573.7379748567329</v>
       </c>
     </row>
     <row r="22">
@@ -1584,40 +1584,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>516.2523178627689</v>
+        <v>552.6629580258812</v>
       </c>
       <c r="D22" t="n">
-        <v>460.2202185918087</v>
+        <v>481.4782067053315</v>
       </c>
       <c r="E22" t="n">
-        <v>595.0286353987336</v>
+        <v>653.0668390333334</v>
       </c>
       <c r="F22" t="n">
-        <v>516.2523178627689</v>
+        <v>552.6629580258812</v>
       </c>
       <c r="G22" t="n">
-        <v>516.2523178627689</v>
+        <v>552.6629580258812</v>
       </c>
       <c r="H22" t="n">
-        <v>10.10645945048065</v>
+        <v>15.70554332651894</v>
       </c>
       <c r="I22" t="n">
-        <v>10.10645945048065</v>
+        <v>15.70554332651894</v>
       </c>
       <c r="J22" t="n">
-        <v>10.10645945048065</v>
+        <v>15.70554332651894</v>
       </c>
       <c r="K22" t="n">
-        <v>10.10645945048065</v>
+        <v>15.70554332651894</v>
       </c>
       <c r="L22" t="n">
-        <v>10.10645945048065</v>
+        <v>15.70554332651894</v>
       </c>
       <c r="M22" t="n">
-        <v>10.10645945048065</v>
+        <v>15.70554332651894</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>526.3587773132496</v>
+        <v>568.3685013524001</v>
       </c>
     </row>
     <row r="23">
@@ -1637,40 +1637,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>517.6716873757073</v>
+        <v>553.1696885930295</v>
       </c>
       <c r="D23" t="n">
-        <v>438.4068349129321</v>
+        <v>475.1883846759036</v>
       </c>
       <c r="E23" t="n">
-        <v>571.5141544636969</v>
+        <v>636.6389409251404</v>
       </c>
       <c r="F23" t="n">
-        <v>517.6716873757073</v>
+        <v>553.1696885930295</v>
       </c>
       <c r="G23" t="n">
-        <v>517.6716873757073</v>
+        <v>553.1696885930295</v>
       </c>
       <c r="H23" t="n">
-        <v>-11.22289668614674</v>
+        <v>3.437301322861411</v>
       </c>
       <c r="I23" t="n">
-        <v>-11.22289668614674</v>
+        <v>3.437301322861411</v>
       </c>
       <c r="J23" t="n">
-        <v>-11.22289668614674</v>
+        <v>3.437301322861411</v>
       </c>
       <c r="K23" t="n">
-        <v>-11.22289668614674</v>
+        <v>3.437301322861411</v>
       </c>
       <c r="L23" t="n">
-        <v>-11.22289668614674</v>
+        <v>3.437301322861411</v>
       </c>
       <c r="M23" t="n">
-        <v>-11.22289668614674</v>
+        <v>3.437301322861411</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>506.4487906895606</v>
+        <v>556.6069899158909</v>
       </c>
     </row>
     <row r="24">
@@ -1690,40 +1690,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>519.1383692337799</v>
+        <v>553.6933101790827</v>
       </c>
       <c r="D24" t="n">
-        <v>436.5415099618104</v>
+        <v>468.9264436282082</v>
       </c>
       <c r="E24" t="n">
-        <v>569.4053893053079</v>
+        <v>631.6022111938885</v>
       </c>
       <c r="F24" t="n">
-        <v>519.1383692337799</v>
+        <v>553.6933101790827</v>
       </c>
       <c r="G24" t="n">
-        <v>519.1383692337799</v>
+        <v>553.6933101790827</v>
       </c>
       <c r="H24" t="n">
-        <v>-13.22356443971405</v>
+        <v>0.6492678133041362</v>
       </c>
       <c r="I24" t="n">
-        <v>-13.22356443971405</v>
+        <v>0.6492678133041362</v>
       </c>
       <c r="J24" t="n">
-        <v>-13.22356443971405</v>
+        <v>0.6492678133041362</v>
       </c>
       <c r="K24" t="n">
-        <v>-13.22356443971405</v>
+        <v>0.6492678133041362</v>
       </c>
       <c r="L24" t="n">
-        <v>-13.22356443971405</v>
+        <v>0.6492678133041362</v>
       </c>
       <c r="M24" t="n">
-        <v>-13.22356443971405</v>
+        <v>0.6492678133041362</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>505.9148047940659</v>
+        <v>554.3425779923869</v>
       </c>
     </row>
     <row r="25">
@@ -1743,40 +1743,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>520.5577387738501</v>
+        <v>554.2044054826431</v>
       </c>
       <c r="D25" t="n">
-        <v>436.8891728185465</v>
+        <v>464.6428668609804</v>
       </c>
       <c r="E25" t="n">
-        <v>570.4675848731968</v>
+        <v>624.7487332810732</v>
       </c>
       <c r="F25" t="n">
-        <v>520.5577387738501</v>
+        <v>554.2044054826431</v>
       </c>
       <c r="G25" t="n">
-        <v>520.5577387738501</v>
+        <v>554.2044054826431</v>
       </c>
       <c r="H25" t="n">
-        <v>-20.66640558003175</v>
+        <v>-11.56289321907693</v>
       </c>
       <c r="I25" t="n">
-        <v>-20.66640558003175</v>
+        <v>-11.56289321907693</v>
       </c>
       <c r="J25" t="n">
-        <v>-20.66640558003175</v>
+        <v>-11.56289321907693</v>
       </c>
       <c r="K25" t="n">
-        <v>-20.66640558003175</v>
+        <v>-11.56289321907693</v>
       </c>
       <c r="L25" t="n">
-        <v>-20.66640558003175</v>
+        <v>-11.56289321907693</v>
       </c>
       <c r="M25" t="n">
-        <v>-20.66640558003175</v>
+        <v>-11.56289321907693</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>499.8913331938184</v>
+        <v>542.6415122635661</v>
       </c>
     </row>
     <row r="26">
@@ -1796,40 +1796,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>522.0244206319228</v>
+        <v>554.7325372963223</v>
       </c>
       <c r="D26" t="n">
-        <v>444.1794247486122</v>
+        <v>447.0233818554487</v>
       </c>
       <c r="E26" t="n">
-        <v>571.223194394157</v>
+        <v>610.1526812260805</v>
       </c>
       <c r="F26" t="n">
-        <v>522.0244206319228</v>
+        <v>554.7325372963223</v>
       </c>
       <c r="G26" t="n">
-        <v>522.0244206319228</v>
+        <v>554.7325372963223</v>
       </c>
       <c r="H26" t="n">
-        <v>-13.20398093934293</v>
+        <v>-24.98613513553157</v>
       </c>
       <c r="I26" t="n">
-        <v>-13.20398093934293</v>
+        <v>-24.98613513553157</v>
       </c>
       <c r="J26" t="n">
-        <v>-13.20398093934293</v>
+        <v>-24.98613513553157</v>
       </c>
       <c r="K26" t="n">
-        <v>-13.20398093934293</v>
+        <v>-24.98613513553157</v>
       </c>
       <c r="L26" t="n">
-        <v>-13.20398093934293</v>
+        <v>-24.98613513553157</v>
       </c>
       <c r="M26" t="n">
-        <v>-13.20398093934293</v>
+        <v>-24.98613513553157</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>508.8204396925798</v>
+        <v>529.7464021607908</v>
       </c>
     </row>
     <row r="27">
@@ -1849,40 +1849,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>523.4911036574122</v>
+        <v>555.2632729654664</v>
       </c>
       <c r="D27" t="n">
-        <v>435.0359114076771</v>
+        <v>452.9469391983967</v>
       </c>
       <c r="E27" t="n">
-        <v>561.8659429044005</v>
+        <v>613.5848980679996</v>
       </c>
       <c r="F27" t="n">
-        <v>523.4911036574122</v>
+        <v>555.2632729654664</v>
       </c>
       <c r="G27" t="n">
-        <v>523.4911036574122</v>
+        <v>555.2632729654664</v>
       </c>
       <c r="H27" t="n">
-        <v>-24.1538146809863</v>
+        <v>-22.68534000137782</v>
       </c>
       <c r="I27" t="n">
-        <v>-24.1538146809863</v>
+        <v>-22.68534000137782</v>
       </c>
       <c r="J27" t="n">
-        <v>-24.1538146809863</v>
+        <v>-22.68534000137782</v>
       </c>
       <c r="K27" t="n">
-        <v>-24.1538146809863</v>
+        <v>-22.68534000137782</v>
       </c>
       <c r="L27" t="n">
-        <v>-24.1538146809863</v>
+        <v>-22.68534000137782</v>
       </c>
       <c r="M27" t="n">
-        <v>-24.1538146809863</v>
+        <v>-22.68534000137782</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>499.3372889764259</v>
+        <v>532.5779329640886</v>
       </c>
     </row>
     <row r="28">
@@ -1902,40 +1902,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>524.8158496159189</v>
+        <v>555.7426471182417</v>
       </c>
       <c r="D28" t="n">
-        <v>444.2682892351071</v>
+        <v>470.859545833949</v>
       </c>
       <c r="E28" t="n">
-        <v>577.4142377706323</v>
+        <v>632.3692975095362</v>
       </c>
       <c r="F28" t="n">
-        <v>524.8158496159189</v>
+        <v>555.7426471182417</v>
       </c>
       <c r="G28" t="n">
-        <v>524.8158496159189</v>
+        <v>555.7426471182417</v>
       </c>
       <c r="H28" t="n">
-        <v>-13.68094105520431</v>
+        <v>-5.258277229631342</v>
       </c>
       <c r="I28" t="n">
-        <v>-13.68094105520431</v>
+        <v>-5.258277229631342</v>
       </c>
       <c r="J28" t="n">
-        <v>-13.68094105520431</v>
+        <v>-5.258277229631342</v>
       </c>
       <c r="K28" t="n">
-        <v>-13.68094105520431</v>
+        <v>-5.258277229631342</v>
       </c>
       <c r="L28" t="n">
-        <v>-13.68094105520431</v>
+        <v>-5.258277229631342</v>
       </c>
       <c r="M28" t="n">
-        <v>-13.68094105520431</v>
+        <v>-5.258277229631342</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>511.1349085607146</v>
+        <v>550.4843698886104</v>
       </c>
     </row>
     <row r="29">
@@ -1955,40 +1955,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>526.2825326328496</v>
+        <v>556.2733827873858</v>
       </c>
       <c r="D29" t="n">
-        <v>447.8114397779557</v>
+        <v>486.2059455807791</v>
       </c>
       <c r="E29" t="n">
-        <v>586.5387485781381</v>
+        <v>657.5231052528178</v>
       </c>
       <c r="F29" t="n">
-        <v>526.2825326328496</v>
+        <v>556.2733827873858</v>
       </c>
       <c r="G29" t="n">
-        <v>526.2825326328496</v>
+        <v>556.2733827873858</v>
       </c>
       <c r="H29" t="n">
-        <v>-5.232667021294469</v>
+        <v>13.37826535748656</v>
       </c>
       <c r="I29" t="n">
-        <v>-5.232667021294469</v>
+        <v>13.37826535748656</v>
       </c>
       <c r="J29" t="n">
-        <v>-5.232667021294469</v>
+        <v>13.37826535748656</v>
       </c>
       <c r="K29" t="n">
-        <v>-5.232667021294469</v>
+        <v>13.37826535748656</v>
       </c>
       <c r="L29" t="n">
-        <v>-5.232667021294469</v>
+        <v>13.37826535748656</v>
       </c>
       <c r="M29" t="n">
-        <v>-5.232667021294469</v>
+        <v>13.37826535748656</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>521.0498656115551</v>
+        <v>569.6516481448724</v>
       </c>
     </row>
     <row r="30">
@@ -2008,40 +2008,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>527.7019032943955</v>
+        <v>556.789654036453</v>
       </c>
       <c r="D30" t="n">
-        <v>441.20197750607</v>
+        <v>490.618847815335</v>
       </c>
       <c r="E30" t="n">
-        <v>575.8661877804451</v>
+        <v>655.6173120956471</v>
       </c>
       <c r="F30" t="n">
-        <v>527.7019032943955</v>
+        <v>556.789654036453</v>
       </c>
       <c r="G30" t="n">
-        <v>527.7019032943955</v>
+        <v>556.789654036453</v>
       </c>
       <c r="H30" t="n">
-        <v>-22.12199373860945</v>
+        <v>17.9117639716875</v>
       </c>
       <c r="I30" t="n">
-        <v>-22.12199373860945</v>
+        <v>17.9117639716875</v>
       </c>
       <c r="J30" t="n">
-        <v>-22.12199373860945</v>
+        <v>17.9117639716875</v>
       </c>
       <c r="K30" t="n">
-        <v>-22.12199373860945</v>
+        <v>17.9117639716875</v>
       </c>
       <c r="L30" t="n">
-        <v>-22.12199373860945</v>
+        <v>17.9117639716875</v>
       </c>
       <c r="M30" t="n">
-        <v>-22.12199373860945</v>
+        <v>17.9117639716875</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>505.5799095557861</v>
+        <v>574.7014180081405</v>
       </c>
     </row>
     <row r="31">
@@ -2061,40 +2061,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>529.169333173739</v>
+        <v>557.3231343271558</v>
       </c>
       <c r="D31" t="n">
-        <v>454.7538526044079</v>
+        <v>478.2767164581757</v>
       </c>
       <c r="E31" t="n">
-        <v>598.4420401693926</v>
+        <v>647.9455215676991</v>
       </c>
       <c r="F31" t="n">
-        <v>529.169333173739</v>
+        <v>557.3231343271558</v>
       </c>
       <c r="G31" t="n">
-        <v>529.169333173739</v>
+        <v>557.3231343271558</v>
       </c>
       <c r="H31" t="n">
-        <v>-5.752559296289816</v>
+        <v>4.140836614284096</v>
       </c>
       <c r="I31" t="n">
-        <v>-5.752559296289816</v>
+        <v>4.140836614284096</v>
       </c>
       <c r="J31" t="n">
-        <v>-5.752559296289816</v>
+        <v>4.140836614284096</v>
       </c>
       <c r="K31" t="n">
-        <v>-5.752559296289816</v>
+        <v>4.140836614284096</v>
       </c>
       <c r="L31" t="n">
-        <v>-5.752559296289816</v>
+        <v>4.140836614284096</v>
       </c>
       <c r="M31" t="n">
-        <v>-5.752559296289816</v>
+        <v>4.140836614284096</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>523.4167738774491</v>
+        <v>561.4639709414399</v>
       </c>
     </row>
     <row r="32">
@@ -2114,40 +2114,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>530.5894266053617</v>
+        <v>557.8422737860034</v>
       </c>
       <c r="D32" t="n">
-        <v>463.3825399876737</v>
+        <v>473.8748716691292</v>
       </c>
       <c r="E32" t="n">
-        <v>599.9443473245791</v>
+        <v>637.602567991605</v>
       </c>
       <c r="F32" t="n">
-        <v>530.5894266053617</v>
+        <v>557.8422737860034</v>
       </c>
       <c r="G32" t="n">
-        <v>530.5894266053617</v>
+        <v>557.8422737860034</v>
       </c>
       <c r="H32" t="n">
-        <v>3.240164758927302</v>
+        <v>1.299227254308302</v>
       </c>
       <c r="I32" t="n">
-        <v>3.240164758927302</v>
+        <v>1.299227254308302</v>
       </c>
       <c r="J32" t="n">
-        <v>3.240164758927302</v>
+        <v>1.299227254308302</v>
       </c>
       <c r="K32" t="n">
-        <v>3.240164758927302</v>
+        <v>1.299227254308302</v>
       </c>
       <c r="L32" t="n">
-        <v>3.240164758927302</v>
+        <v>1.299227254308302</v>
       </c>
       <c r="M32" t="n">
-        <v>3.240164758927302</v>
+        <v>1.299227254308302</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>533.8295913642891</v>
+        <v>559.1415010403117</v>
       </c>
     </row>
     <row r="33">
@@ -2167,40 +2167,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>532.0568564847052</v>
+        <v>558.3787178934791</v>
       </c>
       <c r="D33" t="n">
-        <v>482.3639548196724</v>
+        <v>499.8348159402921</v>
       </c>
       <c r="E33" t="n">
-        <v>606.2970327404581</v>
+        <v>666.4120682517201</v>
       </c>
       <c r="F33" t="n">
-        <v>532.0568564847052</v>
+        <v>558.3787178934791</v>
       </c>
       <c r="G33" t="n">
-        <v>532.0568564847052</v>
+        <v>558.3787178934791</v>
       </c>
       <c r="H33" t="n">
-        <v>11.58103404378068</v>
+        <v>23.05056918458234</v>
       </c>
       <c r="I33" t="n">
-        <v>11.58103404378068</v>
+        <v>23.05056918458234</v>
       </c>
       <c r="J33" t="n">
-        <v>11.58103404378068</v>
+        <v>23.05056918458234</v>
       </c>
       <c r="K33" t="n">
-        <v>11.58103404378068</v>
+        <v>23.05056918458234</v>
       </c>
       <c r="L33" t="n">
-        <v>11.58103404378068</v>
+        <v>23.05056918458234</v>
       </c>
       <c r="M33" t="n">
-        <v>11.58103404378068</v>
+        <v>23.05056918458234</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>543.637890528486</v>
+        <v>581.4292870780614</v>
       </c>
     </row>
     <row r="34">
@@ -2220,40 +2220,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>533.5243779129838</v>
+        <v>558.9157900063826</v>
       </c>
       <c r="D34" t="n">
-        <v>470.107898590964</v>
+        <v>482.8458830027494</v>
       </c>
       <c r="E34" t="n">
-        <v>603.8018636961859</v>
+        <v>652.8906033680353</v>
       </c>
       <c r="F34" t="n">
-        <v>533.5243779129838</v>
+        <v>558.9157900063826</v>
       </c>
       <c r="G34" t="n">
-        <v>533.5243779129838</v>
+        <v>558.9157900063826</v>
       </c>
       <c r="H34" t="n">
-        <v>4.436394055573174</v>
+        <v>10.72501883329867</v>
       </c>
       <c r="I34" t="n">
-        <v>4.436394055573174</v>
+        <v>10.72501883329867</v>
       </c>
       <c r="J34" t="n">
-        <v>4.436394055573174</v>
+        <v>10.72501883329867</v>
       </c>
       <c r="K34" t="n">
-        <v>4.436394055573174</v>
+        <v>10.72501883329867</v>
       </c>
       <c r="L34" t="n">
-        <v>4.436394055573174</v>
+        <v>10.72501883329867</v>
       </c>
       <c r="M34" t="n">
-        <v>4.436394055573174</v>
+        <v>10.72501883329867</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>537.960771968557</v>
+        <v>569.6408088396813</v>
       </c>
     </row>
     <row r="35">
@@ -2273,40 +2273,40 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>534.9445599403502</v>
+        <v>559.4355372124184</v>
       </c>
       <c r="D35" t="n">
-        <v>457.3789377002238</v>
+        <v>491.2874403255011</v>
       </c>
       <c r="E35" t="n">
-        <v>591.850613823438</v>
+        <v>653.4494474232596</v>
       </c>
       <c r="F35" t="n">
-        <v>534.9445599403502</v>
+        <v>559.4355372124184</v>
       </c>
       <c r="G35" t="n">
-        <v>534.9445599403502</v>
+        <v>559.4355372124184</v>
       </c>
       <c r="H35" t="n">
-        <v>-8.451628353702381</v>
+        <v>8.46094397925831</v>
       </c>
       <c r="I35" t="n">
-        <v>-8.451628353702381</v>
+        <v>8.46094397925831</v>
       </c>
       <c r="J35" t="n">
-        <v>-8.451628353702381</v>
+        <v>8.46094397925831</v>
       </c>
       <c r="K35" t="n">
-        <v>-8.451628353702381</v>
+        <v>8.46094397925831</v>
       </c>
       <c r="L35" t="n">
-        <v>-8.451628353702381</v>
+        <v>8.46094397925831</v>
       </c>
       <c r="M35" t="n">
-        <v>-8.451628353702381</v>
+        <v>8.46094397925831</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>526.4929315866478</v>
+        <v>567.8964811916767</v>
       </c>
     </row>
     <row r="36">
@@ -2326,40 +2326,40 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>536.4122370879185</v>
+        <v>559.9726093298158</v>
       </c>
       <c r="D36" t="n">
-        <v>462.2632021681276</v>
+        <v>491.6799972681218</v>
       </c>
       <c r="E36" t="n">
-        <v>594.1109183177348</v>
+        <v>653.7256546057622</v>
       </c>
       <c r="F36" t="n">
-        <v>536.4122370879185</v>
+        <v>559.9726093298158</v>
       </c>
       <c r="G36" t="n">
-        <v>536.4122370879185</v>
+        <v>559.9726093298158</v>
       </c>
       <c r="H36" t="n">
-        <v>-8.733717375055654</v>
+        <v>9.38405073760028</v>
       </c>
       <c r="I36" t="n">
-        <v>-8.733717375055654</v>
+        <v>9.38405073760028</v>
       </c>
       <c r="J36" t="n">
-        <v>-8.733717375055654</v>
+        <v>9.38405073760028</v>
       </c>
       <c r="K36" t="n">
-        <v>-8.733717375055654</v>
+        <v>9.38405073760028</v>
       </c>
       <c r="L36" t="n">
-        <v>-8.733717375055654</v>
+        <v>9.38405073760028</v>
       </c>
       <c r="M36" t="n">
-        <v>-8.733717375055654</v>
+        <v>9.38405073760028</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>527.6785197128628</v>
+        <v>569.3566600674161</v>
       </c>
     </row>
     <row r="37">
@@ -2379,40 +2379,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>537.8325698113715</v>
+        <v>560.4923565402003</v>
       </c>
       <c r="D37" t="n">
-        <v>437.8315503522834</v>
+        <v>470.6702245827121</v>
       </c>
       <c r="E37" t="n">
-        <v>579.0451846925617</v>
+        <v>633.9852127391673</v>
       </c>
       <c r="F37" t="n">
-        <v>537.8325698113715</v>
+        <v>560.4923565402003</v>
       </c>
       <c r="G37" t="n">
-        <v>537.8325698113715</v>
+        <v>560.4923565402003</v>
       </c>
       <c r="H37" t="n">
-        <v>-29.13954857693919</v>
+        <v>-8.851144054625873</v>
       </c>
       <c r="I37" t="n">
-        <v>-29.13954857693919</v>
+        <v>-8.851144054625873</v>
       </c>
       <c r="J37" t="n">
-        <v>-29.13954857693919</v>
+        <v>-8.851144054625873</v>
       </c>
       <c r="K37" t="n">
-        <v>-29.13954857693919</v>
+        <v>-8.851144054625873</v>
       </c>
       <c r="L37" t="n">
-        <v>-29.13954857693919</v>
+        <v>-8.851144054625873</v>
       </c>
       <c r="M37" t="n">
-        <v>-29.13954857693919</v>
+        <v>-8.851144054625873</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>508.6930212344323</v>
+        <v>551.6412124855744</v>
       </c>
     </row>
     <row r="38">
@@ -2432,40 +2432,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>539.300246999135</v>
+        <v>561.029428658235</v>
       </c>
       <c r="D38" t="n">
-        <v>455.0345590971343</v>
+        <v>440.3881098543123</v>
       </c>
       <c r="E38" t="n">
-        <v>589.4957884061893</v>
+        <v>603.5583148153772</v>
       </c>
       <c r="F38" t="n">
-        <v>539.300246999135</v>
+        <v>561.029428658235</v>
       </c>
       <c r="G38" t="n">
-        <v>539.300246999135</v>
+        <v>561.029428658235</v>
       </c>
       <c r="H38" t="n">
-        <v>-12.62042865450854</v>
+        <v>-38.02692132766894</v>
       </c>
       <c r="I38" t="n">
-        <v>-12.62042865450854</v>
+        <v>-38.02692132766894</v>
       </c>
       <c r="J38" t="n">
-        <v>-12.62042865450854</v>
+        <v>-38.02692132766894</v>
       </c>
       <c r="K38" t="n">
-        <v>-12.62042865450854</v>
+        <v>-38.02692132766894</v>
       </c>
       <c r="L38" t="n">
-        <v>-12.62042865450854</v>
+        <v>-38.02692132766894</v>
       </c>
       <c r="M38" t="n">
-        <v>-12.62042865450854</v>
+        <v>-38.02692132766894</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>526.6798183446265</v>
+        <v>523.0025073305661</v>
       </c>
     </row>
     <row r="39">
@@ -2485,40 +2485,40 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>540.7679241868984</v>
+        <v>561.5665007762698</v>
       </c>
       <c r="D39" t="n">
-        <v>463.0992107250862</v>
+        <v>457.7386575761232</v>
       </c>
       <c r="E39" t="n">
-        <v>592.4176324941457</v>
+        <v>621.2828450183875</v>
       </c>
       <c r="F39" t="n">
-        <v>540.7679241868984</v>
+        <v>561.5665007762698</v>
       </c>
       <c r="G39" t="n">
-        <v>540.7679241868984</v>
+        <v>561.5665007762698</v>
       </c>
       <c r="H39" t="n">
-        <v>-14.53881353105344</v>
+        <v>-23.19221701739338</v>
       </c>
       <c r="I39" t="n">
-        <v>-14.53881353105344</v>
+        <v>-23.19221701739338</v>
       </c>
       <c r="J39" t="n">
-        <v>-14.53881353105344</v>
+        <v>-23.19221701739338</v>
       </c>
       <c r="K39" t="n">
-        <v>-14.53881353105344</v>
+        <v>-23.19221701739338</v>
       </c>
       <c r="L39" t="n">
-        <v>-14.53881353105344</v>
+        <v>-23.19221701739338</v>
       </c>
       <c r="M39" t="n">
-        <v>-14.53881353105344</v>
+        <v>-23.19221701739338</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>526.229110655845</v>
+        <v>538.3742837588763</v>
       </c>
     </row>
     <row r="40">
@@ -2538,40 +2538,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>542.0935680984267</v>
+        <v>562.0689230846803</v>
       </c>
       <c r="D40" t="n">
-        <v>452.2806662357585</v>
+        <v>477.959867535681</v>
       </c>
       <c r="E40" t="n">
-        <v>588.8486737874433</v>
+        <v>649.890571092669</v>
       </c>
       <c r="F40" t="n">
-        <v>542.0935680984267</v>
+        <v>562.0689230846803</v>
       </c>
       <c r="G40" t="n">
-        <v>542.0935680984267</v>
+        <v>562.0689230846803</v>
       </c>
       <c r="H40" t="n">
-        <v>-20.61643470758702</v>
+        <v>3.963118971564385</v>
       </c>
       <c r="I40" t="n">
-        <v>-20.61643470758702</v>
+        <v>3.963118971564385</v>
       </c>
       <c r="J40" t="n">
-        <v>-20.61643470758702</v>
+        <v>3.963118971564385</v>
       </c>
       <c r="K40" t="n">
-        <v>-20.61643470758702</v>
+        <v>3.963118971564385</v>
       </c>
       <c r="L40" t="n">
-        <v>-20.61643470758702</v>
+        <v>3.963118971564385</v>
       </c>
       <c r="M40" t="n">
-        <v>-20.61643470758702</v>
+        <v>3.963118971564385</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>521.4771333908396</v>
+        <v>566.0320420562447</v>
       </c>
     </row>
     <row r="41">
@@ -2591,40 +2591,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>543.561249002819</v>
+        <v>562.6059952074639</v>
       </c>
       <c r="D41" t="n">
-        <v>476.0522008355189</v>
+        <v>464.6364313844808</v>
       </c>
       <c r="E41" t="n">
-        <v>609.6060925934249</v>
+        <v>633.7446927283581</v>
       </c>
       <c r="F41" t="n">
-        <v>543.561249002819</v>
+        <v>562.6059952074639</v>
       </c>
       <c r="G41" t="n">
-        <v>543.561249002819</v>
+        <v>562.6059952074639</v>
       </c>
       <c r="H41" t="n">
-        <v>-2.521368060844047</v>
+        <v>-14.30454371248288</v>
       </c>
       <c r="I41" t="n">
-        <v>-2.521368060844047</v>
+        <v>-14.30454371248288</v>
       </c>
       <c r="J41" t="n">
-        <v>-2.521368060844047</v>
+        <v>-14.30454371248288</v>
       </c>
       <c r="K41" t="n">
-        <v>-2.521368060844047</v>
+        <v>-14.30454371248288</v>
       </c>
       <c r="L41" t="n">
-        <v>-2.521368060844047</v>
+        <v>-14.30454371248288</v>
       </c>
       <c r="M41" t="n">
-        <v>-2.521368060844047</v>
+        <v>-14.30454371248288</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>541.039880941975</v>
+        <v>548.3014514949811</v>
       </c>
     </row>
     <row r="42">
@@ -2644,40 +2644,40 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>544.9815853619083</v>
+        <v>563.1257424193421</v>
       </c>
       <c r="D42" t="n">
-        <v>445.6974564628047</v>
+        <v>486.1337528295451</v>
       </c>
       <c r="E42" t="n">
-        <v>574.9570190519987</v>
+        <v>647.7098719446581</v>
       </c>
       <c r="F42" t="n">
-        <v>544.9815853619083</v>
+        <v>563.1257424193421</v>
       </c>
       <c r="G42" t="n">
-        <v>544.9815853619083</v>
+        <v>563.1257424193421</v>
       </c>
       <c r="H42" t="n">
-        <v>-32.99685891527967</v>
+        <v>6.679334802666197</v>
       </c>
       <c r="I42" t="n">
-        <v>-32.99685891527967</v>
+        <v>6.679334802666197</v>
       </c>
       <c r="J42" t="n">
-        <v>-32.99685891527967</v>
+        <v>6.679334802666197</v>
       </c>
       <c r="K42" t="n">
-        <v>-32.99685891527967</v>
+        <v>6.679334802666197</v>
       </c>
       <c r="L42" t="n">
-        <v>-32.99685891527967</v>
+        <v>6.679334802666197</v>
       </c>
       <c r="M42" t="n">
-        <v>-32.99685891527967</v>
+        <v>6.679334802666197</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>511.9847264466286</v>
+        <v>569.8050772220083</v>
       </c>
     </row>
     <row r="43">
@@ -2697,40 +2697,40 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>546.4492662474007</v>
+        <v>563.6628145382831</v>
       </c>
       <c r="D43" t="n">
-        <v>483.544596472429</v>
+        <v>480.9327384981971</v>
       </c>
       <c r="E43" t="n">
-        <v>621.3397193832236</v>
+        <v>646.0006697801438</v>
       </c>
       <c r="F43" t="n">
-        <v>546.4492662474007</v>
+        <v>563.6628145382831</v>
       </c>
       <c r="G43" t="n">
-        <v>546.4492662474007</v>
+        <v>563.6628145382831</v>
       </c>
       <c r="H43" t="n">
-        <v>7.898868648735204</v>
+        <v>4.229239233676058</v>
       </c>
       <c r="I43" t="n">
-        <v>7.898868648735204</v>
+        <v>4.229239233676058</v>
       </c>
       <c r="J43" t="n">
-        <v>7.898868648735204</v>
+        <v>4.229239233676058</v>
       </c>
       <c r="K43" t="n">
-        <v>7.898868648735204</v>
+        <v>4.229239233676058</v>
       </c>
       <c r="L43" t="n">
-        <v>7.898868648735204</v>
+        <v>4.229239233676058</v>
       </c>
       <c r="M43" t="n">
-        <v>7.898868648735204</v>
+        <v>4.229239233676058</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>554.3481348961359</v>
+        <v>567.8920537719591</v>
       </c>
     </row>
     <row r="44">
@@ -2750,40 +2750,40 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>547.8696025881999</v>
+        <v>564.1825617466387</v>
       </c>
       <c r="D44" t="n">
-        <v>475.7903445160255</v>
+        <v>510.1033266747103</v>
       </c>
       <c r="E44" t="n">
-        <v>610.629608799976</v>
+        <v>673.2945658235526</v>
       </c>
       <c r="F44" t="n">
-        <v>547.8696025881999</v>
+        <v>564.1825617466387</v>
       </c>
       <c r="G44" t="n">
-        <v>547.8696025881999</v>
+        <v>564.1825617466387</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.81711466149936</v>
+        <v>29.82642166606173</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.81711466149936</v>
+        <v>29.82642166606173</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.81711466149936</v>
+        <v>29.82642166606173</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.81711466149936</v>
+        <v>29.82642166606173</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.81711466149936</v>
+        <v>29.82642166606173</v>
       </c>
       <c r="M44" t="n">
-        <v>-1.81711466149936</v>
+        <v>29.82642166606173</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>546.0524879267006</v>
+        <v>594.0089834127004</v>
       </c>
     </row>
     <row r="45">
@@ -2803,40 +2803,40 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>549.3372834895589</v>
+        <v>564.7196338619394</v>
       </c>
       <c r="D45" t="n">
-        <v>500.771295751339</v>
+        <v>504.2006637083761</v>
       </c>
       <c r="E45" t="n">
-        <v>630.7826669571407</v>
+        <v>669.5755400605832</v>
       </c>
       <c r="F45" t="n">
-        <v>549.3372834895589</v>
+        <v>564.7196338619394</v>
       </c>
       <c r="G45" t="n">
-        <v>549.3372834895589</v>
+        <v>564.7196338619394</v>
       </c>
       <c r="H45" t="n">
-        <v>14.42777813226581</v>
+        <v>18.9290974053534</v>
       </c>
       <c r="I45" t="n">
-        <v>14.42777813226581</v>
+        <v>18.9290974053534</v>
       </c>
       <c r="J45" t="n">
-        <v>14.42777813226581</v>
+        <v>18.9290974053534</v>
       </c>
       <c r="K45" t="n">
-        <v>14.42777813226581</v>
+        <v>18.9290974053534</v>
       </c>
       <c r="L45" t="n">
-        <v>14.42777813226581</v>
+        <v>18.9290974053534</v>
       </c>
       <c r="M45" t="n">
-        <v>14.42777813226581</v>
+        <v>18.9290974053534</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>563.7650616218247</v>
+        <v>583.6487312672929</v>
       </c>
     </row>
     <row r="46">
@@ -2856,40 +2856,40 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>550.8049643909178</v>
+        <v>565.2567055620414</v>
       </c>
       <c r="D46" t="n">
-        <v>480.5937505681178</v>
+        <v>506.090513993755</v>
       </c>
       <c r="E46" t="n">
-        <v>614.0689681577577</v>
+        <v>674.0517727728165</v>
       </c>
       <c r="F46" t="n">
-        <v>550.8049643909178</v>
+        <v>565.2567055620414</v>
       </c>
       <c r="G46" t="n">
-        <v>550.8049643909178</v>
+        <v>565.2567055620414</v>
       </c>
       <c r="H46" t="n">
-        <v>-1.23142388218846</v>
+        <v>26.08991648009869</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.23142388218846</v>
+        <v>26.08991648009869</v>
       </c>
       <c r="J46" t="n">
-        <v>-1.23142388218846</v>
+        <v>26.08991648009869</v>
       </c>
       <c r="K46" t="n">
-        <v>-1.23142388218846</v>
+        <v>26.08991648009869</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.23142388218846</v>
+        <v>26.08991648009869</v>
       </c>
       <c r="M46" t="n">
-        <v>-1.23142388218846</v>
+        <v>26.08991648009869</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>549.5735405087294</v>
+        <v>591.3466220421401</v>
       </c>
     </row>
     <row r="47">
@@ -2909,40 +2909,40 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>552.2253007470717</v>
+        <v>565.7764523685917</v>
       </c>
       <c r="D47" t="n">
-        <v>478.3607626383382</v>
+        <v>479.6358982713494</v>
       </c>
       <c r="E47" t="n">
-        <v>612.1035126966409</v>
+        <v>651.6051254256793</v>
       </c>
       <c r="F47" t="n">
-        <v>552.2253007470717</v>
+        <v>565.7764523685917</v>
       </c>
       <c r="G47" t="n">
-        <v>552.2253007470717</v>
+        <v>565.7764523685917</v>
       </c>
       <c r="H47" t="n">
-        <v>-5.584151143319145</v>
+        <v>-5.997443455193852</v>
       </c>
       <c r="I47" t="n">
-        <v>-5.584151143319145</v>
+        <v>-5.997443455193852</v>
       </c>
       <c r="J47" t="n">
-        <v>-5.584151143319145</v>
+        <v>-5.997443455193852</v>
       </c>
       <c r="K47" t="n">
-        <v>-5.584151143319145</v>
+        <v>-5.997443455193852</v>
       </c>
       <c r="L47" t="n">
-        <v>-5.584151143319145</v>
+        <v>-5.997443455193852</v>
       </c>
       <c r="M47" t="n">
-        <v>-5.584151143319145</v>
+        <v>-5.997443455193852</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>546.6411496037526</v>
+        <v>559.7790089133978</v>
       </c>
     </row>
     <row r="48">
@@ -2962,40 +2962,40 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>553.6929816244129</v>
+        <v>566.3135240643099</v>
       </c>
       <c r="D48" t="n">
-        <v>483.3087029145272</v>
+        <v>471.0509730597109</v>
       </c>
       <c r="E48" t="n">
-        <v>615.6728173638968</v>
+        <v>630.4257400617017</v>
       </c>
       <c r="F48" t="n">
-        <v>553.6929816244129</v>
+        <v>566.3135240643099</v>
       </c>
       <c r="G48" t="n">
-        <v>553.6929816244129</v>
+        <v>566.3135240643099</v>
       </c>
       <c r="H48" t="n">
-        <v>-4.361529831790836</v>
+        <v>-16.99224489299996</v>
       </c>
       <c r="I48" t="n">
-        <v>-4.361529831790836</v>
+        <v>-16.99224489299996</v>
       </c>
       <c r="J48" t="n">
-        <v>-4.361529831790836</v>
+        <v>-16.99224489299996</v>
       </c>
       <c r="K48" t="n">
-        <v>-4.361529831790836</v>
+        <v>-16.99224489299996</v>
       </c>
       <c r="L48" t="n">
-        <v>-4.361529831790836</v>
+        <v>-16.99224489299996</v>
       </c>
       <c r="M48" t="n">
-        <v>-4.361529831790836</v>
+        <v>-16.99224489299996</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>549.3314517926221</v>
+        <v>549.32127917131</v>
       </c>
     </row>
     <row r="49">
@@ -3015,40 +3015,40 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>555.1133179573239</v>
+        <v>566.8332708666178</v>
       </c>
       <c r="D49" t="n">
-        <v>449.2008411378203</v>
+        <v>472.5194558619823</v>
       </c>
       <c r="E49" t="n">
-        <v>583.4664255028083</v>
+        <v>627.3692323954613</v>
       </c>
       <c r="F49" t="n">
-        <v>555.1133179573239</v>
+        <v>566.8332708666178</v>
       </c>
       <c r="G49" t="n">
-        <v>555.1133179573239</v>
+        <v>566.8332708666178</v>
       </c>
       <c r="H49" t="n">
-        <v>-37.61225678748333</v>
+        <v>-18.02321939736152</v>
       </c>
       <c r="I49" t="n">
-        <v>-37.61225678748333</v>
+        <v>-18.02321939736152</v>
       </c>
       <c r="J49" t="n">
-        <v>-37.61225678748333</v>
+        <v>-18.02321939736152</v>
       </c>
       <c r="K49" t="n">
-        <v>-37.61225678748333</v>
+        <v>-18.02321939736152</v>
       </c>
       <c r="L49" t="n">
-        <v>-37.61225678748333</v>
+        <v>-18.02321939736152</v>
       </c>
       <c r="M49" t="n">
-        <v>-37.61225678748333</v>
+        <v>-18.02321939736152</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>517.5010611698406</v>
+        <v>548.8100514692562</v>
       </c>
     </row>
     <row r="50">
@@ -3068,40 +3068,40 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>556.5809987960428</v>
+        <v>567.3703425619308</v>
       </c>
       <c r="D50" t="n">
-        <v>477.2072634046444</v>
+        <v>481.4444664982057</v>
       </c>
       <c r="E50" t="n">
-        <v>611.1404531265624</v>
+        <v>653.485004160318</v>
       </c>
       <c r="F50" t="n">
-        <v>556.5809987960428</v>
+        <v>567.3703425619308</v>
       </c>
       <c r="G50" t="n">
-        <v>556.5809987960428</v>
+        <v>567.3703425619308</v>
       </c>
       <c r="H50" t="n">
-        <v>-11.82425486115115</v>
+        <v>0.7460898232962668</v>
       </c>
       <c r="I50" t="n">
-        <v>-11.82425486115115</v>
+        <v>0.7460898232962668</v>
       </c>
       <c r="J50" t="n">
-        <v>-11.82425486115115</v>
+        <v>0.7460898232962668</v>
       </c>
       <c r="K50" t="n">
-        <v>-11.82425486115115</v>
+        <v>0.7460898232962668</v>
       </c>
       <c r="L50" t="n">
-        <v>-11.82425486115115</v>
+        <v>0.7460898232962668</v>
       </c>
       <c r="M50" t="n">
-        <v>-11.82425486115115</v>
+        <v>0.7460898232962668</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>544.7567439348916</v>
+        <v>568.1164323852271</v>
       </c>
     </row>
     <row r="51">
@@ -3121,40 +3121,40 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>558.0486796347616</v>
+        <v>567.9074142572437</v>
       </c>
       <c r="D51" t="n">
-        <v>488.2646215500341</v>
+        <v>464.0152549490944</v>
       </c>
       <c r="E51" t="n">
-        <v>624.3299321390156</v>
+        <v>633.8658436904143</v>
       </c>
       <c r="F51" t="n">
-        <v>558.0486796347616</v>
+        <v>567.9074142572437</v>
       </c>
       <c r="G51" t="n">
-        <v>558.0486796347616</v>
+        <v>567.9074142572437</v>
       </c>
       <c r="H51" t="n">
-        <v>-4.968415475937662</v>
+        <v>-21.25254600512748</v>
       </c>
       <c r="I51" t="n">
-        <v>-4.968415475937662</v>
+        <v>-21.25254600512748</v>
       </c>
       <c r="J51" t="n">
-        <v>-4.968415475937662</v>
+        <v>-21.25254600512748</v>
       </c>
       <c r="K51" t="n">
-        <v>-4.968415475937662</v>
+        <v>-21.25254600512748</v>
       </c>
       <c r="L51" t="n">
-        <v>-4.968415475937662</v>
+        <v>-21.25254600512748</v>
       </c>
       <c r="M51" t="n">
-        <v>-4.968415475937662</v>
+        <v>-21.25254600512748</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>553.0802641588239</v>
+        <v>546.6548682521162</v>
       </c>
     </row>
     <row r="52">
@@ -3174,40 +3174,40 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>559.4216713871115</v>
+        <v>568.3925112693638</v>
       </c>
       <c r="D52" t="n">
-        <v>491.7449853837113</v>
+        <v>491.5981496638339</v>
       </c>
       <c r="E52" t="n">
-        <v>622.3377240815747</v>
+        <v>642.9663596168367</v>
       </c>
       <c r="F52" t="n">
-        <v>559.4216713871115</v>
+        <v>568.3925112693638</v>
       </c>
       <c r="G52" t="n">
-        <v>559.4216713871115</v>
+        <v>568.3925112693638</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.1408400611640151</v>
+        <v>0.6832938580882056</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.1408400611640151</v>
+        <v>0.6832938580882056</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.1408400611640151</v>
+        <v>0.6832938580882056</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.1408400611640151</v>
+        <v>0.6832938580882056</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.1408400611640151</v>
+        <v>0.6832938580882056</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.1408400611640151</v>
+        <v>0.6832938580882056</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>559.2808313259475</v>
+        <v>569.075805127452</v>
       </c>
     </row>
     <row r="53">
@@ -3227,40 +3227,40 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>560.889352222327</v>
+        <v>568.9295829613538</v>
       </c>
       <c r="D53" t="n">
-        <v>486.9240310541192</v>
+        <v>479.5387173202932</v>
       </c>
       <c r="E53" t="n">
-        <v>614.637670222422</v>
+        <v>648.6485332321304</v>
       </c>
       <c r="F53" t="n">
-        <v>560.889352222327</v>
+        <v>568.9295829613538</v>
       </c>
       <c r="G53" t="n">
-        <v>560.889352222327</v>
+        <v>568.9295829613538</v>
       </c>
       <c r="H53" t="n">
-        <v>-10.79945732119856</v>
+        <v>-5.196770686747498</v>
       </c>
       <c r="I53" t="n">
-        <v>-10.79945732119856</v>
+        <v>-5.196770686747498</v>
       </c>
       <c r="J53" t="n">
-        <v>-10.79945732119856</v>
+        <v>-5.196770686747498</v>
       </c>
       <c r="K53" t="n">
-        <v>-10.79945732119856</v>
+        <v>-5.196770686747498</v>
       </c>
       <c r="L53" t="n">
-        <v>-10.79945732119856</v>
+        <v>-5.196770686747498</v>
       </c>
       <c r="M53" t="n">
-        <v>-10.79945732119856</v>
+        <v>-5.196770686747498</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>550.0898949011284</v>
+        <v>563.7328122746063</v>
       </c>
     </row>
     <row r="54">
@@ -3280,40 +3280,40 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>562.3096885144712</v>
+        <v>569.4493297622628</v>
       </c>
       <c r="D54" t="n">
-        <v>499.00654550173</v>
+        <v>496.7185874969792</v>
       </c>
       <c r="E54" t="n">
-        <v>631.6420768233927</v>
+        <v>659.5884137425235</v>
       </c>
       <c r="F54" t="n">
-        <v>562.3096885144712</v>
+        <v>569.4493297622628</v>
       </c>
       <c r="G54" t="n">
-        <v>562.3096885144712</v>
+        <v>569.4493297622628</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1400726405537708</v>
+        <v>10.60202496868032</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1400726405537708</v>
+        <v>10.60202496868032</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1400726405537708</v>
+        <v>10.60202496868032</v>
       </c>
       <c r="K54" t="n">
-        <v>0.1400726405537708</v>
+        <v>10.60202496868032</v>
       </c>
       <c r="L54" t="n">
-        <v>0.1400726405537708</v>
+        <v>10.60202496868032</v>
       </c>
       <c r="M54" t="n">
-        <v>0.1400726405537708</v>
+        <v>10.60202496868032</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>562.4497611550249</v>
+        <v>580.0513547309431</v>
       </c>
     </row>
     <row r="55">
@@ -3333,40 +3333,40 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>563.7770047899689</v>
+        <v>569.9864014565354</v>
       </c>
       <c r="D55" t="n">
-        <v>462.5459597609148</v>
+        <v>493.4360882720198</v>
       </c>
       <c r="E55" t="n">
-        <v>595.717574862675</v>
+        <v>657.4184273140272</v>
       </c>
       <c r="F55" t="n">
-        <v>563.7770047899689</v>
+        <v>569.9864014565354</v>
       </c>
       <c r="G55" t="n">
-        <v>563.7770047899689</v>
+        <v>569.9864014565354</v>
       </c>
       <c r="H55" t="n">
-        <v>-32.73731439008545</v>
+        <v>4.440455707141075</v>
       </c>
       <c r="I55" t="n">
-        <v>-32.73731439008545</v>
+        <v>4.440455707141075</v>
       </c>
       <c r="J55" t="n">
-        <v>-32.73731439008545</v>
+        <v>4.440455707141075</v>
       </c>
       <c r="K55" t="n">
-        <v>-32.73731439008545</v>
+        <v>4.440455707141075</v>
       </c>
       <c r="L55" t="n">
-        <v>-32.73731439008545</v>
+        <v>4.440455707141075</v>
       </c>
       <c r="M55" t="n">
-        <v>-32.73731439008545</v>
+        <v>4.440455707141075</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>531.0396903998835</v>
+        <v>574.4268571636765</v>
       </c>
     </row>
     <row r="56">
@@ -3386,40 +3386,40 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>565.1969882823861</v>
+        <v>570.5061482574444</v>
       </c>
       <c r="D56" t="n">
-        <v>504.7972598474327</v>
+        <v>506.6437138773009</v>
       </c>
       <c r="E56" t="n">
-        <v>640.6882898669377</v>
+        <v>674.3951788480706</v>
       </c>
       <c r="F56" t="n">
-        <v>565.1969882823861</v>
+        <v>570.5061482574444</v>
       </c>
       <c r="G56" t="n">
-        <v>565.1969882823861</v>
+        <v>570.5061482574444</v>
       </c>
       <c r="H56" t="n">
-        <v>12.97529143662509</v>
+        <v>20.337656509257</v>
       </c>
       <c r="I56" t="n">
-        <v>12.97529143662509</v>
+        <v>20.337656509257</v>
       </c>
       <c r="J56" t="n">
-        <v>12.97529143662509</v>
+        <v>20.337656509257</v>
       </c>
       <c r="K56" t="n">
-        <v>12.97529143662509</v>
+        <v>20.337656509257</v>
       </c>
       <c r="L56" t="n">
-        <v>12.97529143662509</v>
+        <v>20.337656509257</v>
       </c>
       <c r="M56" t="n">
-        <v>12.97529143662509</v>
+        <v>20.337656509257</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>578.1722797190112</v>
+        <v>590.8438047667014</v>
       </c>
     </row>
     <row r="57">
@@ -3439,40 +3439,40 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>566.658032351358</v>
+        <v>571.043219951717</v>
       </c>
       <c r="D57" t="n">
-        <v>505.6803736601009</v>
+        <v>513.4559077005788</v>
       </c>
       <c r="E57" t="n">
-        <v>637.3254709292797</v>
+        <v>670.7752107608541</v>
       </c>
       <c r="F57" t="n">
-        <v>566.658032351358</v>
+        <v>571.043219951717</v>
       </c>
       <c r="G57" t="n">
-        <v>566.658032351358</v>
+        <v>571.043219951717</v>
       </c>
       <c r="H57" t="n">
-        <v>5.732512616498132</v>
+        <v>20.20425978805244</v>
       </c>
       <c r="I57" t="n">
-        <v>5.732512616498132</v>
+        <v>20.20425978805244</v>
       </c>
       <c r="J57" t="n">
-        <v>5.732512616498132</v>
+        <v>20.20425978805244</v>
       </c>
       <c r="K57" t="n">
-        <v>5.732512616498132</v>
+        <v>20.20425978805244</v>
       </c>
       <c r="L57" t="n">
-        <v>5.732512616498132</v>
+        <v>20.20425978805244</v>
       </c>
       <c r="M57" t="n">
-        <v>5.732512616498132</v>
+        <v>20.20425978805244</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>572.3905449678562</v>
+        <v>591.2474797397695</v>
       </c>
     </row>
     <row r="58">
@@ -3492,40 +3492,40 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>568.11907642033</v>
+        <v>571.5802916459896</v>
       </c>
       <c r="D58" t="n">
-        <v>518.4068839497071</v>
+        <v>515.034892734663</v>
       </c>
       <c r="E58" t="n">
-        <v>648.8336566771613</v>
+        <v>680.6927328276254</v>
       </c>
       <c r="F58" t="n">
-        <v>568.11907642033</v>
+        <v>571.5802916459896</v>
       </c>
       <c r="G58" t="n">
-        <v>568.11907642033</v>
+        <v>571.5802916459896</v>
       </c>
       <c r="H58" t="n">
-        <v>15.77341136373332</v>
+        <v>20.82876716306635</v>
       </c>
       <c r="I58" t="n">
-        <v>15.77341136373332</v>
+        <v>20.82876716306635</v>
       </c>
       <c r="J58" t="n">
-        <v>15.77341136373332</v>
+        <v>20.82876716306635</v>
       </c>
       <c r="K58" t="n">
-        <v>15.77341136373332</v>
+        <v>20.82876716306635</v>
       </c>
       <c r="L58" t="n">
-        <v>15.77341136373332</v>
+        <v>20.82876716306635</v>
       </c>
       <c r="M58" t="n">
-        <v>15.77341136373332</v>
+        <v>20.82876716306635</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>583.8924877840633</v>
+        <v>592.409058809056</v>
       </c>
     </row>
     <row r="59">
@@ -3545,40 +3545,40 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>569.532990035464</v>
+        <v>572.1000384468986</v>
       </c>
       <c r="D59" t="n">
-        <v>488.5376963186267</v>
+        <v>488.4568246036011</v>
       </c>
       <c r="E59" t="n">
-        <v>622.2770162282654</v>
+        <v>652.3764892366476</v>
       </c>
       <c r="F59" t="n">
-        <v>569.532990035464</v>
+        <v>572.1000384468986</v>
       </c>
       <c r="G59" t="n">
-        <v>569.532990035464</v>
+        <v>572.1000384468986</v>
       </c>
       <c r="H59" t="n">
-        <v>-13.89528032430604</v>
+        <v>-1.384662825227482</v>
       </c>
       <c r="I59" t="n">
-        <v>-13.89528032430604</v>
+        <v>-1.384662825227482</v>
       </c>
       <c r="J59" t="n">
-        <v>-13.89528032430604</v>
+        <v>-1.384662825227482</v>
       </c>
       <c r="K59" t="n">
-        <v>-13.89528032430604</v>
+        <v>-1.384662825227482</v>
       </c>
       <c r="L59" t="n">
-        <v>-13.89528032430604</v>
+        <v>-1.384662825227482</v>
       </c>
       <c r="M59" t="n">
-        <v>-13.89528032430604</v>
+        <v>-1.384662825227482</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>555.637709711158</v>
+        <v>570.7153756216711</v>
       </c>
     </row>
     <row r="60">
@@ -3598,40 +3598,40 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>570.9833191220596</v>
+        <v>572.6371101411712</v>
       </c>
       <c r="D60" t="n">
-        <v>485.1058680411759</v>
+        <v>485.3083623671059</v>
       </c>
       <c r="E60" t="n">
-        <v>618.4533382183779</v>
+        <v>649.8076331019961</v>
       </c>
       <c r="F60" t="n">
-        <v>570.9833191220596</v>
+        <v>572.6371101411712</v>
       </c>
       <c r="G60" t="n">
-        <v>570.9833191220596</v>
+        <v>572.6371101411712</v>
       </c>
       <c r="H60" t="n">
-        <v>-17.82756778813996</v>
+        <v>-8.147140066772089</v>
       </c>
       <c r="I60" t="n">
-        <v>-17.82756778813996</v>
+        <v>-8.147140066772089</v>
       </c>
       <c r="J60" t="n">
-        <v>-17.82756778813996</v>
+        <v>-8.147140066772089</v>
       </c>
       <c r="K60" t="n">
-        <v>-17.82756778813996</v>
+        <v>-8.147140066772089</v>
       </c>
       <c r="L60" t="n">
-        <v>-17.82756778813996</v>
+        <v>-8.147140066772089</v>
       </c>
       <c r="M60" t="n">
-        <v>-17.82756778813996</v>
+        <v>-8.147140066772089</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>553.1557513339196</v>
+        <v>564.4899700743991</v>
       </c>
     </row>
     <row r="61">
@@ -3651,40 +3651,40 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>572.3868633994101</v>
+        <v>573.1568569420801</v>
       </c>
       <c r="D61" t="n">
-        <v>495.0665624586671</v>
+        <v>473.3733377828179</v>
       </c>
       <c r="E61" t="n">
-        <v>628.4159603265409</v>
+        <v>642.3420014173618</v>
       </c>
       <c r="F61" t="n">
-        <v>572.3868633994101</v>
+        <v>573.1568569420801</v>
       </c>
       <c r="G61" t="n">
-        <v>572.3868633994101</v>
+        <v>573.1568569420801</v>
       </c>
       <c r="H61" t="n">
-        <v>-12.20121731152765</v>
+        <v>-14.62095178672973</v>
       </c>
       <c r="I61" t="n">
-        <v>-12.20121731152765</v>
+        <v>-14.62095178672973</v>
       </c>
       <c r="J61" t="n">
-        <v>-12.20121731152765</v>
+        <v>-14.62095178672973</v>
       </c>
       <c r="K61" t="n">
-        <v>-12.20121731152765</v>
+        <v>-14.62095178672973</v>
       </c>
       <c r="L61" t="n">
-        <v>-12.20121731152765</v>
+        <v>-14.62095178672973</v>
       </c>
       <c r="M61" t="n">
-        <v>-12.20121731152765</v>
+        <v>-14.62095178672973</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>560.1856460878824</v>
+        <v>558.5359051553504</v>
       </c>
     </row>
     <row r="62">
@@ -3704,40 +3704,40 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>573.8303810404826</v>
+        <v>573.6939286363528</v>
       </c>
       <c r="D62" t="n">
-        <v>489.6955779548317</v>
+        <v>481.5405654631818</v>
       </c>
       <c r="E62" t="n">
-        <v>627.4732041648433</v>
+        <v>646.2205955979833</v>
       </c>
       <c r="F62" t="n">
-        <v>573.8303810404826</v>
+        <v>573.6939286363528</v>
       </c>
       <c r="G62" t="n">
-        <v>573.8303810404826</v>
+        <v>573.6939286363528</v>
       </c>
       <c r="H62" t="n">
-        <v>-13.57374507291229</v>
+        <v>-12.05683188153773</v>
       </c>
       <c r="I62" t="n">
-        <v>-13.57374507291229</v>
+        <v>-12.05683188153773</v>
       </c>
       <c r="J62" t="n">
-        <v>-13.57374507291229</v>
+        <v>-12.05683188153773</v>
       </c>
       <c r="K62" t="n">
-        <v>-13.57374507291229</v>
+        <v>-12.05683188153773</v>
       </c>
       <c r="L62" t="n">
-        <v>-13.57374507291229</v>
+        <v>-12.05683188153773</v>
       </c>
       <c r="M62" t="n">
-        <v>-13.57374507291229</v>
+        <v>-12.05683188153773</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>560.2566359675703</v>
+        <v>561.637096754815</v>
       </c>
     </row>
     <row r="63">
@@ -3757,40 +3757,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>575.2738986815549</v>
+        <v>574.2310003306253</v>
       </c>
       <c r="D63" t="n">
-        <v>471.7525024323735</v>
+        <v>467.6635296108437</v>
       </c>
       <c r="E63" t="n">
-        <v>608.1034044706215</v>
+        <v>635.0394189273677</v>
       </c>
       <c r="F63" t="n">
-        <v>575.2738986815549</v>
+        <v>574.2310003306253</v>
       </c>
       <c r="G63" t="n">
-        <v>575.2738986815549</v>
+        <v>574.2310003306253</v>
       </c>
       <c r="H63" t="n">
-        <v>-33.80309327332063</v>
+        <v>-22.03678930794115</v>
       </c>
       <c r="I63" t="n">
-        <v>-33.80309327332063</v>
+        <v>-22.03678930794115</v>
       </c>
       <c r="J63" t="n">
-        <v>-33.80309327332063</v>
+        <v>-22.03678930794115</v>
       </c>
       <c r="K63" t="n">
-        <v>-33.80309327332063</v>
+        <v>-22.03678930794115</v>
       </c>
       <c r="L63" t="n">
-        <v>-33.80309327332063</v>
+        <v>-22.03678930794115</v>
       </c>
       <c r="M63" t="n">
-        <v>-33.80309327332063</v>
+        <v>-22.03678930794115</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>541.4708054082342</v>
+        <v>552.1942110226842</v>
       </c>
     </row>
     <row r="64">
@@ -3810,40 +3810,40 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>576.5777210670396</v>
+        <v>574.7160973448071</v>
       </c>
       <c r="D64" t="n">
-        <v>499.0068491664406</v>
+        <v>490.1576524141119</v>
       </c>
       <c r="E64" t="n">
-        <v>636.401207426401</v>
+        <v>657.8486479754669</v>
       </c>
       <c r="F64" t="n">
-        <v>576.5777210670396</v>
+        <v>574.7160973448071</v>
       </c>
       <c r="G64" t="n">
-        <v>576.5777210670396</v>
+        <v>574.7160973448071</v>
       </c>
       <c r="H64" t="n">
-        <v>-6.853902974974505</v>
+        <v>-2.390666922372155</v>
       </c>
       <c r="I64" t="n">
-        <v>-6.853902974974505</v>
+        <v>-2.390666922372155</v>
       </c>
       <c r="J64" t="n">
-        <v>-6.853902974974505</v>
+        <v>-2.390666922372155</v>
       </c>
       <c r="K64" t="n">
-        <v>-6.853902974974505</v>
+        <v>-2.390666922372155</v>
       </c>
       <c r="L64" t="n">
-        <v>-6.853902974974505</v>
+        <v>-2.390666922372155</v>
       </c>
       <c r="M64" t="n">
-        <v>-6.853902974974505</v>
+        <v>-2.390666922372155</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>569.7238180920651</v>
+        <v>572.3254304224349</v>
       </c>
     </row>
     <row r="65">
@@ -3863,40 +3863,40 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>578.0212387081122</v>
+        <v>575.2531690390796</v>
       </c>
       <c r="D65" t="n">
-        <v>501.3115885854031</v>
+        <v>500.8742853632563</v>
       </c>
       <c r="E65" t="n">
-        <v>636.0640648675503</v>
+        <v>657.3599045078572</v>
       </c>
       <c r="F65" t="n">
-        <v>578.0212387081122</v>
+        <v>575.2531690390796</v>
       </c>
       <c r="G65" t="n">
-        <v>578.0212387081122</v>
+        <v>575.2531690390796</v>
       </c>
       <c r="H65" t="n">
-        <v>-7.991501160658709</v>
+        <v>4.034762998016868</v>
       </c>
       <c r="I65" t="n">
-        <v>-7.991501160658709</v>
+        <v>4.034762998016868</v>
       </c>
       <c r="J65" t="n">
-        <v>-7.991501160658709</v>
+        <v>4.034762998016868</v>
       </c>
       <c r="K65" t="n">
-        <v>-7.991501160658709</v>
+        <v>4.034762998016868</v>
       </c>
       <c r="L65" t="n">
-        <v>-7.991501160658709</v>
+        <v>4.034762998016868</v>
       </c>
       <c r="M65" t="n">
-        <v>-7.991501160658709</v>
+        <v>4.034762998016868</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>570.0297375474535</v>
+        <v>579.2879320370964</v>
       </c>
     </row>
     <row r="66">
@@ -3916,40 +3916,40 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>579.4181912639885</v>
+        <v>575.7729158399886</v>
       </c>
       <c r="D66" t="n">
-        <v>501.4745976430941</v>
+        <v>515.0578349770309</v>
       </c>
       <c r="E66" t="n">
-        <v>638.6291478244382</v>
+        <v>671.9603280345963</v>
       </c>
       <c r="F66" t="n">
-        <v>579.4181912639885</v>
+        <v>575.7729158399886</v>
       </c>
       <c r="G66" t="n">
-        <v>579.4181912639885</v>
+        <v>575.7729158399886</v>
       </c>
       <c r="H66" t="n">
-        <v>-11.07344215066393</v>
+        <v>14.34855030506043</v>
       </c>
       <c r="I66" t="n">
-        <v>-11.07344215066393</v>
+        <v>14.34855030506043</v>
       </c>
       <c r="J66" t="n">
-        <v>-11.07344215066393</v>
+        <v>14.34855030506043</v>
       </c>
       <c r="K66" t="n">
-        <v>-11.07344215066393</v>
+        <v>14.34855030506043</v>
       </c>
       <c r="L66" t="n">
-        <v>-11.07344215066393</v>
+        <v>14.34855030506043</v>
       </c>
       <c r="M66" t="n">
-        <v>-11.07344215066393</v>
+        <v>14.34855030506043</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>568.3447491133246</v>
+        <v>590.1214661450491</v>
       </c>
     </row>
     <row r="67">
@@ -3969,40 +3969,40 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>580.8617089050611</v>
+        <v>576.3099875342612</v>
       </c>
       <c r="D67" t="n">
-        <v>500.7273509539282</v>
+        <v>495.724155744941</v>
       </c>
       <c r="E67" t="n">
-        <v>631.7518477573119</v>
+        <v>663.8973114880199</v>
       </c>
       <c r="F67" t="n">
-        <v>580.8617089050611</v>
+        <v>576.3094996624646</v>
       </c>
       <c r="G67" t="n">
-        <v>580.8617089050611</v>
+        <v>576.3103686689803</v>
       </c>
       <c r="H67" t="n">
-        <v>-19.30190888600574</v>
+        <v>4.410590747335083</v>
       </c>
       <c r="I67" t="n">
-        <v>-19.30190888600574</v>
+        <v>4.410590747335083</v>
       </c>
       <c r="J67" t="n">
-        <v>-19.30190888600574</v>
+        <v>4.410590747335083</v>
       </c>
       <c r="K67" t="n">
-        <v>-19.30190888600574</v>
+        <v>4.410590747335083</v>
       </c>
       <c r="L67" t="n">
-        <v>-19.30190888600574</v>
+        <v>4.410590747335083</v>
       </c>
       <c r="M67" t="n">
-        <v>-19.30190888600574</v>
+        <v>4.410590747335083</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>561.5598000190553</v>
+        <v>580.7205782815962</v>
       </c>
     </row>
     <row r="68">
@@ -4022,40 +4022,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>582.2586614609376</v>
+        <v>576.8297343351701</v>
       </c>
       <c r="D68" t="n">
-        <v>524.6616545874908</v>
+        <v>507.3834514832152</v>
       </c>
       <c r="E68" t="n">
-        <v>657.2393956962532</v>
+        <v>667.5902399167234</v>
       </c>
       <c r="F68" t="n">
-        <v>582.2586614609376</v>
+        <v>576.8270343812835</v>
       </c>
       <c r="G68" t="n">
-        <v>582.2586614609376</v>
+        <v>576.8322211171894</v>
       </c>
       <c r="H68" t="n">
-        <v>8.171411248619835</v>
+        <v>10.82475607699962</v>
       </c>
       <c r="I68" t="n">
-        <v>8.171411248619835</v>
+        <v>10.82475607699962</v>
       </c>
       <c r="J68" t="n">
-        <v>8.171411248619835</v>
+        <v>10.82475607699962</v>
       </c>
       <c r="K68" t="n">
-        <v>8.171411248619835</v>
+        <v>10.82475607699962</v>
       </c>
       <c r="L68" t="n">
-        <v>8.171411248619835</v>
+        <v>10.82475607699962</v>
       </c>
       <c r="M68" t="n">
-        <v>8.171411248619835</v>
+        <v>10.82475607699962</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>590.4300727095574</v>
+        <v>587.6544904121697</v>
       </c>
     </row>
     <row r="69">
@@ -4075,40 +4075,40 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44409</v>
+        <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>583.7021791020099</v>
+        <v>577.3668060294428</v>
       </c>
       <c r="D69" t="n">
-        <v>527.3906481423775</v>
+        <v>513.8047466973738</v>
       </c>
       <c r="E69" t="n">
-        <v>662.7613378949361</v>
+        <v>680.2668266699111</v>
       </c>
       <c r="F69" t="n">
-        <v>583.7021791020099</v>
+        <v>577.3608926785266</v>
       </c>
       <c r="G69" t="n">
-        <v>583.7021791020099</v>
+        <v>577.3718396414388</v>
       </c>
       <c r="H69" t="n">
-        <v>8.682353848040618</v>
+        <v>21.57706798800619</v>
       </c>
       <c r="I69" t="n">
-        <v>8.682353848040618</v>
+        <v>21.57706798800619</v>
       </c>
       <c r="J69" t="n">
-        <v>8.682353848040618</v>
+        <v>21.57706798800619</v>
       </c>
       <c r="K69" t="n">
-        <v>8.682353848040618</v>
+        <v>21.57706798800619</v>
       </c>
       <c r="L69" t="n">
-        <v>8.682353848040618</v>
+        <v>21.57706798800619</v>
       </c>
       <c r="M69" t="n">
-        <v>8.682353848040618</v>
+        <v>21.57706798800619</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>592.3845329500506</v>
+        <v>598.943874017449</v>
       </c>
     </row>
     <row r="70">
@@ -4128,40 +4128,40 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>585.1456967430823</v>
+        <v>577.9038777237154</v>
       </c>
       <c r="D70" t="n">
-        <v>520.8337651627222</v>
+        <v>509.2731169613745</v>
       </c>
       <c r="E70" t="n">
-        <v>663.7553960145797</v>
+        <v>676.3580946698327</v>
       </c>
       <c r="F70" t="n">
-        <v>585.1456967430823</v>
+        <v>577.8940741703069</v>
       </c>
       <c r="G70" t="n">
-        <v>585.1456967430823</v>
+        <v>577.9126889923476</v>
       </c>
       <c r="H70" t="n">
-        <v>10.1064594504929</v>
+        <v>15.70554332650893</v>
       </c>
       <c r="I70" t="n">
-        <v>10.1064594504929</v>
+        <v>15.70554332650893</v>
       </c>
       <c r="J70" t="n">
-        <v>10.1064594504929</v>
+        <v>15.70554332650893</v>
       </c>
       <c r="K70" t="n">
-        <v>10.1064594504929</v>
+        <v>15.70554332650893</v>
       </c>
       <c r="L70" t="n">
-        <v>10.1064594504929</v>
+        <v>15.70554332650893</v>
       </c>
       <c r="M70" t="n">
-        <v>10.1064594504929</v>
+        <v>15.70554332650893</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>595.2521561935753</v>
+        <v>593.6094210502243</v>
       </c>
     </row>
     <row r="71">
@@ -4181,40 +4181,40 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>586.5426492989588</v>
+        <v>578.4236245246243</v>
       </c>
       <c r="D71" t="n">
-        <v>508.5442003576624</v>
+        <v>501.0549726056382</v>
       </c>
       <c r="E71" t="n">
-        <v>639.7544355098007</v>
+        <v>656.1275261164856</v>
       </c>
       <c r="F71" t="n">
-        <v>586.5426492989588</v>
+        <v>578.4101342431255</v>
       </c>
       <c r="G71" t="n">
-        <v>586.5426492989588</v>
+        <v>578.4362380490226</v>
       </c>
       <c r="H71" t="n">
-        <v>-11.22289668611633</v>
+        <v>3.437301322928489</v>
       </c>
       <c r="I71" t="n">
-        <v>-11.22289668611633</v>
+        <v>3.437301322928489</v>
       </c>
       <c r="J71" t="n">
-        <v>-11.22289668611633</v>
+        <v>3.437301322928489</v>
       </c>
       <c r="K71" t="n">
-        <v>-11.22289668611633</v>
+        <v>3.437301322928489</v>
       </c>
       <c r="L71" t="n">
-        <v>-11.22289668611633</v>
+        <v>3.437301322928489</v>
       </c>
       <c r="M71" t="n">
-        <v>-11.22289668611633</v>
+        <v>3.437301322928489</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>575.3197526128425</v>
+        <v>581.8609258475528</v>
       </c>
     </row>
     <row r="72">
@@ -4234,40 +4234,40 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44501</v>
+        <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>587.9861669400312</v>
+        <v>578.9606962188969</v>
       </c>
       <c r="D72" t="n">
-        <v>509.6853237382686</v>
+        <v>498.7864546514051</v>
       </c>
       <c r="E72" t="n">
-        <v>639.3122271501957</v>
+        <v>662.2789570270392</v>
       </c>
       <c r="F72" t="n">
-        <v>587.9861669400312</v>
+        <v>578.9432804222732</v>
       </c>
       <c r="G72" t="n">
-        <v>587.9861669400312</v>
+        <v>578.9778294648082</v>
       </c>
       <c r="H72" t="n">
-        <v>-13.2235644397266</v>
+        <v>0.6492678133346969</v>
       </c>
       <c r="I72" t="n">
-        <v>-13.2235644397266</v>
+        <v>0.6492678133346969</v>
       </c>
       <c r="J72" t="n">
-        <v>-13.2235644397266</v>
+        <v>0.6492678133346969</v>
       </c>
       <c r="K72" t="n">
-        <v>-13.2235644397266</v>
+        <v>0.6492678133346969</v>
       </c>
       <c r="L72" t="n">
-        <v>-13.2235644397266</v>
+        <v>0.6492678133346969</v>
       </c>
       <c r="M72" t="n">
-        <v>-13.2235644397266</v>
+        <v>0.6492678133346969</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>574.7626025003046</v>
+        <v>579.6099640322317</v>
       </c>
     </row>
     <row r="73">
@@ -4287,40 +4287,40 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>589.3831194959079</v>
+        <v>579.4804430198059</v>
       </c>
       <c r="D73" t="n">
-        <v>502.791797694591</v>
+        <v>482.944046803538</v>
       </c>
       <c r="E73" t="n">
-        <v>639.709024484445</v>
+        <v>650.6721408750185</v>
       </c>
       <c r="F73" t="n">
-        <v>589.3831194959079</v>
+        <v>579.459074330161</v>
       </c>
       <c r="G73" t="n">
-        <v>589.3831194959079</v>
+        <v>579.5018850879128</v>
       </c>
       <c r="H73" t="n">
-        <v>-20.66640558010568</v>
+        <v>-11.56289321906274</v>
       </c>
       <c r="I73" t="n">
-        <v>-20.66640558010568</v>
+        <v>-11.56289321906274</v>
       </c>
       <c r="J73" t="n">
-        <v>-20.66640558010568</v>
+        <v>-11.56289321906274</v>
       </c>
       <c r="K73" t="n">
-        <v>-20.66640558010568</v>
+        <v>-11.56289321906274</v>
       </c>
       <c r="L73" t="n">
-        <v>-20.66640558010568</v>
+        <v>-11.56289321906274</v>
       </c>
       <c r="M73" t="n">
-        <v>-20.66640558010568</v>
+        <v>-11.56289321906274</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>568.7167139158022</v>
+        <v>567.9175498007431</v>
       </c>
     </row>
     <row r="74">
@@ -4340,40 +4340,40 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>590.8266371369801</v>
+        <v>580.0175147140785</v>
       </c>
       <c r="D74" t="n">
-        <v>507.7355058482106</v>
+        <v>471.0121928667337</v>
       </c>
       <c r="E74" t="n">
-        <v>646.4944012407256</v>
+        <v>641.4796566036397</v>
       </c>
       <c r="F74" t="n">
-        <v>590.8266371369801</v>
+        <v>579.9905703921299</v>
       </c>
       <c r="G74" t="n">
-        <v>590.8266371369801</v>
+        <v>580.0431290146906</v>
       </c>
       <c r="H74" t="n">
-        <v>-13.20398093924577</v>
+        <v>-24.98613513550356</v>
       </c>
       <c r="I74" t="n">
-        <v>-13.20398093924577</v>
+        <v>-24.98613513550356</v>
       </c>
       <c r="J74" t="n">
-        <v>-13.20398093924577</v>
+        <v>-24.98613513550356</v>
       </c>
       <c r="K74" t="n">
-        <v>-13.20398093924577</v>
+        <v>-24.98613513550356</v>
       </c>
       <c r="L74" t="n">
-        <v>-13.20398093924577</v>
+        <v>-24.98613513550356</v>
       </c>
       <c r="M74" t="n">
-        <v>-13.20398093924577</v>
+        <v>-24.98613513550356</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>577.6226561977344</v>
+        <v>555.031379578575</v>
       </c>
     </row>
     <row r="75">
@@ -4393,40 +4393,40 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>592.2701547780525</v>
+        <v>580.5545864083512</v>
       </c>
       <c r="D75" t="n">
-        <v>502.8926880756767</v>
+        <v>479.5435623655644</v>
       </c>
       <c r="E75" t="n">
-        <v>638.472129941181</v>
+        <v>635.9512974836906</v>
       </c>
       <c r="F75" t="n">
-        <v>592.2701547780525</v>
+        <v>580.5212918293537</v>
       </c>
       <c r="G75" t="n">
-        <v>592.2701547780525</v>
+        <v>580.5858566259516</v>
       </c>
       <c r="H75" t="n">
-        <v>-24.15381468093988</v>
+        <v>-22.68534000146277</v>
       </c>
       <c r="I75" t="n">
-        <v>-24.15381468093988</v>
+        <v>-22.68534000146277</v>
       </c>
       <c r="J75" t="n">
-        <v>-24.15381468093988</v>
+        <v>-22.68534000146277</v>
       </c>
       <c r="K75" t="n">
-        <v>-24.15381468093988</v>
+        <v>-22.68534000146277</v>
       </c>
       <c r="L75" t="n">
-        <v>-24.15381468093988</v>
+        <v>-22.68534000146277</v>
       </c>
       <c r="M75" t="n">
-        <v>-24.15381468093988</v>
+        <v>-22.68534000146277</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>568.1163400971127</v>
+        <v>557.8692464068884</v>
       </c>
     </row>
     <row r="76">
@@ -4446,40 +4446,40 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>593.5739771635374</v>
+        <v>581.0396834225328</v>
       </c>
       <c r="D76" t="n">
-        <v>514.7451671854158</v>
+        <v>491.9645717503225</v>
       </c>
       <c r="E76" t="n">
-        <v>649.8201805708019</v>
+        <v>657.91813789976</v>
       </c>
       <c r="F76" t="n">
-        <v>593.5739771635374</v>
+        <v>581.0012713064383</v>
       </c>
       <c r="G76" t="n">
-        <v>593.5739771635374</v>
+        <v>581.0763961326849</v>
       </c>
       <c r="H76" t="n">
-        <v>-13.68094105519206</v>
+        <v>-5.258277229670575</v>
       </c>
       <c r="I76" t="n">
-        <v>-13.68094105519206</v>
+        <v>-5.258277229670575</v>
       </c>
       <c r="J76" t="n">
-        <v>-13.68094105519206</v>
+        <v>-5.258277229670575</v>
       </c>
       <c r="K76" t="n">
-        <v>-13.68094105519206</v>
+        <v>-5.258277229670575</v>
       </c>
       <c r="L76" t="n">
-        <v>-13.68094105519206</v>
+        <v>-5.258277229670575</v>
       </c>
       <c r="M76" t="n">
-        <v>-13.68094105519206</v>
+        <v>-5.258277229670575</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>579.8930361083453</v>
+        <v>575.7814061928622</v>
       </c>
     </row>
     <row r="77">
@@ -4499,40 +4499,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>595.0174948046098</v>
+        <v>581.5767551168054</v>
       </c>
       <c r="D77" t="n">
-        <v>520.7697334178997</v>
+        <v>514.8643375764644</v>
       </c>
       <c r="E77" t="n">
-        <v>657.7103326343424</v>
+        <v>676.6743836946217</v>
       </c>
       <c r="F77" t="n">
-        <v>595.0174948046098</v>
+        <v>581.5326303781164</v>
       </c>
       <c r="G77" t="n">
-        <v>595.0174948046098</v>
+        <v>581.6198526864181</v>
       </c>
       <c r="H77" t="n">
-        <v>-5.232667021314228</v>
+        <v>13.37826535747313</v>
       </c>
       <c r="I77" t="n">
-        <v>-5.232667021314228</v>
+        <v>13.37826535747313</v>
       </c>
       <c r="J77" t="n">
-        <v>-5.232667021314228</v>
+        <v>13.37826535747313</v>
       </c>
       <c r="K77" t="n">
-        <v>-5.232667021314228</v>
+        <v>13.37826535747313</v>
       </c>
       <c r="L77" t="n">
-        <v>-5.232667021314228</v>
+        <v>13.37826535747313</v>
       </c>
       <c r="M77" t="n">
-        <v>-5.232667021314228</v>
+        <v>13.37826535747313</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>589.7848277832956</v>
+        <v>594.9550204742785</v>
       </c>
     </row>
     <row r="78">
@@ -4552,40 +4552,40 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>596.4144473604863</v>
+        <v>582.0965019177144</v>
       </c>
       <c r="D78" t="n">
-        <v>505.7874965080244</v>
+        <v>515.4291658904485</v>
       </c>
       <c r="E78" t="n">
-        <v>641.7218817948186</v>
+        <v>681.8784472518967</v>
       </c>
       <c r="F78" t="n">
-        <v>596.4143700007486</v>
+        <v>582.0447505581478</v>
       </c>
       <c r="G78" t="n">
-        <v>596.414508211461</v>
+        <v>582.1449738016498</v>
       </c>
       <c r="H78" t="n">
-        <v>-22.1219937386643</v>
+        <v>17.9117639717299</v>
       </c>
       <c r="I78" t="n">
-        <v>-22.1219937386643</v>
+        <v>17.9117639717299</v>
       </c>
       <c r="J78" t="n">
-        <v>-22.1219937386643</v>
+        <v>17.9117639717299</v>
       </c>
       <c r="K78" t="n">
-        <v>-22.1219937386643</v>
+        <v>17.9117639717299</v>
       </c>
       <c r="L78" t="n">
-        <v>-22.1219937386643</v>
+        <v>17.9117639717299</v>
       </c>
       <c r="M78" t="n">
-        <v>-22.1219937386643</v>
+        <v>17.9117639717299</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>574.292453621822</v>
+        <v>600.0082658894443</v>
       </c>
     </row>
     <row r="79">
@@ -4605,40 +4605,40 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>597.8579650015587</v>
+        <v>582.633573611987</v>
       </c>
       <c r="D79" t="n">
-        <v>528.3108879948982</v>
+        <v>500.308284009394</v>
       </c>
       <c r="E79" t="n">
-        <v>661.5634328076503</v>
+        <v>671.8958849707326</v>
       </c>
       <c r="F79" t="n">
-        <v>597.8570890980025</v>
+        <v>582.5739466168932</v>
       </c>
       <c r="G79" t="n">
-        <v>597.8587925410943</v>
+        <v>582.6895236036206</v>
       </c>
       <c r="H79" t="n">
-        <v>-5.752559296364405</v>
+        <v>4.140836614286761</v>
       </c>
       <c r="I79" t="n">
-        <v>-5.752559296364405</v>
+        <v>4.140836614286761</v>
       </c>
       <c r="J79" t="n">
-        <v>-5.752559296364405</v>
+        <v>4.140836614286761</v>
       </c>
       <c r="K79" t="n">
-        <v>-5.752559296364405</v>
+        <v>4.140836614286761</v>
       </c>
       <c r="L79" t="n">
-        <v>-5.752559296364405</v>
+        <v>4.140836614286761</v>
       </c>
       <c r="M79" t="n">
-        <v>-5.752559296364405</v>
+        <v>4.140836614286761</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>592.1054057051942</v>
+        <v>586.7744102262737</v>
       </c>
     </row>
     <row r="80">
@@ -4658,40 +4658,40 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>599.2549175574352</v>
+        <v>583.1533204128959</v>
       </c>
       <c r="D80" t="n">
-        <v>534.6323165724758</v>
+        <v>504.3888239140842</v>
       </c>
       <c r="E80" t="n">
-        <v>666.5651596232483</v>
+        <v>667.6895959104758</v>
       </c>
       <c r="F80" t="n">
-        <v>599.2528880058076</v>
+        <v>583.08511312667</v>
       </c>
       <c r="G80" t="n">
-        <v>599.257035106639</v>
+        <v>583.2157253415904</v>
       </c>
       <c r="H80" t="n">
-        <v>3.240164758897962</v>
+        <v>1.299227254295889</v>
       </c>
       <c r="I80" t="n">
-        <v>3.240164758897962</v>
+        <v>1.299227254295889</v>
       </c>
       <c r="J80" t="n">
-        <v>3.240164758897962</v>
+        <v>1.299227254295889</v>
       </c>
       <c r="K80" t="n">
-        <v>3.240164758897962</v>
+        <v>1.299227254295889</v>
       </c>
       <c r="L80" t="n">
-        <v>3.240164758897962</v>
+        <v>1.299227254295889</v>
       </c>
       <c r="M80" t="n">
-        <v>3.240164758897962</v>
+        <v>1.299227254295889</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>602.4950823163332</v>
+        <v>584.4525476671919</v>
       </c>
     </row>
     <row r="81">
@@ -4711,40 +4711,40 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>600.6984351985076</v>
+        <v>583.6903921071686</v>
       </c>
       <c r="D81" t="n">
-        <v>544.9450732567254</v>
+        <v>532.172081660206</v>
       </c>
       <c r="E81" t="n">
-        <v>681.5342936273919</v>
+        <v>687.9385050568509</v>
       </c>
       <c r="F81" t="n">
-        <v>600.6950201624001</v>
+        <v>583.6145493797674</v>
       </c>
       <c r="G81" t="n">
-        <v>600.7019051240748</v>
+        <v>583.7606313567987</v>
       </c>
       <c r="H81" t="n">
-        <v>11.58103404379659</v>
+        <v>23.0505691845305</v>
       </c>
       <c r="I81" t="n">
-        <v>11.58103404379659</v>
+        <v>23.0505691845305</v>
       </c>
       <c r="J81" t="n">
-        <v>11.58103404379659</v>
+        <v>23.0505691845305</v>
       </c>
       <c r="K81" t="n">
-        <v>11.58103404379659</v>
+        <v>23.0505691845305</v>
       </c>
       <c r="L81" t="n">
-        <v>11.58103404379659</v>
+        <v>23.0505691845305</v>
       </c>
       <c r="M81" t="n">
-        <v>11.58103404379659</v>
+        <v>23.0505691845305</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>612.2794692423041</v>
+        <v>606.740961291699</v>
       </c>
     </row>
     <row r="82">
@@ -4764,40 +4764,40 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>602.14195283958</v>
+        <v>584.2274638014411</v>
       </c>
       <c r="D82" t="n">
-        <v>539.1049891464648</v>
+        <v>514.805862531754</v>
       </c>
       <c r="E82" t="n">
-        <v>675.6748274381216</v>
+        <v>678.7167354011499</v>
       </c>
       <c r="F82" t="n">
-        <v>602.136982672982</v>
+        <v>584.1424565029436</v>
       </c>
       <c r="G82" t="n">
-        <v>602.147146053267</v>
+        <v>584.3045646093137</v>
       </c>
       <c r="H82" t="n">
-        <v>4.436394055561693</v>
+        <v>10.72501883333157</v>
       </c>
       <c r="I82" t="n">
-        <v>4.436394055561693</v>
+        <v>10.72501883333157</v>
       </c>
       <c r="J82" t="n">
-        <v>4.436394055561693</v>
+        <v>10.72501883333157</v>
       </c>
       <c r="K82" t="n">
-        <v>4.436394055561693</v>
+        <v>10.72501883333157</v>
       </c>
       <c r="L82" t="n">
-        <v>4.436394055561693</v>
+        <v>10.72501883333157</v>
       </c>
       <c r="M82" t="n">
-        <v>4.436394055561693</v>
+        <v>10.72501883333157</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>606.5783468951416</v>
+        <v>594.9524826347727</v>
       </c>
     </row>
     <row r="83">
@@ -4817,40 +4817,40 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44835</v>
+        <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>603.5389053954565</v>
+        <v>584.7472106023502</v>
       </c>
       <c r="D83" t="n">
-        <v>531.4065808691792</v>
+        <v>508.3525512632729</v>
       </c>
       <c r="E83" t="n">
-        <v>663.6339472719656</v>
+        <v>676.4733297127098</v>
       </c>
       <c r="F83" t="n">
-        <v>603.5321002505193</v>
+        <v>584.6539084925485</v>
       </c>
       <c r="G83" t="n">
-        <v>603.5462040402235</v>
+        <v>584.8310562117001</v>
       </c>
       <c r="H83" t="n">
-        <v>-8.451628353707752</v>
+        <v>8.460943979195331</v>
       </c>
       <c r="I83" t="n">
-        <v>-8.451628353707752</v>
+        <v>8.460943979195331</v>
       </c>
       <c r="J83" t="n">
-        <v>-8.451628353707752</v>
+        <v>8.460943979195331</v>
       </c>
       <c r="K83" t="n">
-        <v>-8.451628353707752</v>
+        <v>8.460943979195331</v>
       </c>
       <c r="L83" t="n">
-        <v>-8.451628353707752</v>
+        <v>8.460943979195331</v>
       </c>
       <c r="M83" t="n">
-        <v>-8.451628353707752</v>
+        <v>8.460943979195331</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,590 +4862,7 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>595.0872770417487</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>44866</v>
-      </c>
-      <c r="C84" t="n">
-        <v>604.9824230365289</v>
-      </c>
-      <c r="D84" t="n">
-        <v>526.4035752290804</v>
-      </c>
-      <c r="E84" t="n">
-        <v>660.391532005799</v>
-      </c>
-      <c r="F84" t="n">
-        <v>604.9732607314423</v>
-      </c>
-      <c r="G84" t="n">
-        <v>604.9919606172864</v>
-      </c>
-      <c r="H84" t="n">
-        <v>-8.733717375027718</v>
-      </c>
-      <c r="I84" t="n">
-        <v>-8.733717375027718</v>
-      </c>
-      <c r="J84" t="n">
-        <v>-8.733717375027718</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-8.733717375027718</v>
-      </c>
-      <c r="L84" t="n">
-        <v>-8.733717375027718</v>
-      </c>
-      <c r="M84" t="n">
-        <v>-8.733717375027718</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>596.2487056615012</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="C85" t="n">
-        <v>606.3793755924054</v>
-      </c>
-      <c r="D85" t="n">
-        <v>512.1526473044678</v>
-      </c>
-      <c r="E85" t="n">
-        <v>643.8507955811606</v>
-      </c>
-      <c r="F85" t="n">
-        <v>606.367778118346</v>
-      </c>
-      <c r="G85" t="n">
-        <v>606.3911998361865</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-29.13954857692483</v>
-      </c>
-      <c r="I85" t="n">
-        <v>-29.13954857692483</v>
-      </c>
-      <c r="J85" t="n">
-        <v>-29.13954857692483</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-29.13954857692483</v>
-      </c>
-      <c r="L85" t="n">
-        <v>-29.13954857692483</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-29.13954857692483</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>577.2398270154805</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="C86" t="n">
-        <v>607.8228932334778</v>
-      </c>
-      <c r="D86" t="n">
-        <v>529.4874792004118</v>
-      </c>
-      <c r="E86" t="n">
-        <v>660.7538172042956</v>
-      </c>
-      <c r="F86" t="n">
-        <v>607.8093910919048</v>
-      </c>
-      <c r="G86" t="n">
-        <v>607.8371948493694</v>
-      </c>
-      <c r="H86" t="n">
-        <v>-12.62042865453677</v>
-      </c>
-      <c r="I86" t="n">
-        <v>-12.62042865453677</v>
-      </c>
-      <c r="J86" t="n">
-        <v>-12.62042865453677</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-12.62042865453677</v>
-      </c>
-      <c r="L86" t="n">
-        <v>-12.62042865453677</v>
-      </c>
-      <c r="M86" t="n">
-        <v>-12.62042865453677</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>595.202464578941</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="C87" t="n">
-        <v>609.2664108745503</v>
-      </c>
-      <c r="D87" t="n">
-        <v>530.9668278276902</v>
-      </c>
-      <c r="E87" t="n">
-        <v>666.9173694270263</v>
-      </c>
-      <c r="F87" t="n">
-        <v>609.2502588265221</v>
-      </c>
-      <c r="G87" t="n">
-        <v>609.2834391290146</v>
-      </c>
-      <c r="H87" t="n">
-        <v>-14.53881353097993</v>
-      </c>
-      <c r="I87" t="n">
-        <v>-14.53881353097993</v>
-      </c>
-      <c r="J87" t="n">
-        <v>-14.53881353097993</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-14.53881353097993</v>
-      </c>
-      <c r="L87" t="n">
-        <v>-14.53881353097993</v>
-      </c>
-      <c r="M87" t="n">
-        <v>-14.53881353097993</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>594.7275973435703</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="C88" t="n">
-        <v>610.570233260035</v>
-      </c>
-      <c r="D88" t="n">
-        <v>521.2043552159257</v>
-      </c>
-      <c r="E88" t="n">
-        <v>655.757676030221</v>
-      </c>
-      <c r="F88" t="n">
-        <v>610.5520703042005</v>
-      </c>
-      <c r="G88" t="n">
-        <v>610.5902080154068</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-20.61643470759205</v>
-      </c>
-      <c r="I88" t="n">
-        <v>-20.61643470759205</v>
-      </c>
-      <c r="J88" t="n">
-        <v>-20.61643470759205</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-20.61643470759205</v>
-      </c>
-      <c r="L88" t="n">
-        <v>-20.61643470759205</v>
-      </c>
-      <c r="M88" t="n">
-        <v>-20.61643470759205</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>589.953798552443</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="C89" t="n">
-        <v>612.0137509011073</v>
-      </c>
-      <c r="D89" t="n">
-        <v>540.2950572873664</v>
-      </c>
-      <c r="E89" t="n">
-        <v>676.7491651927346</v>
-      </c>
-      <c r="F89" t="n">
-        <v>611.9926049931037</v>
-      </c>
-      <c r="G89" t="n">
-        <v>612.0366487798902</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-2.521368060849028</v>
-      </c>
-      <c r="I89" t="n">
-        <v>-2.521368060849028</v>
-      </c>
-      <c r="J89" t="n">
-        <v>-2.521368060849028</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-2.521368060849028</v>
-      </c>
-      <c r="L89" t="n">
-        <v>-2.521368060849028</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-2.521368060849028</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>609.4923828402583</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="C90" t="n">
-        <v>613.4107034569839</v>
-      </c>
-      <c r="D90" t="n">
-        <v>514.3066643964401</v>
-      </c>
-      <c r="E90" t="n">
-        <v>645.7305432250597</v>
-      </c>
-      <c r="F90" t="n">
-        <v>613.3871650627641</v>
-      </c>
-      <c r="G90" t="n">
-        <v>613.4364234397685</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-32.99685891523657</v>
-      </c>
-      <c r="I90" t="n">
-        <v>-32.99685891523657</v>
-      </c>
-      <c r="J90" t="n">
-        <v>-32.99685891523657</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-32.99685891523657</v>
-      </c>
-      <c r="L90" t="n">
-        <v>-32.99685891523657</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-32.99685891523657</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>580.4138445417474</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="C91" t="n">
-        <v>614.8542210980563</v>
-      </c>
-      <c r="D91" t="n">
-        <v>560.0636977058089</v>
-      </c>
-      <c r="E91" t="n">
-        <v>687.9663474411421</v>
-      </c>
-      <c r="F91" t="n">
-        <v>614.828460827549</v>
-      </c>
-      <c r="G91" t="n">
-        <v>614.8830432134258</v>
-      </c>
-      <c r="H91" t="n">
-        <v>7.898868648780292</v>
-      </c>
-      <c r="I91" t="n">
-        <v>7.898868648780292</v>
-      </c>
-      <c r="J91" t="n">
-        <v>7.898868648780292</v>
-      </c>
-      <c r="K91" t="n">
-        <v>7.898868648780292</v>
-      </c>
-      <c r="L91" t="n">
-        <v>7.898868648780292</v>
-      </c>
-      <c r="M91" t="n">
-        <v>7.898868648780292</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>622.7530897468366</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="C92" t="n">
-        <v>616.2511736539328</v>
-      </c>
-      <c r="D92" t="n">
-        <v>541.7941459856054</v>
-      </c>
-      <c r="E92" t="n">
-        <v>676.356790399875</v>
-      </c>
-      <c r="F92" t="n">
-        <v>616.2221663214859</v>
-      </c>
-      <c r="G92" t="n">
-        <v>616.2837195183982</v>
-      </c>
-      <c r="H92" t="n">
-        <v>-1.817114661467256</v>
-      </c>
-      <c r="I92" t="n">
-        <v>-1.817114661467256</v>
-      </c>
-      <c r="J92" t="n">
-        <v>-1.817114661467256</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-1.817114661467256</v>
-      </c>
-      <c r="L92" t="n">
-        <v>-1.817114661467256</v>
-      </c>
-      <c r="M92" t="n">
-        <v>-1.817114661467256</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>614.4340589924656</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C93" t="n">
-        <v>617.6946912950052</v>
-      </c>
-      <c r="D93" t="n">
-        <v>568.9181358073454</v>
-      </c>
-      <c r="E93" t="n">
-        <v>698.7414362771265</v>
-      </c>
-      <c r="F93" t="n">
-        <v>617.6617462968948</v>
-      </c>
-      <c r="G93" t="n">
-        <v>617.7307800391272</v>
-      </c>
-      <c r="H93" t="n">
-        <v>14.42777813227994</v>
-      </c>
-      <c r="I93" t="n">
-        <v>14.42777813227994</v>
-      </c>
-      <c r="J93" t="n">
-        <v>14.42777813227994</v>
-      </c>
-      <c r="K93" t="n">
-        <v>14.42777813227994</v>
-      </c>
-      <c r="L93" t="n">
-        <v>14.42777813227994</v>
-      </c>
-      <c r="M93" t="n">
-        <v>14.42777813227994</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>632.1224694272852</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="C94" t="n">
-        <v>619.1382089360776</v>
-      </c>
-      <c r="D94" t="n">
-        <v>548.756452793662</v>
-      </c>
-      <c r="E94" t="n">
-        <v>682.1487682925591</v>
-      </c>
-      <c r="F94" t="n">
-        <v>619.1021630397561</v>
-      </c>
-      <c r="G94" t="n">
-        <v>619.1772368950477</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-1.231423882135439</v>
-      </c>
-      <c r="I94" t="n">
-        <v>-1.231423882135439</v>
-      </c>
-      <c r="J94" t="n">
-        <v>-1.231423882135439</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-1.231423882135439</v>
-      </c>
-      <c r="L94" t="n">
-        <v>-1.231423882135439</v>
-      </c>
-      <c r="M94" t="n">
-        <v>-1.231423882135439</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>617.9067850539421</v>
+        <v>593.2081545815455</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/aht/wl_sales_aht_monthly.xlsx
+++ b/outputs/aht/wl_sales_aht_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +527,37 @@
         <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>543.0388860309306</v>
+        <v>540.1560397244089</v>
       </c>
       <c r="D2" t="n">
-        <v>463.2857697133598</v>
+        <v>450.2185211699494</v>
       </c>
       <c r="E2" t="n">
-        <v>620.1081073604606</v>
+        <v>627.1797271400908</v>
       </c>
       <c r="F2" t="n">
-        <v>543.0388860309306</v>
+        <v>540.1560397244089</v>
       </c>
       <c r="G2" t="n">
-        <v>543.0388860309306</v>
+        <v>540.1560397244089</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7460898233241319</v>
+        <v>-2.922099014870886</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7460898233241319</v>
+        <v>-2.922099014870886</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7460898233241319</v>
+        <v>-2.922099014870886</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7460898233241319</v>
+        <v>-2.922099014870886</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7460898233241319</v>
+        <v>-2.922099014870886</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7460898233241319</v>
+        <v>-2.922099014870886</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>543.7849758542548</v>
+        <v>537.2339407095379</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>543.5254935276794</v>
+        <v>540.8435867824256</v>
       </c>
       <c r="D3" t="n">
-        <v>438.292650953395</v>
+        <v>428.3669803173504</v>
       </c>
       <c r="E3" t="n">
-        <v>602.1229423932339</v>
+        <v>604.2625907116932</v>
       </c>
       <c r="F3" t="n">
-        <v>543.5254935276794</v>
+        <v>540.8435867824256</v>
       </c>
       <c r="G3" t="n">
-        <v>543.5254935276794</v>
+        <v>540.8435867824256</v>
       </c>
       <c r="H3" t="n">
-        <v>-21.25254600516292</v>
+        <v>-24.40383196133402</v>
       </c>
       <c r="I3" t="n">
-        <v>-21.25254600516292</v>
+        <v>-24.40383196133402</v>
       </c>
       <c r="J3" t="n">
-        <v>-21.25254600516292</v>
+        <v>-24.40383196133402</v>
       </c>
       <c r="K3" t="n">
-        <v>-21.25254600516292</v>
+        <v>-24.40383196133402</v>
       </c>
       <c r="L3" t="n">
-        <v>-21.25254600516292</v>
+        <v>-24.40383196133402</v>
       </c>
       <c r="M3" t="n">
-        <v>-21.25254600516292</v>
+        <v>-24.40383196133402</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>522.2729475225165</v>
+        <v>516.4397548210916</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>543.9650099763558</v>
+        <v>541.4645970283763</v>
       </c>
       <c r="D4" t="n">
-        <v>462.9153256697152</v>
+        <v>446.9750767608631</v>
       </c>
       <c r="E4" t="n">
-        <v>632.9009942386922</v>
+        <v>626.7407528194294</v>
       </c>
       <c r="F4" t="n">
-        <v>543.9650099763558</v>
+        <v>541.4645970283763</v>
       </c>
       <c r="G4" t="n">
-        <v>543.9650099763558</v>
+        <v>541.4645970283763</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6832938580679327</v>
+        <v>-2.55038789698156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6832938580679327</v>
+        <v>-2.55038789698156</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6832938580679327</v>
+        <v>-2.55038789698156</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6832938580679327</v>
+        <v>-2.55038789698156</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6832938580679327</v>
+        <v>-2.55038789698156</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6832938580679327</v>
+        <v>-2.55038789698156</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>544.6483038344237</v>
+        <v>538.9142091313947</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>544.4516174745452</v>
+        <v>542.1521440964221</v>
       </c>
       <c r="D5" t="n">
-        <v>457.687795118989</v>
+        <v>453.3745780459598</v>
       </c>
       <c r="E5" t="n">
-        <v>616.5249580168738</v>
+        <v>619.3698364644472</v>
       </c>
       <c r="F5" t="n">
-        <v>544.4516174745452</v>
+        <v>542.1521440964221</v>
       </c>
       <c r="G5" t="n">
-        <v>544.4516174745452</v>
+        <v>542.1521440964221</v>
       </c>
       <c r="H5" t="n">
-        <v>-5.196770686700813</v>
+        <v>-7.903985294073773</v>
       </c>
       <c r="I5" t="n">
-        <v>-5.196770686700813</v>
+        <v>-7.903985294073773</v>
       </c>
       <c r="J5" t="n">
-        <v>-5.196770686700813</v>
+        <v>-7.903985294073773</v>
       </c>
       <c r="K5" t="n">
-        <v>-5.196770686700813</v>
+        <v>-7.903985294073773</v>
       </c>
       <c r="L5" t="n">
-        <v>-5.196770686700813</v>
+        <v>-7.903985294073773</v>
       </c>
       <c r="M5" t="n">
-        <v>-5.196770686700813</v>
+        <v>-7.903985294073773</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>539.2548467878444</v>
+        <v>534.2481588023484</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>544.922527956664</v>
+        <v>542.8175122267889</v>
       </c>
       <c r="D6" t="n">
-        <v>470.5771958211694</v>
+        <v>463.6398005915897</v>
       </c>
       <c r="E6" t="n">
-        <v>638.5825033824324</v>
+        <v>636.2952536479116</v>
       </c>
       <c r="F6" t="n">
-        <v>544.922527956664</v>
+        <v>542.8175122267889</v>
       </c>
       <c r="G6" t="n">
-        <v>544.922527956664</v>
+        <v>542.8175122267889</v>
       </c>
       <c r="H6" t="n">
-        <v>10.60202496868847</v>
+        <v>8.144427819378269</v>
       </c>
       <c r="I6" t="n">
-        <v>10.60202496868847</v>
+        <v>8.144427819378269</v>
       </c>
       <c r="J6" t="n">
-        <v>10.60202496868847</v>
+        <v>8.144427819378269</v>
       </c>
       <c r="K6" t="n">
-        <v>10.60202496868847</v>
+        <v>8.144427819378269</v>
       </c>
       <c r="L6" t="n">
-        <v>10.60202496868847</v>
+        <v>8.144427819378269</v>
       </c>
       <c r="M6" t="n">
-        <v>10.60202496868847</v>
+        <v>8.144427819378269</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>555.5245529253525</v>
+        <v>550.9619400461672</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>545.4091354516642</v>
+        <v>543.5050592862643</v>
       </c>
       <c r="D7" t="n">
-        <v>465.7558852156833</v>
+        <v>479.4217464810704</v>
       </c>
       <c r="E7" t="n">
-        <v>635.9487865761201</v>
+        <v>649.3653495925593</v>
       </c>
       <c r="F7" t="n">
-        <v>545.4091354516642</v>
+        <v>543.5050592862643</v>
       </c>
       <c r="G7" t="n">
-        <v>545.4091354516642</v>
+        <v>543.5050592862643</v>
       </c>
       <c r="H7" t="n">
-        <v>4.440455707139662</v>
+        <v>23.07434405321424</v>
       </c>
       <c r="I7" t="n">
-        <v>4.440455707139662</v>
+        <v>23.07434405321424</v>
       </c>
       <c r="J7" t="n">
-        <v>4.440455707139662</v>
+        <v>23.07434405321424</v>
       </c>
       <c r="K7" t="n">
-        <v>4.440455707139662</v>
+        <v>23.07434405321424</v>
       </c>
       <c r="L7" t="n">
-        <v>4.440455707139662</v>
+        <v>23.07434405321424</v>
       </c>
       <c r="M7" t="n">
-        <v>4.440455707139662</v>
+        <v>23.07434405321424</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>549.8495911588038</v>
+        <v>566.5794033394785</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>545.8800459306967</v>
+        <v>544.1704274083372</v>
       </c>
       <c r="D8" t="n">
-        <v>482.5455724016585</v>
+        <v>477.3497828543336</v>
       </c>
       <c r="E8" t="n">
-        <v>649.4321381282612</v>
+        <v>644.7281946247405</v>
       </c>
       <c r="F8" t="n">
-        <v>545.8800459306967</v>
+        <v>544.1704274083372</v>
       </c>
       <c r="G8" t="n">
-        <v>545.8800459306967</v>
+        <v>544.1704274083372</v>
       </c>
       <c r="H8" t="n">
-        <v>20.33765650931013</v>
+        <v>18.62867710977308</v>
       </c>
       <c r="I8" t="n">
-        <v>20.33765650931013</v>
+        <v>18.62867710977308</v>
       </c>
       <c r="J8" t="n">
-        <v>20.33765650931013</v>
+        <v>18.62867710977308</v>
       </c>
       <c r="K8" t="n">
-        <v>20.33765650931013</v>
+        <v>18.62867710977308</v>
       </c>
       <c r="L8" t="n">
-        <v>20.33765650931013</v>
+        <v>18.62867710977308</v>
       </c>
       <c r="M8" t="n">
-        <v>20.33765650931013</v>
+        <v>18.62867710977308</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>566.2177024400069</v>
+        <v>562.7991045181103</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>546.366653424732</v>
+        <v>544.8579744536155</v>
       </c>
       <c r="D9" t="n">
-        <v>481.9723139791058</v>
+        <v>475.8330382477953</v>
       </c>
       <c r="E9" t="n">
-        <v>645.1010759564072</v>
+        <v>651.2350172146887</v>
       </c>
       <c r="F9" t="n">
-        <v>546.366653424732</v>
+        <v>544.8579744536155</v>
       </c>
       <c r="G9" t="n">
-        <v>546.366653424732</v>
+        <v>544.8579744536155</v>
       </c>
       <c r="H9" t="n">
-        <v>20.20425978801597</v>
+        <v>17.8449825600872</v>
       </c>
       <c r="I9" t="n">
-        <v>20.20425978801597</v>
+        <v>17.8449825600872</v>
       </c>
       <c r="J9" t="n">
-        <v>20.20425978801597</v>
+        <v>17.8449825600872</v>
       </c>
       <c r="K9" t="n">
-        <v>20.20425978801597</v>
+        <v>17.8449825600872</v>
       </c>
       <c r="L9" t="n">
-        <v>20.20425978801597</v>
+        <v>17.8449825600872</v>
       </c>
       <c r="M9" t="n">
-        <v>20.20425978801597</v>
+        <v>17.8449825600872</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>566.570913212748</v>
+        <v>562.7029570137026</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>546.8532609187675</v>
+        <v>545.5455214988938</v>
       </c>
       <c r="D10" t="n">
-        <v>484.7572639037526</v>
+        <v>478.658229258761</v>
       </c>
       <c r="E10" t="n">
-        <v>656.0879586159413</v>
+        <v>651.7388661005841</v>
       </c>
       <c r="F10" t="n">
-        <v>546.8532609187675</v>
+        <v>545.5455214988938</v>
       </c>
       <c r="G10" t="n">
-        <v>546.8532609187675</v>
+        <v>545.5455214988938</v>
       </c>
       <c r="H10" t="n">
-        <v>20.82876716305963</v>
+        <v>17.76895957049546</v>
       </c>
       <c r="I10" t="n">
-        <v>20.82876716305963</v>
+        <v>17.76895957049546</v>
       </c>
       <c r="J10" t="n">
-        <v>20.82876716305963</v>
+        <v>17.76895957049546</v>
       </c>
       <c r="K10" t="n">
-        <v>20.82876716305963</v>
+        <v>17.76895957049546</v>
       </c>
       <c r="L10" t="n">
-        <v>20.82876716305963</v>
+        <v>17.76895957049546</v>
       </c>
       <c r="M10" t="n">
-        <v>20.82876716305963</v>
+        <v>17.76895957049546</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>567.6820280818272</v>
+        <v>563.3144810693892</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>547.3241714017516</v>
+        <v>546.2108896005199</v>
       </c>
       <c r="D11" t="n">
-        <v>467.2629887101758</v>
+        <v>454.1702459392079</v>
       </c>
       <c r="E11" t="n">
-        <v>625.8386952961896</v>
+        <v>625.9841102044884</v>
       </c>
       <c r="F11" t="n">
-        <v>547.3241714017516</v>
+        <v>546.2108896005199</v>
       </c>
       <c r="G11" t="n">
-        <v>547.3241714017516</v>
+        <v>546.2108896005199</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.384662825244241</v>
+        <v>-5.202408247178733</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.384662825244241</v>
+        <v>-5.202408247178733</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.384662825244241</v>
+        <v>-5.202408247178733</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.384662825244241</v>
+        <v>-5.202408247178733</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.384662825244241</v>
+        <v>-5.202408247178733</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.384662825244241</v>
+        <v>-5.202408247178733</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>545.9395085765074</v>
+        <v>541.0084813533412</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>547.8107789008351</v>
+        <v>546.8984366388669</v>
       </c>
       <c r="D12" t="n">
-        <v>459.5513880954387</v>
+        <v>442.9494459190518</v>
       </c>
       <c r="E12" t="n">
-        <v>618.5017354783688</v>
+        <v>616.9693451342735</v>
       </c>
       <c r="F12" t="n">
-        <v>547.8107789008351</v>
+        <v>546.8984366388669</v>
       </c>
       <c r="G12" t="n">
-        <v>547.8107789008351</v>
+        <v>546.8984366388669</v>
       </c>
       <c r="H12" t="n">
-        <v>-8.147140066854659</v>
+        <v>-12.67846813038415</v>
       </c>
       <c r="I12" t="n">
-        <v>-8.147140066854659</v>
+        <v>-12.67846813038415</v>
       </c>
       <c r="J12" t="n">
-        <v>-8.147140066854659</v>
+        <v>-12.67846813038415</v>
       </c>
       <c r="K12" t="n">
-        <v>-8.147140066854659</v>
+        <v>-12.67846813038415</v>
       </c>
       <c r="L12" t="n">
-        <v>-8.147140066854659</v>
+        <v>-12.67846813038415</v>
       </c>
       <c r="M12" t="n">
-        <v>-8.147140066854659</v>
+        <v>-12.67846813038415</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>539.6636388339805</v>
+        <v>534.2199685084827</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>548.2816893856602</v>
+        <v>547.5661800957906</v>
       </c>
       <c r="D13" t="n">
-        <v>456.9247834620095</v>
+        <v>435.4931821743865</v>
       </c>
       <c r="E13" t="n">
-        <v>616.3341563444658</v>
+        <v>611.360222692461</v>
       </c>
       <c r="F13" t="n">
-        <v>548.2816893856602</v>
+        <v>547.5661800957906</v>
       </c>
       <c r="G13" t="n">
-        <v>548.2816893856602</v>
+        <v>547.5661800957906</v>
       </c>
       <c r="H13" t="n">
-        <v>-14.62095178672296</v>
+        <v>-19.64550072223291</v>
       </c>
       <c r="I13" t="n">
-        <v>-14.62095178672296</v>
+        <v>-19.64550072223291</v>
       </c>
       <c r="J13" t="n">
-        <v>-14.62095178672296</v>
+        <v>-19.64550072223291</v>
       </c>
       <c r="K13" t="n">
-        <v>-14.62095178672296</v>
+        <v>-19.64550072223291</v>
       </c>
       <c r="L13" t="n">
-        <v>-14.62095178672296</v>
+        <v>-19.64550072223291</v>
       </c>
       <c r="M13" t="n">
-        <v>-14.62095178672296</v>
+        <v>-19.64550072223291</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>533.6607375989373</v>
+        <v>527.9206793735577</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>548.7682968866463</v>
+        <v>548.256181667945</v>
       </c>
       <c r="D14" t="n">
-        <v>451.2495355855768</v>
+        <v>449.5529966161208</v>
       </c>
       <c r="E14" t="n">
-        <v>616.6594987231907</v>
+        <v>618.4001962790463</v>
       </c>
       <c r="F14" t="n">
-        <v>548.7682968866463</v>
+        <v>548.256181667945</v>
       </c>
       <c r="G14" t="n">
-        <v>548.7682968866463</v>
+        <v>548.256181667945</v>
       </c>
       <c r="H14" t="n">
-        <v>-12.05683188150643</v>
+        <v>-15.33970901658047</v>
       </c>
       <c r="I14" t="n">
-        <v>-12.05683188150643</v>
+        <v>-15.33970901658047</v>
       </c>
       <c r="J14" t="n">
-        <v>-12.05683188150643</v>
+        <v>-15.33970901658047</v>
       </c>
       <c r="K14" t="n">
-        <v>-12.05683188150643</v>
+        <v>-15.33970901658047</v>
       </c>
       <c r="L14" t="n">
-        <v>-12.05683188150643</v>
+        <v>-15.33970901658047</v>
       </c>
       <c r="M14" t="n">
-        <v>-12.05683188150643</v>
+        <v>-15.33970901658047</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>536.7114650051399</v>
+        <v>532.9164726513645</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>549.2613821512824</v>
+        <v>548.94619190079</v>
       </c>
       <c r="D15" t="n">
-        <v>445.7410795174479</v>
+        <v>436.7739624652269</v>
       </c>
       <c r="E15" t="n">
-        <v>610.1245006270353</v>
+        <v>611.5037124358315</v>
       </c>
       <c r="F15" t="n">
-        <v>549.2613821512824</v>
+        <v>548.94619190079</v>
       </c>
       <c r="G15" t="n">
-        <v>549.2613821512824</v>
+        <v>548.94619190079</v>
       </c>
       <c r="H15" t="n">
-        <v>-22.03678930801966</v>
+        <v>-25.42214543365335</v>
       </c>
       <c r="I15" t="n">
-        <v>-22.03678930801966</v>
+        <v>-25.42214543365335</v>
       </c>
       <c r="J15" t="n">
-        <v>-22.03678930801966</v>
+        <v>-25.42214543365335</v>
       </c>
       <c r="K15" t="n">
-        <v>-22.03678930801966</v>
+        <v>-25.42214543365335</v>
       </c>
       <c r="L15" t="n">
-        <v>-22.03678930801966</v>
+        <v>-25.42214543365335</v>
       </c>
       <c r="M15" t="n">
-        <v>-22.03678930801966</v>
+        <v>-25.42214543365335</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>527.2245928432627</v>
+        <v>523.5240464671367</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>549.7067494870829</v>
+        <v>549.5694269498115</v>
       </c>
       <c r="D16" t="n">
-        <v>460.8388018526633</v>
+        <v>459.9901716219096</v>
       </c>
       <c r="E16" t="n">
-        <v>638.7468385404584</v>
+        <v>628.66116418335</v>
       </c>
       <c r="F16" t="n">
-        <v>549.7067494870829</v>
+        <v>549.5694269498115</v>
       </c>
       <c r="G16" t="n">
-        <v>549.7067494870829</v>
+        <v>549.5694269498115</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.390666922401272</v>
+        <v>-6.408446280120725</v>
       </c>
       <c r="I16" t="n">
-        <v>-2.390666922401272</v>
+        <v>-6.408446280120725</v>
       </c>
       <c r="J16" t="n">
-        <v>-2.390666922401272</v>
+        <v>-6.408446280120725</v>
       </c>
       <c r="K16" t="n">
-        <v>-2.390666922401272</v>
+        <v>-6.408446280120725</v>
       </c>
       <c r="L16" t="n">
-        <v>-2.390666922401272</v>
+        <v>-6.408446280120725</v>
       </c>
       <c r="M16" t="n">
-        <v>-2.390666922401272</v>
+        <v>-6.408446280120725</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>547.3160825646817</v>
+        <v>543.1609806696907</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>550.199985008734</v>
+        <v>550.2594702212509</v>
       </c>
       <c r="D17" t="n">
-        <v>467.1964380777112</v>
+        <v>463.9332075257039</v>
       </c>
       <c r="E17" t="n">
-        <v>639.3972677160342</v>
+        <v>629.0552234242588</v>
       </c>
       <c r="F17" t="n">
-        <v>550.199985008734</v>
+        <v>550.2594702212509</v>
       </c>
       <c r="G17" t="n">
-        <v>550.199985008734</v>
+        <v>550.2594702212509</v>
       </c>
       <c r="H17" t="n">
-        <v>4.034762998056243</v>
+        <v>-0.948774932147696</v>
       </c>
       <c r="I17" t="n">
-        <v>4.034762998056243</v>
+        <v>-0.948774932147696</v>
       </c>
       <c r="J17" t="n">
-        <v>4.034762998056243</v>
+        <v>-0.948774932147696</v>
       </c>
       <c r="K17" t="n">
-        <v>4.034762998056243</v>
+        <v>-0.948774932147696</v>
       </c>
       <c r="L17" t="n">
-        <v>4.034762998056243</v>
+        <v>-0.948774932147696</v>
       </c>
       <c r="M17" t="n">
-        <v>4.034762998056243</v>
+        <v>-0.948774932147696</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.2347480067903</v>
+        <v>549.3106952891033</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>550.677309707106</v>
+        <v>550.9272540323213</v>
       </c>
       <c r="D18" t="n">
-        <v>479.278824409269</v>
+        <v>476.7687116115986</v>
       </c>
       <c r="E18" t="n">
-        <v>646.9606221189234</v>
+        <v>644.8021910969971</v>
       </c>
       <c r="F18" t="n">
-        <v>550.677309707106</v>
+        <v>550.9272540323213</v>
       </c>
       <c r="G18" t="n">
-        <v>550.677309707106</v>
+        <v>550.9272540323213</v>
       </c>
       <c r="H18" t="n">
-        <v>14.34855030516579</v>
+        <v>8.58824340223153</v>
       </c>
       <c r="I18" t="n">
-        <v>14.34855030516579</v>
+        <v>8.58824340223153</v>
       </c>
       <c r="J18" t="n">
-        <v>14.34855030516579</v>
+        <v>8.58824340223153</v>
       </c>
       <c r="K18" t="n">
-        <v>14.34855030516579</v>
+        <v>8.58824340223153</v>
       </c>
       <c r="L18" t="n">
-        <v>14.34855030516579</v>
+        <v>8.58824340223153</v>
       </c>
       <c r="M18" t="n">
-        <v>14.34855030516579</v>
+        <v>8.58824340223153</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>565.0258600122718</v>
+        <v>559.5154974345529</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>551.176128168338</v>
+        <v>551.637939015641</v>
       </c>
       <c r="D19" t="n">
-        <v>478.0033311248549</v>
+        <v>505.1362359264688</v>
       </c>
       <c r="E19" t="n">
-        <v>643.0390197914562</v>
+        <v>672.1523863874605</v>
       </c>
       <c r="F19" t="n">
-        <v>551.176128168338</v>
+        <v>551.637939015641</v>
       </c>
       <c r="G19" t="n">
-        <v>551.176128168338</v>
+        <v>551.637939015641</v>
       </c>
       <c r="H19" t="n">
-        <v>4.410590747370378</v>
+        <v>34.37717542542975</v>
       </c>
       <c r="I19" t="n">
-        <v>4.410590747370378</v>
+        <v>34.37717542542975</v>
       </c>
       <c r="J19" t="n">
-        <v>4.410590747370378</v>
+        <v>34.37717542542975</v>
       </c>
       <c r="K19" t="n">
-        <v>4.410590747370378</v>
+        <v>34.37717542542975</v>
       </c>
       <c r="L19" t="n">
-        <v>4.410590747370378</v>
+        <v>34.37717542542975</v>
       </c>
       <c r="M19" t="n">
-        <v>4.410590747370378</v>
+        <v>34.37717542542975</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>555.5867189157084</v>
+        <v>586.0151144410708</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>551.6588557114658</v>
+        <v>552.325698676918</v>
       </c>
       <c r="D20" t="n">
-        <v>479.544683703798</v>
+        <v>474.3785428880838</v>
       </c>
       <c r="E20" t="n">
-        <v>648.0563355396268</v>
+        <v>643.40905749346</v>
       </c>
       <c r="F20" t="n">
-        <v>551.6588557114658</v>
+        <v>552.325698676918</v>
       </c>
       <c r="G20" t="n">
-        <v>551.6588557114658</v>
+        <v>552.325698676918</v>
       </c>
       <c r="H20" t="n">
-        <v>10.82475607698445</v>
+        <v>5.539280868543947</v>
       </c>
       <c r="I20" t="n">
-        <v>10.82475607698445</v>
+        <v>5.539280868543947</v>
       </c>
       <c r="J20" t="n">
-        <v>10.82475607698445</v>
+        <v>5.539280868543947</v>
       </c>
       <c r="K20" t="n">
-        <v>10.82475607698445</v>
+        <v>5.539280868543947</v>
       </c>
       <c r="L20" t="n">
-        <v>10.82475607698445</v>
+        <v>5.539280868543947</v>
       </c>
       <c r="M20" t="n">
-        <v>10.82475607698445</v>
+        <v>5.539280868543947</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>562.4836117884503</v>
+        <v>557.864979545462</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>552.1609068686735</v>
+        <v>553.0575993810772</v>
       </c>
       <c r="D21" t="n">
-        <v>495.5849593727685</v>
+        <v>488.4904048431471</v>
       </c>
       <c r="E21" t="n">
-        <v>657.8697372590963</v>
+        <v>656.619304085625</v>
       </c>
       <c r="F21" t="n">
-        <v>552.1609068686735</v>
+        <v>553.0575993810772</v>
       </c>
       <c r="G21" t="n">
-        <v>552.1609068686735</v>
+        <v>553.0575993810772</v>
       </c>
       <c r="H21" t="n">
-        <v>21.5770679880594</v>
+        <v>16.5665951313823</v>
       </c>
       <c r="I21" t="n">
-        <v>21.5770679880594</v>
+        <v>16.5665951313823</v>
       </c>
       <c r="J21" t="n">
-        <v>21.5770679880594</v>
+        <v>16.5665951313823</v>
       </c>
       <c r="K21" t="n">
-        <v>21.5770679880594</v>
+        <v>16.5665951313823</v>
       </c>
       <c r="L21" t="n">
-        <v>21.5770679880594</v>
+        <v>16.5665951313823</v>
       </c>
       <c r="M21" t="n">
-        <v>21.5770679880594</v>
+        <v>16.5665951313823</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>573.7379748567329</v>
+        <v>569.6241945124596</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>552.6629580258812</v>
+        <v>553.7895000852363</v>
       </c>
       <c r="D22" t="n">
-        <v>481.4782067053315</v>
+        <v>479.6237204932267</v>
       </c>
       <c r="E22" t="n">
-        <v>653.0668390333334</v>
+        <v>652.8545655802504</v>
       </c>
       <c r="F22" t="n">
-        <v>552.6629580258812</v>
+        <v>553.7895000852363</v>
       </c>
       <c r="G22" t="n">
-        <v>552.6629580258812</v>
+        <v>553.7895000852363</v>
       </c>
       <c r="H22" t="n">
-        <v>15.70554332651894</v>
+        <v>11.13870663544831</v>
       </c>
       <c r="I22" t="n">
-        <v>15.70554332651894</v>
+        <v>11.13870663544831</v>
       </c>
       <c r="J22" t="n">
-        <v>15.70554332651894</v>
+        <v>11.13870663544831</v>
       </c>
       <c r="K22" t="n">
-        <v>15.70554332651894</v>
+        <v>11.13870663544831</v>
       </c>
       <c r="L22" t="n">
-        <v>15.70554332651894</v>
+        <v>11.13870663544831</v>
       </c>
       <c r="M22" t="n">
-        <v>15.70554332651894</v>
+        <v>11.13870663544831</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>568.3685013524001</v>
+        <v>564.9282067206847</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>553.1696885930295</v>
+        <v>554.5008787875742</v>
       </c>
       <c r="D23" t="n">
-        <v>475.1883846759036</v>
+        <v>461.4760666945445</v>
       </c>
       <c r="E23" t="n">
-        <v>636.6389409251404</v>
+        <v>634.7495781344546</v>
       </c>
       <c r="F23" t="n">
-        <v>553.1696885930295</v>
+        <v>554.5008787875742</v>
       </c>
       <c r="G23" t="n">
-        <v>553.1696885930295</v>
+        <v>554.5008787875742</v>
       </c>
       <c r="H23" t="n">
-        <v>3.437301322861411</v>
+        <v>-0.5479587074431772</v>
       </c>
       <c r="I23" t="n">
-        <v>3.437301322861411</v>
+        <v>-0.5479587074431772</v>
       </c>
       <c r="J23" t="n">
-        <v>3.437301322861411</v>
+        <v>-0.5479587074431772</v>
       </c>
       <c r="K23" t="n">
-        <v>3.437301322861411</v>
+        <v>-0.5479587074431772</v>
       </c>
       <c r="L23" t="n">
-        <v>3.437301322861411</v>
+        <v>-0.5479587074431772</v>
       </c>
       <c r="M23" t="n">
-        <v>3.437301322861411</v>
+        <v>-0.5479587074431772</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>556.6069899158909</v>
+        <v>553.952920080131</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>553.6933101790827</v>
+        <v>555.2359701133233</v>
       </c>
       <c r="D24" t="n">
-        <v>468.9264436282082</v>
+        <v>467.8341382051803</v>
       </c>
       <c r="E24" t="n">
-        <v>631.6022111938885</v>
+        <v>637.6134666104934</v>
       </c>
       <c r="F24" t="n">
-        <v>553.6933101790827</v>
+        <v>555.2359701133233</v>
       </c>
       <c r="G24" t="n">
-        <v>553.6933101790827</v>
+        <v>555.2359701133233</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6492678133041362</v>
+        <v>-2.769704344771495</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6492678133041362</v>
+        <v>-2.769704344771495</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6492678133041362</v>
+        <v>-2.769704344771495</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6492678133041362</v>
+        <v>-2.769704344771495</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6492678133041362</v>
+        <v>-2.769704344771495</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6492678133041362</v>
+        <v>-2.769704344771495</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>554.3425779923869</v>
+        <v>552.4662657685518</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>554.2044054826431</v>
+        <v>555.9508967371262</v>
       </c>
       <c r="D25" t="n">
-        <v>464.6428668609804</v>
+        <v>453.7822900318139</v>
       </c>
       <c r="E25" t="n">
-        <v>624.7487332810732</v>
+        <v>631.3478320543264</v>
       </c>
       <c r="F25" t="n">
-        <v>554.2044054826431</v>
+        <v>555.9508967371262</v>
       </c>
       <c r="G25" t="n">
-        <v>554.2044054826431</v>
+        <v>555.9508967371262</v>
       </c>
       <c r="H25" t="n">
-        <v>-11.56289321907693</v>
+        <v>-14.67733587745886</v>
       </c>
       <c r="I25" t="n">
-        <v>-11.56289321907693</v>
+        <v>-14.67733587745886</v>
       </c>
       <c r="J25" t="n">
-        <v>-11.56289321907693</v>
+        <v>-14.67733587745886</v>
       </c>
       <c r="K25" t="n">
-        <v>-11.56289321907693</v>
+        <v>-14.67733587745886</v>
       </c>
       <c r="L25" t="n">
-        <v>-11.56289321907693</v>
+        <v>-14.67733587745886</v>
       </c>
       <c r="M25" t="n">
-        <v>-11.56289321907693</v>
+        <v>-14.67733587745886</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>542.6415122635661</v>
+        <v>541.2735608596673</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>554.7325372963223</v>
+        <v>556.6896542483893</v>
       </c>
       <c r="D26" t="n">
-        <v>447.0233818554487</v>
+        <v>447.7350467744907</v>
       </c>
       <c r="E26" t="n">
-        <v>610.1526812260805</v>
+        <v>614.7719376616081</v>
       </c>
       <c r="F26" t="n">
-        <v>554.7325372963223</v>
+        <v>556.6896542483893</v>
       </c>
       <c r="G26" t="n">
-        <v>554.7325372963223</v>
+        <v>556.6896542483893</v>
       </c>
       <c r="H26" t="n">
-        <v>-24.98613513553157</v>
+        <v>-27.93236704178769</v>
       </c>
       <c r="I26" t="n">
-        <v>-24.98613513553157</v>
+        <v>-27.93236704178769</v>
       </c>
       <c r="J26" t="n">
-        <v>-24.98613513553157</v>
+        <v>-27.93236704178769</v>
       </c>
       <c r="K26" t="n">
-        <v>-24.98613513553157</v>
+        <v>-27.93236704178769</v>
       </c>
       <c r="L26" t="n">
-        <v>-24.98613513553157</v>
+        <v>-27.93236704178769</v>
       </c>
       <c r="M26" t="n">
-        <v>-24.98613513553157</v>
+        <v>-27.93236704178769</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>529.7464021607908</v>
+        <v>528.7572872066016</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>555.2632729654664</v>
+        <v>557.4313378767825</v>
       </c>
       <c r="D27" t="n">
-        <v>452.9469391983967</v>
+        <v>444.1873975222431</v>
       </c>
       <c r="E27" t="n">
-        <v>613.5848980679996</v>
+        <v>619.1086916137817</v>
       </c>
       <c r="F27" t="n">
-        <v>555.2632729654664</v>
+        <v>557.4313378767825</v>
       </c>
       <c r="G27" t="n">
-        <v>555.2632729654664</v>
+        <v>557.4313378767825</v>
       </c>
       <c r="H27" t="n">
-        <v>-22.68534000137782</v>
+        <v>-26.34648387651937</v>
       </c>
       <c r="I27" t="n">
-        <v>-22.68534000137782</v>
+        <v>-26.34648387651937</v>
       </c>
       <c r="J27" t="n">
-        <v>-22.68534000137782</v>
+        <v>-26.34648387651937</v>
       </c>
       <c r="K27" t="n">
-        <v>-22.68534000137782</v>
+        <v>-26.34648387651937</v>
       </c>
       <c r="L27" t="n">
-        <v>-22.68534000137782</v>
+        <v>-26.34648387651937</v>
       </c>
       <c r="M27" t="n">
-        <v>-22.68534000137782</v>
+        <v>-26.34648387651937</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>532.5779329640886</v>
+        <v>531.0848540002631</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>555.7426471182417</v>
+        <v>558.10124567017</v>
       </c>
       <c r="D28" t="n">
-        <v>470.859545833949</v>
+        <v>461.5364795963998</v>
       </c>
       <c r="E28" t="n">
-        <v>632.3692975095362</v>
+        <v>634.8496144299435</v>
       </c>
       <c r="F28" t="n">
-        <v>555.7426471182417</v>
+        <v>558.10124567017</v>
       </c>
       <c r="G28" t="n">
-        <v>555.7426471182417</v>
+        <v>558.10124567017</v>
       </c>
       <c r="H28" t="n">
-        <v>-5.258277229631342</v>
+        <v>-10.08447354341649</v>
       </c>
       <c r="I28" t="n">
-        <v>-5.258277229631342</v>
+        <v>-10.08447354341649</v>
       </c>
       <c r="J28" t="n">
-        <v>-5.258277229631342</v>
+        <v>-10.08447354341649</v>
       </c>
       <c r="K28" t="n">
-        <v>-5.258277229631342</v>
+        <v>-10.08447354341649</v>
       </c>
       <c r="L28" t="n">
-        <v>-5.258277229631342</v>
+        <v>-10.08447354341649</v>
       </c>
       <c r="M28" t="n">
-        <v>-5.258277229631342</v>
+        <v>-10.08447354341649</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>550.4843698886104</v>
+        <v>548.0167721267535</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>556.2733827873858</v>
+        <v>558.8429292985631</v>
       </c>
       <c r="D29" t="n">
-        <v>486.2059455807791</v>
+        <v>483.3571149159234</v>
       </c>
       <c r="E29" t="n">
-        <v>657.5231052528178</v>
+        <v>653.3702164163864</v>
       </c>
       <c r="F29" t="n">
-        <v>556.2733827873858</v>
+        <v>558.8429292985631</v>
       </c>
       <c r="G29" t="n">
-        <v>556.2733827873858</v>
+        <v>558.8429292985631</v>
       </c>
       <c r="H29" t="n">
-        <v>13.37826535748656</v>
+        <v>6.135108770256264</v>
       </c>
       <c r="I29" t="n">
-        <v>13.37826535748656</v>
+        <v>6.135108770256264</v>
       </c>
       <c r="J29" t="n">
-        <v>13.37826535748656</v>
+        <v>6.135108770256264</v>
       </c>
       <c r="K29" t="n">
-        <v>13.37826535748656</v>
+        <v>6.135108770256264</v>
       </c>
       <c r="L29" t="n">
-        <v>13.37826535748656</v>
+        <v>6.135108770256264</v>
       </c>
       <c r="M29" t="n">
-        <v>13.37826535748656</v>
+        <v>6.135108770256264</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>569.6516481448724</v>
+        <v>564.9780380688194</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>556.789654036453</v>
+        <v>559.5627486304789</v>
       </c>
       <c r="D30" t="n">
-        <v>490.618847815335</v>
+        <v>481.3490364553895</v>
       </c>
       <c r="E30" t="n">
-        <v>655.6173120956471</v>
+        <v>654.8189508186665</v>
       </c>
       <c r="F30" t="n">
-        <v>556.789654036453</v>
+        <v>559.5627486304789</v>
       </c>
       <c r="G30" t="n">
-        <v>556.789654036453</v>
+        <v>559.5627486304789</v>
       </c>
       <c r="H30" t="n">
-        <v>17.9117639716875</v>
+        <v>9.037298153212319</v>
       </c>
       <c r="I30" t="n">
-        <v>17.9117639716875</v>
+        <v>9.037298153212319</v>
       </c>
       <c r="J30" t="n">
-        <v>17.9117639716875</v>
+        <v>9.037298153212319</v>
       </c>
       <c r="K30" t="n">
-        <v>17.9117639716875</v>
+        <v>9.037298153212319</v>
       </c>
       <c r="L30" t="n">
-        <v>17.9117639716875</v>
+        <v>9.037298153212319</v>
       </c>
       <c r="M30" t="n">
-        <v>17.9117639716875</v>
+        <v>9.037298153212319</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>574.7014180081405</v>
+        <v>568.6000467836913</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>557.3231343271558</v>
+        <v>560.3065619401253</v>
       </c>
       <c r="D31" t="n">
-        <v>478.2767164581757</v>
+        <v>526.1985327404097</v>
       </c>
       <c r="E31" t="n">
-        <v>647.9455215676991</v>
+        <v>685.9430998735469</v>
       </c>
       <c r="F31" t="n">
-        <v>557.3231343271558</v>
+        <v>560.3065619401253</v>
       </c>
       <c r="G31" t="n">
-        <v>557.3231343271558</v>
+        <v>560.3065619401253</v>
       </c>
       <c r="H31" t="n">
-        <v>4.140836614284096</v>
+        <v>45.42799644811546</v>
       </c>
       <c r="I31" t="n">
-        <v>4.140836614284096</v>
+        <v>45.42799644811546</v>
       </c>
       <c r="J31" t="n">
-        <v>4.140836614284096</v>
+        <v>45.42799644811546</v>
       </c>
       <c r="K31" t="n">
-        <v>4.140836614284096</v>
+        <v>45.42799644811546</v>
       </c>
       <c r="L31" t="n">
-        <v>4.140836614284096</v>
+        <v>45.42799644811546</v>
       </c>
       <c r="M31" t="n">
-        <v>4.140836614284096</v>
+        <v>45.42799644811546</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>561.4639709414399</v>
+        <v>605.7345583882408</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>557.8422737860034</v>
+        <v>561.0333403222694</v>
       </c>
       <c r="D32" t="n">
-        <v>473.8748716691292</v>
+        <v>465.5003897295382</v>
       </c>
       <c r="E32" t="n">
-        <v>637.602567991605</v>
+        <v>642.0305546038986</v>
       </c>
       <c r="F32" t="n">
-        <v>557.8422737860034</v>
+        <v>561.0333403222694</v>
       </c>
       <c r="G32" t="n">
-        <v>557.8422737860034</v>
+        <v>561.0333403222694</v>
       </c>
       <c r="H32" t="n">
-        <v>1.299227254308302</v>
+        <v>-7.747279059386122</v>
       </c>
       <c r="I32" t="n">
-        <v>1.299227254308302</v>
+        <v>-7.747279059386122</v>
       </c>
       <c r="J32" t="n">
-        <v>1.299227254308302</v>
+        <v>-7.747279059386122</v>
       </c>
       <c r="K32" t="n">
-        <v>1.299227254308302</v>
+        <v>-7.747279059386122</v>
       </c>
       <c r="L32" t="n">
-        <v>1.299227254308302</v>
+        <v>-7.747279059386122</v>
       </c>
       <c r="M32" t="n">
-        <v>1.299227254308302</v>
+        <v>-7.747279059386122</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>559.1415010403117</v>
+        <v>553.2860612628833</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>558.3787178934791</v>
+        <v>561.784344650485</v>
       </c>
       <c r="D33" t="n">
-        <v>499.8348159402921</v>
+        <v>488.5499208792771</v>
       </c>
       <c r="E33" t="n">
-        <v>666.4120682517201</v>
+        <v>662.7066932545988</v>
       </c>
       <c r="F33" t="n">
-        <v>558.3787178934791</v>
+        <v>561.784344650485</v>
       </c>
       <c r="G33" t="n">
-        <v>558.3787178934791</v>
+        <v>561.784344650485</v>
       </c>
       <c r="H33" t="n">
-        <v>23.05056918458234</v>
+        <v>15.36856266187499</v>
       </c>
       <c r="I33" t="n">
-        <v>23.05056918458234</v>
+        <v>15.36856266187499</v>
       </c>
       <c r="J33" t="n">
-        <v>23.05056918458234</v>
+        <v>15.36856266187499</v>
       </c>
       <c r="K33" t="n">
-        <v>23.05056918458234</v>
+        <v>15.36856266187499</v>
       </c>
       <c r="L33" t="n">
-        <v>23.05056918458234</v>
+        <v>15.36856266187499</v>
       </c>
       <c r="M33" t="n">
-        <v>23.05056918458234</v>
+        <v>15.36856266187499</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>581.4292870780614</v>
+        <v>577.15290731236</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>558.9157900063826</v>
+        <v>562.5390820359332</v>
       </c>
       <c r="D34" t="n">
-        <v>482.8458830027494</v>
+        <v>483.412720942853</v>
       </c>
       <c r="E34" t="n">
-        <v>652.8906033680353</v>
+        <v>647.8811721272046</v>
       </c>
       <c r="F34" t="n">
-        <v>558.9157900063826</v>
+        <v>562.5390820359332</v>
       </c>
       <c r="G34" t="n">
-        <v>558.9157900063826</v>
+        <v>562.5390820359332</v>
       </c>
       <c r="H34" t="n">
-        <v>10.72501883329867</v>
+        <v>4.693119132059781</v>
       </c>
       <c r="I34" t="n">
-        <v>10.72501883329867</v>
+        <v>4.693119132059781</v>
       </c>
       <c r="J34" t="n">
-        <v>10.72501883329867</v>
+        <v>4.693119132059781</v>
       </c>
       <c r="K34" t="n">
-        <v>10.72501883329867</v>
+        <v>4.693119132059781</v>
       </c>
       <c r="L34" t="n">
-        <v>10.72501883329867</v>
+        <v>4.693119132059781</v>
       </c>
       <c r="M34" t="n">
-        <v>10.72501883329867</v>
+        <v>4.693119132059781</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>569.6408088396813</v>
+        <v>567.232201167993</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>559.4355372124184</v>
+        <v>563.269473054109</v>
       </c>
       <c r="D35" t="n">
-        <v>491.2874403255011</v>
+        <v>484.5188447891888</v>
       </c>
       <c r="E35" t="n">
-        <v>653.4494474232596</v>
+        <v>651.502058908364</v>
       </c>
       <c r="F35" t="n">
-        <v>559.4355372124184</v>
+        <v>563.269473054109</v>
       </c>
       <c r="G35" t="n">
-        <v>559.4355372124184</v>
+        <v>563.269473054109</v>
       </c>
       <c r="H35" t="n">
-        <v>8.46094397925831</v>
+        <v>4.373730597724075</v>
       </c>
       <c r="I35" t="n">
-        <v>8.46094397925831</v>
+        <v>4.373730597724075</v>
       </c>
       <c r="J35" t="n">
-        <v>8.46094397925831</v>
+        <v>4.373730597724075</v>
       </c>
       <c r="K35" t="n">
-        <v>8.46094397925831</v>
+        <v>4.373730597724075</v>
       </c>
       <c r="L35" t="n">
-        <v>8.46094397925831</v>
+        <v>4.373730597724075</v>
       </c>
       <c r="M35" t="n">
-        <v>8.46094397925831</v>
+        <v>4.373730597724075</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>567.8964811916767</v>
+        <v>567.643203651833</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>559.9726093298158</v>
+        <v>564.0242104567244</v>
       </c>
       <c r="D36" t="n">
-        <v>491.6799972681218</v>
+        <v>488.5946159946296</v>
       </c>
       <c r="E36" t="n">
-        <v>653.7256546057622</v>
+        <v>654.8435161028326</v>
       </c>
       <c r="F36" t="n">
-        <v>559.9726093298158</v>
+        <v>564.0242104567244</v>
       </c>
       <c r="G36" t="n">
-        <v>559.9726093298158</v>
+        <v>564.0242104567244</v>
       </c>
       <c r="H36" t="n">
-        <v>9.38405073760028</v>
+        <v>7.125212475028968</v>
       </c>
       <c r="I36" t="n">
-        <v>9.38405073760028</v>
+        <v>7.125212475028968</v>
       </c>
       <c r="J36" t="n">
-        <v>9.38405073760028</v>
+        <v>7.125212475028968</v>
       </c>
       <c r="K36" t="n">
-        <v>9.38405073760028</v>
+        <v>7.125212475028968</v>
       </c>
       <c r="L36" t="n">
-        <v>9.38405073760028</v>
+        <v>7.125212475028968</v>
       </c>
       <c r="M36" t="n">
-        <v>9.38405073760028</v>
+        <v>7.125212475028968</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>569.3566600674161</v>
+        <v>571.1494229317534</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>560.4923565402003</v>
+        <v>564.7546014915134</v>
       </c>
       <c r="D37" t="n">
-        <v>470.6702245827121</v>
+        <v>470.3321520457152</v>
       </c>
       <c r="E37" t="n">
-        <v>633.9852127391673</v>
+        <v>643.7164756451159</v>
       </c>
       <c r="F37" t="n">
-        <v>560.4923565402003</v>
+        <v>564.7546014915134</v>
       </c>
       <c r="G37" t="n">
-        <v>560.4923565402003</v>
+        <v>564.7546014915134</v>
       </c>
       <c r="H37" t="n">
-        <v>-8.851144054625873</v>
+        <v>-10.0704148152601</v>
       </c>
       <c r="I37" t="n">
-        <v>-8.851144054625873</v>
+        <v>-10.0704148152601</v>
       </c>
       <c r="J37" t="n">
-        <v>-8.851144054625873</v>
+        <v>-10.0704148152601</v>
       </c>
       <c r="K37" t="n">
-        <v>-8.851144054625873</v>
+        <v>-10.0704148152601</v>
       </c>
       <c r="L37" t="n">
-        <v>-8.851144054625873</v>
+        <v>-10.0704148152601</v>
       </c>
       <c r="M37" t="n">
-        <v>-8.851144054625873</v>
+        <v>-10.0704148152601</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>551.6412124855744</v>
+        <v>554.6841866762534</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>561.029428658235</v>
+        <v>565.5093453573141</v>
       </c>
       <c r="D38" t="n">
-        <v>440.3881098543123</v>
+        <v>441.911622248449</v>
       </c>
       <c r="E38" t="n">
-        <v>603.5583148153772</v>
+        <v>611.0038398672074</v>
       </c>
       <c r="F38" t="n">
-        <v>561.029428658235</v>
+        <v>565.5093453573141</v>
       </c>
       <c r="G38" t="n">
-        <v>561.029428658235</v>
+        <v>565.5093453573141</v>
       </c>
       <c r="H38" t="n">
-        <v>-38.02692132766894</v>
+        <v>-40.68618769817709</v>
       </c>
       <c r="I38" t="n">
-        <v>-38.02692132766894</v>
+        <v>-40.68618769817709</v>
       </c>
       <c r="J38" t="n">
-        <v>-38.02692132766894</v>
+        <v>-40.68618769817709</v>
       </c>
       <c r="K38" t="n">
-        <v>-38.02692132766894</v>
+        <v>-40.68618769817709</v>
       </c>
       <c r="L38" t="n">
-        <v>-38.02692132766894</v>
+        <v>-40.68618769817709</v>
       </c>
       <c r="M38" t="n">
-        <v>-38.02692132766894</v>
+        <v>-40.68618769817709</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>523.0025073305661</v>
+        <v>524.823157659137</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>561.5665007762698</v>
+        <v>566.264089223115</v>
       </c>
       <c r="D39" t="n">
-        <v>457.7386575761232</v>
+        <v>453.1844035696091</v>
       </c>
       <c r="E39" t="n">
-        <v>621.2828450183875</v>
+        <v>621.0624897317997</v>
       </c>
       <c r="F39" t="n">
-        <v>561.5665007762698</v>
+        <v>566.264089223115</v>
       </c>
       <c r="G39" t="n">
-        <v>561.5665007762698</v>
+        <v>566.264089223115</v>
       </c>
       <c r="H39" t="n">
-        <v>-23.19221701739338</v>
+        <v>-27.1705085170035</v>
       </c>
       <c r="I39" t="n">
-        <v>-23.19221701739338</v>
+        <v>-27.1705085170035</v>
       </c>
       <c r="J39" t="n">
-        <v>-23.19221701739338</v>
+        <v>-27.1705085170035</v>
       </c>
       <c r="K39" t="n">
-        <v>-23.19221701739338</v>
+        <v>-27.1705085170035</v>
       </c>
       <c r="L39" t="n">
-        <v>-23.19221701739338</v>
+        <v>-27.1705085170035</v>
       </c>
       <c r="M39" t="n">
-        <v>-23.19221701739338</v>
+        <v>-27.1705085170035</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>538.3742837588763</v>
+        <v>539.0935807061114</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>562.0689230846803</v>
+        <v>566.9701399458486</v>
       </c>
       <c r="D40" t="n">
-        <v>477.959867535681</v>
+        <v>478.6890232793119</v>
       </c>
       <c r="E40" t="n">
-        <v>649.890571092669</v>
+        <v>648.8832833958138</v>
       </c>
       <c r="F40" t="n">
-        <v>562.0689230846803</v>
+        <v>566.9701399458486</v>
       </c>
       <c r="G40" t="n">
-        <v>562.0689230846803</v>
+        <v>566.9701399458486</v>
       </c>
       <c r="H40" t="n">
-        <v>3.963118971564385</v>
+        <v>1.487152511307706</v>
       </c>
       <c r="I40" t="n">
-        <v>3.963118971564385</v>
+        <v>1.487152511307706</v>
       </c>
       <c r="J40" t="n">
-        <v>3.963118971564385</v>
+        <v>1.487152511307706</v>
       </c>
       <c r="K40" t="n">
-        <v>3.963118971564385</v>
+        <v>1.487152511307706</v>
       </c>
       <c r="L40" t="n">
-        <v>3.963118971564385</v>
+        <v>1.487152511307706</v>
       </c>
       <c r="M40" t="n">
-        <v>3.963118971564385</v>
+        <v>1.487152511307706</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>566.0320420562447</v>
+        <v>568.4572924571563</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>562.6059952074639</v>
+        <v>567.7248838218743</v>
       </c>
       <c r="D41" t="n">
-        <v>464.6364313844808</v>
+        <v>465.1651827922868</v>
       </c>
       <c r="E41" t="n">
-        <v>633.7446927283581</v>
+        <v>633.2993939921932</v>
       </c>
       <c r="F41" t="n">
-        <v>562.6059952074639</v>
+        <v>567.7248838218743</v>
       </c>
       <c r="G41" t="n">
-        <v>562.6059952074639</v>
+        <v>567.7248838218743</v>
       </c>
       <c r="H41" t="n">
-        <v>-14.30454371248288</v>
+        <v>-14.72254375669086</v>
       </c>
       <c r="I41" t="n">
-        <v>-14.30454371248288</v>
+        <v>-14.72254375669086</v>
       </c>
       <c r="J41" t="n">
-        <v>-14.30454371248288</v>
+        <v>-14.72254375669086</v>
       </c>
       <c r="K41" t="n">
-        <v>-14.30454371248288</v>
+        <v>-14.72254375669086</v>
       </c>
       <c r="L41" t="n">
-        <v>-14.30454371248288</v>
+        <v>-14.72254375669086</v>
       </c>
       <c r="M41" t="n">
-        <v>-14.30454371248288</v>
+        <v>-14.72254375669086</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>548.3014514949811</v>
+        <v>553.0023400651835</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>563.1257424193421</v>
+        <v>568.4552811152234</v>
       </c>
       <c r="D42" t="n">
-        <v>486.1337528295451</v>
+        <v>496.1515625710212</v>
       </c>
       <c r="E42" t="n">
-        <v>647.7098719446581</v>
+        <v>658.3087964464924</v>
       </c>
       <c r="F42" t="n">
-        <v>563.1257424193421</v>
+        <v>568.4552811152234</v>
       </c>
       <c r="G42" t="n">
-        <v>563.1257424193421</v>
+        <v>568.4552811152234</v>
       </c>
       <c r="H42" t="n">
-        <v>6.679334802666197</v>
+        <v>7.712066215378203</v>
       </c>
       <c r="I42" t="n">
-        <v>6.679334802666197</v>
+        <v>7.712066215378203</v>
       </c>
       <c r="J42" t="n">
-        <v>6.679334802666197</v>
+        <v>7.712066215378203</v>
       </c>
       <c r="K42" t="n">
-        <v>6.679334802666197</v>
+        <v>7.712066215378203</v>
       </c>
       <c r="L42" t="n">
-        <v>6.679334802666197</v>
+        <v>7.712066215378203</v>
       </c>
       <c r="M42" t="n">
-        <v>6.679334802666197</v>
+        <v>7.712066215378203</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>569.8050772220083</v>
+        <v>576.1673473306016</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>563.6628145382831</v>
+        <v>569.2100249850176</v>
       </c>
       <c r="D43" t="n">
-        <v>480.9327384981971</v>
+        <v>494.44375940469</v>
       </c>
       <c r="E43" t="n">
-        <v>646.0006697801438</v>
+        <v>658.4274818344812</v>
       </c>
       <c r="F43" t="n">
-        <v>563.6628145382831</v>
+        <v>569.2100249850176</v>
       </c>
       <c r="G43" t="n">
-        <v>563.6628145382831</v>
+        <v>569.2100249850176</v>
       </c>
       <c r="H43" t="n">
-        <v>4.229239233676058</v>
+        <v>11.53001229548654</v>
       </c>
       <c r="I43" t="n">
-        <v>4.229239233676058</v>
+        <v>11.53001229548654</v>
       </c>
       <c r="J43" t="n">
-        <v>4.229239233676058</v>
+        <v>11.53001229548654</v>
       </c>
       <c r="K43" t="n">
-        <v>4.229239233676058</v>
+        <v>11.53001229548654</v>
       </c>
       <c r="L43" t="n">
-        <v>4.229239233676058</v>
+        <v>11.53001229548654</v>
       </c>
       <c r="M43" t="n">
-        <v>4.229239233676058</v>
+        <v>11.53001229548654</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>567.8920537719591</v>
+        <v>580.7400372805042</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>564.1825617466387</v>
+        <v>569.9404222676058</v>
       </c>
       <c r="D44" t="n">
-        <v>510.1033266747103</v>
+        <v>516.1011397528373</v>
       </c>
       <c r="E44" t="n">
-        <v>673.2945658235526</v>
+        <v>693.7076325477747</v>
       </c>
       <c r="F44" t="n">
-        <v>564.1825617466387</v>
+        <v>569.9404222676058</v>
       </c>
       <c r="G44" t="n">
-        <v>564.1825617466387</v>
+        <v>569.9404222676058</v>
       </c>
       <c r="H44" t="n">
-        <v>29.82642166606173</v>
+        <v>31.50722694355407</v>
       </c>
       <c r="I44" t="n">
-        <v>29.82642166606173</v>
+        <v>31.50722694355407</v>
       </c>
       <c r="J44" t="n">
-        <v>29.82642166606173</v>
+        <v>31.50722694355407</v>
       </c>
       <c r="K44" t="n">
-        <v>29.82642166606173</v>
+        <v>31.50722694355407</v>
       </c>
       <c r="L44" t="n">
-        <v>29.82642166606173</v>
+        <v>31.50722694355407</v>
       </c>
       <c r="M44" t="n">
-        <v>29.82642166606173</v>
+        <v>31.50722694355407</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>594.0089834127004</v>
+        <v>601.4476492111598</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>564.7196338619394</v>
+        <v>570.6951661262801</v>
       </c>
       <c r="D45" t="n">
-        <v>504.2006637083761</v>
+        <v>498.4857563853852</v>
       </c>
       <c r="E45" t="n">
-        <v>669.5755400605832</v>
+        <v>676.2000081901419</v>
       </c>
       <c r="F45" t="n">
-        <v>564.7196338619394</v>
+        <v>570.6951661262801</v>
       </c>
       <c r="G45" t="n">
-        <v>564.7196338619394</v>
+        <v>570.6951661262801</v>
       </c>
       <c r="H45" t="n">
-        <v>18.9290974053534</v>
+        <v>19.19619531809089</v>
       </c>
       <c r="I45" t="n">
-        <v>18.9290974053534</v>
+        <v>19.19619531809089</v>
       </c>
       <c r="J45" t="n">
-        <v>18.9290974053534</v>
+        <v>19.19619531809089</v>
       </c>
       <c r="K45" t="n">
-        <v>18.9290974053534</v>
+        <v>19.19619531809089</v>
       </c>
       <c r="L45" t="n">
-        <v>18.9290974053534</v>
+        <v>19.19619531809089</v>
       </c>
       <c r="M45" t="n">
-        <v>18.9290974053534</v>
+        <v>19.19619531809089</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>583.6487312672929</v>
+        <v>589.891361444371</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>565.2567055620414</v>
+        <v>571.449909991651</v>
       </c>
       <c r="D46" t="n">
-        <v>506.090513993755</v>
+        <v>510.8983678498596</v>
       </c>
       <c r="E46" t="n">
-        <v>674.0517727728165</v>
+        <v>679.4302065196827</v>
       </c>
       <c r="F46" t="n">
-        <v>565.2567055620414</v>
+        <v>571.449909991651</v>
       </c>
       <c r="G46" t="n">
-        <v>565.2567055620414</v>
+        <v>571.449909991651</v>
       </c>
       <c r="H46" t="n">
-        <v>26.08991648009869</v>
+        <v>24.57615795395819</v>
       </c>
       <c r="I46" t="n">
-        <v>26.08991648009869</v>
+        <v>24.57615795395819</v>
       </c>
       <c r="J46" t="n">
-        <v>26.08991648009869</v>
+        <v>24.57615795395819</v>
       </c>
       <c r="K46" t="n">
-        <v>26.08991648009869</v>
+        <v>24.57615795395819</v>
       </c>
       <c r="L46" t="n">
-        <v>26.08991648009869</v>
+        <v>24.57615795395819</v>
       </c>
       <c r="M46" t="n">
-        <v>26.08991648009869</v>
+        <v>24.57615795395819</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>591.3466220421401</v>
+        <v>596.0260679456092</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>565.7764523685917</v>
+        <v>572.1803072807195</v>
       </c>
       <c r="D47" t="n">
-        <v>479.6358982713494</v>
+        <v>481.7416318719945</v>
       </c>
       <c r="E47" t="n">
-        <v>651.6051254256793</v>
+        <v>640.7909615039488</v>
       </c>
       <c r="F47" t="n">
-        <v>565.7764523685917</v>
+        <v>572.1803072807195</v>
       </c>
       <c r="G47" t="n">
-        <v>565.7764523685917</v>
+        <v>572.1803072807195</v>
       </c>
       <c r="H47" t="n">
-        <v>-5.997443455193852</v>
+        <v>-9.582436297335365</v>
       </c>
       <c r="I47" t="n">
-        <v>-5.997443455193852</v>
+        <v>-9.582436297335365</v>
       </c>
       <c r="J47" t="n">
-        <v>-5.997443455193852</v>
+        <v>-9.582436297335365</v>
       </c>
       <c r="K47" t="n">
-        <v>-5.997443455193852</v>
+        <v>-9.582436297335365</v>
       </c>
       <c r="L47" t="n">
-        <v>-5.997443455193852</v>
+        <v>-9.582436297335365</v>
       </c>
       <c r="M47" t="n">
-        <v>-5.997443455193852</v>
+        <v>-9.582436297335365</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>559.7790089133978</v>
+        <v>562.5978709833842</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>566.3135240643099</v>
+        <v>572.9350511550016</v>
       </c>
       <c r="D48" t="n">
-        <v>471.0509730597109</v>
+        <v>465.1785913776851</v>
       </c>
       <c r="E48" t="n">
-        <v>630.4257400617017</v>
+        <v>634.2093919548852</v>
       </c>
       <c r="F48" t="n">
-        <v>566.3135240643099</v>
+        <v>572.9350511550016</v>
       </c>
       <c r="G48" t="n">
-        <v>566.3135240643099</v>
+        <v>572.9350511550016</v>
       </c>
       <c r="H48" t="n">
-        <v>-16.99224489299996</v>
+        <v>-22.58629062715824</v>
       </c>
       <c r="I48" t="n">
-        <v>-16.99224489299996</v>
+        <v>-22.58629062715824</v>
       </c>
       <c r="J48" t="n">
-        <v>-16.99224489299996</v>
+        <v>-22.58629062715824</v>
       </c>
       <c r="K48" t="n">
-        <v>-16.99224489299996</v>
+        <v>-22.58629062715824</v>
       </c>
       <c r="L48" t="n">
-        <v>-16.99224489299996</v>
+        <v>-22.58629062715824</v>
       </c>
       <c r="M48" t="n">
-        <v>-16.99224489299996</v>
+        <v>-22.58629062715824</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>549.32127917131</v>
+        <v>550.3487605278433</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>566.8332708666178</v>
+        <v>573.665448452694</v>
       </c>
       <c r="D49" t="n">
-        <v>472.5194558619823</v>
+        <v>458.0461205453649</v>
       </c>
       <c r="E49" t="n">
-        <v>627.3692323954613</v>
+        <v>634.5596646481199</v>
       </c>
       <c r="F49" t="n">
-        <v>566.8332708666178</v>
+        <v>573.665448452694</v>
       </c>
       <c r="G49" t="n">
-        <v>566.8332708666178</v>
+        <v>573.665448452694</v>
       </c>
       <c r="H49" t="n">
-        <v>-18.02321939736152</v>
+        <v>-24.96992900522408</v>
       </c>
       <c r="I49" t="n">
-        <v>-18.02321939736152</v>
+        <v>-24.96992900522408</v>
       </c>
       <c r="J49" t="n">
-        <v>-18.02321939736152</v>
+        <v>-24.96992900522408</v>
       </c>
       <c r="K49" t="n">
-        <v>-18.02321939736152</v>
+        <v>-24.96992900522408</v>
       </c>
       <c r="L49" t="n">
-        <v>-18.02321939736152</v>
+        <v>-24.96992900522408</v>
       </c>
       <c r="M49" t="n">
-        <v>-18.02321939736152</v>
+        <v>-24.96992900522408</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>548.8100514692562</v>
+        <v>548.6955194474699</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>567.3703425619308</v>
+        <v>574.420192333389</v>
       </c>
       <c r="D50" t="n">
-        <v>481.4444664982057</v>
+        <v>484.8102731213737</v>
       </c>
       <c r="E50" t="n">
-        <v>653.485004160318</v>
+        <v>653.5020827754762</v>
       </c>
       <c r="F50" t="n">
-        <v>567.3703425619308</v>
+        <v>574.420192333389</v>
       </c>
       <c r="G50" t="n">
-        <v>567.3703425619308</v>
+        <v>574.420192333389</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7460898232962668</v>
+        <v>-2.922099014867671</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7460898232962668</v>
+        <v>-2.922099014867671</v>
       </c>
       <c r="J50" t="n">
-        <v>0.7460898232962668</v>
+        <v>-2.922099014867671</v>
       </c>
       <c r="K50" t="n">
-        <v>0.7460898232962668</v>
+        <v>-2.922099014867671</v>
       </c>
       <c r="L50" t="n">
-        <v>0.7460898232962668</v>
+        <v>-2.922099014867671</v>
       </c>
       <c r="M50" t="n">
-        <v>0.7460898232962668</v>
+        <v>-2.922099014867671</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>568.1164323852271</v>
+        <v>571.4980933185213</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>567.9074142572437</v>
+        <v>575.1749362140839</v>
       </c>
       <c r="D51" t="n">
-        <v>464.0152549490944</v>
+        <v>461.7383155012618</v>
       </c>
       <c r="E51" t="n">
-        <v>633.8658436904143</v>
+        <v>638.3514955110984</v>
       </c>
       <c r="F51" t="n">
-        <v>567.9074142572437</v>
+        <v>575.1749362140839</v>
       </c>
       <c r="G51" t="n">
-        <v>567.9074142572437</v>
+        <v>575.1749362140839</v>
       </c>
       <c r="H51" t="n">
-        <v>-21.25254600512748</v>
+        <v>-24.40383196131367</v>
       </c>
       <c r="I51" t="n">
-        <v>-21.25254600512748</v>
+        <v>-24.40383196131367</v>
       </c>
       <c r="J51" t="n">
-        <v>-21.25254600512748</v>
+        <v>-24.40383196131367</v>
       </c>
       <c r="K51" t="n">
-        <v>-21.25254600512748</v>
+        <v>-24.40383196131367</v>
       </c>
       <c r="L51" t="n">
-        <v>-21.25254600512748</v>
+        <v>-24.40383196131367</v>
       </c>
       <c r="M51" t="n">
-        <v>-21.25254600512748</v>
+        <v>-24.40383196131367</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>546.6548682521162</v>
+        <v>550.7711042527702</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>568.3925112693638</v>
+        <v>575.8566403702547</v>
       </c>
       <c r="D52" t="n">
-        <v>491.5981496638339</v>
+        <v>489.7718880012711</v>
       </c>
       <c r="E52" t="n">
-        <v>642.9663596168367</v>
+        <v>658.6586757425634</v>
       </c>
       <c r="F52" t="n">
-        <v>568.3925112693638</v>
+        <v>575.8566403702547</v>
       </c>
       <c r="G52" t="n">
-        <v>568.3925112693638</v>
+        <v>575.8566403702547</v>
       </c>
       <c r="H52" t="n">
-        <v>0.6832938580882056</v>
+        <v>-2.550387896976905</v>
       </c>
       <c r="I52" t="n">
-        <v>0.6832938580882056</v>
+        <v>-2.550387896976905</v>
       </c>
       <c r="J52" t="n">
-        <v>0.6832938580882056</v>
+        <v>-2.550387896976905</v>
       </c>
       <c r="K52" t="n">
-        <v>0.6832938580882056</v>
+        <v>-2.550387896976905</v>
       </c>
       <c r="L52" t="n">
-        <v>0.6832938580882056</v>
+        <v>-2.550387896976905</v>
       </c>
       <c r="M52" t="n">
-        <v>0.6832938580882056</v>
+        <v>-2.550387896976905</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>569.075805127452</v>
+        <v>573.3062524732778</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>568.9295829613538</v>
+        <v>576.6113842574439</v>
       </c>
       <c r="D53" t="n">
-        <v>479.5387173202932</v>
+        <v>486.7885105688408</v>
       </c>
       <c r="E53" t="n">
-        <v>648.6485332321304</v>
+        <v>653.6100970301462</v>
       </c>
       <c r="F53" t="n">
-        <v>568.9295829613538</v>
+        <v>576.6113842574439</v>
       </c>
       <c r="G53" t="n">
-        <v>568.9295829613538</v>
+        <v>576.6113842574439</v>
       </c>
       <c r="H53" t="n">
-        <v>-5.196770686747498</v>
+        <v>-7.903985294095367</v>
       </c>
       <c r="I53" t="n">
-        <v>-5.196770686747498</v>
+        <v>-7.903985294095367</v>
       </c>
       <c r="J53" t="n">
-        <v>-5.196770686747498</v>
+        <v>-7.903985294095367</v>
       </c>
       <c r="K53" t="n">
-        <v>-5.196770686747498</v>
+        <v>-7.903985294095367</v>
       </c>
       <c r="L53" t="n">
-        <v>-5.196770686747498</v>
+        <v>-7.903985294095367</v>
       </c>
       <c r="M53" t="n">
-        <v>-5.196770686747498</v>
+        <v>-7.903985294095367</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>563.7328122746063</v>
+        <v>568.7073989633485</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>569.4493297622628</v>
+        <v>577.3417815739164</v>
       </c>
       <c r="D54" t="n">
-        <v>496.7185874969792</v>
+        <v>505.1966596701238</v>
       </c>
       <c r="E54" t="n">
-        <v>659.5884137425235</v>
+        <v>673.3029365414939</v>
       </c>
       <c r="F54" t="n">
-        <v>569.4493297622628</v>
+        <v>577.3417815739164</v>
       </c>
       <c r="G54" t="n">
-        <v>569.4493297622628</v>
+        <v>577.3417815739164</v>
       </c>
       <c r="H54" t="n">
-        <v>10.60202496868032</v>
+        <v>8.144427819371485</v>
       </c>
       <c r="I54" t="n">
-        <v>10.60202496868032</v>
+        <v>8.144427819371485</v>
       </c>
       <c r="J54" t="n">
-        <v>10.60202496868032</v>
+        <v>8.144427819371485</v>
       </c>
       <c r="K54" t="n">
-        <v>10.60202496868032</v>
+        <v>8.144427819371485</v>
       </c>
       <c r="L54" t="n">
-        <v>10.60202496868032</v>
+        <v>8.144427819371485</v>
       </c>
       <c r="M54" t="n">
-        <v>10.60202496868032</v>
+        <v>8.144427819371485</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>580.0513547309431</v>
+        <v>585.4862093932878</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>569.9864014565354</v>
+        <v>578.0965254676047</v>
       </c>
       <c r="D55" t="n">
-        <v>493.4360882720198</v>
+        <v>518.347927721916</v>
       </c>
       <c r="E55" t="n">
-        <v>657.4184273140272</v>
+        <v>687.8418366065097</v>
       </c>
       <c r="F55" t="n">
-        <v>569.9864014565354</v>
+        <v>578.0965254676047</v>
       </c>
       <c r="G55" t="n">
-        <v>569.9864014565354</v>
+        <v>578.0965254676047</v>
       </c>
       <c r="H55" t="n">
-        <v>4.440455707141075</v>
+        <v>23.07434405320648</v>
       </c>
       <c r="I55" t="n">
-        <v>4.440455707141075</v>
+        <v>23.07434405320648</v>
       </c>
       <c r="J55" t="n">
-        <v>4.440455707141075</v>
+        <v>23.07434405320648</v>
       </c>
       <c r="K55" t="n">
-        <v>4.440455707141075</v>
+        <v>23.07434405320648</v>
       </c>
       <c r="L55" t="n">
-        <v>4.440455707141075</v>
+        <v>23.07434405320648</v>
       </c>
       <c r="M55" t="n">
-        <v>4.440455707141075</v>
+        <v>23.07434405320648</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>574.4268571636765</v>
+        <v>601.1708695208112</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>570.5061482574444</v>
+        <v>578.8269227840773</v>
       </c>
       <c r="D56" t="n">
-        <v>506.6437138773009</v>
+        <v>515.0756034896734</v>
       </c>
       <c r="E56" t="n">
-        <v>674.3951788480706</v>
+        <v>680.4970880309239</v>
       </c>
       <c r="F56" t="n">
-        <v>570.5061482574444</v>
+        <v>578.8269227840773</v>
       </c>
       <c r="G56" t="n">
-        <v>570.5061482574444</v>
+        <v>578.8269227840773</v>
       </c>
       <c r="H56" t="n">
-        <v>20.337656509257</v>
+        <v>18.62867710971513</v>
       </c>
       <c r="I56" t="n">
-        <v>20.337656509257</v>
+        <v>18.62867710971513</v>
       </c>
       <c r="J56" t="n">
-        <v>20.337656509257</v>
+        <v>18.62867710971513</v>
       </c>
       <c r="K56" t="n">
-        <v>20.337656509257</v>
+        <v>18.62867710971513</v>
       </c>
       <c r="L56" t="n">
-        <v>20.337656509257</v>
+        <v>18.62867710971513</v>
       </c>
       <c r="M56" t="n">
-        <v>20.337656509257</v>
+        <v>18.62867710971513</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>590.8438047667014</v>
+        <v>597.4555998937924</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>571.043219951717</v>
+        <v>579.5816666777656</v>
       </c>
       <c r="D57" t="n">
-        <v>513.4559077005788</v>
+        <v>517.8459236120367</v>
       </c>
       <c r="E57" t="n">
-        <v>670.7752107608541</v>
+        <v>686.6745821024019</v>
       </c>
       <c r="F57" t="n">
-        <v>571.043219951717</v>
+        <v>579.5816666777656</v>
       </c>
       <c r="G57" t="n">
-        <v>571.043219951717</v>
+        <v>579.5816666777656</v>
       </c>
       <c r="H57" t="n">
-        <v>20.20425978805244</v>
+        <v>17.84498256010411</v>
       </c>
       <c r="I57" t="n">
-        <v>20.20425978805244</v>
+        <v>17.84498256010411</v>
       </c>
       <c r="J57" t="n">
-        <v>20.20425978805244</v>
+        <v>17.84498256010411</v>
       </c>
       <c r="K57" t="n">
-        <v>20.20425978805244</v>
+        <v>17.84498256010411</v>
       </c>
       <c r="L57" t="n">
-        <v>20.20425978805244</v>
+        <v>17.84498256010411</v>
       </c>
       <c r="M57" t="n">
-        <v>20.20425978805244</v>
+        <v>17.84498256010411</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>591.2474797397695</v>
+        <v>597.4266492378697</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>571.5802916459896</v>
+        <v>580.3364105714539</v>
       </c>
       <c r="D58" t="n">
-        <v>515.034892734663</v>
+        <v>515.1095195247456</v>
       </c>
       <c r="E58" t="n">
-        <v>680.6927328276254</v>
+        <v>682.3631321685001</v>
       </c>
       <c r="F58" t="n">
-        <v>571.5802916459896</v>
+        <v>580.3364105714539</v>
       </c>
       <c r="G58" t="n">
-        <v>571.5802916459896</v>
+        <v>580.3364105714539</v>
       </c>
       <c r="H58" t="n">
-        <v>20.82876716306635</v>
+        <v>17.76895957050342</v>
       </c>
       <c r="I58" t="n">
-        <v>20.82876716306635</v>
+        <v>17.76895957050342</v>
       </c>
       <c r="J58" t="n">
-        <v>20.82876716306635</v>
+        <v>17.76895957050342</v>
       </c>
       <c r="K58" t="n">
-        <v>20.82876716306635</v>
+        <v>17.76895957050342</v>
       </c>
       <c r="L58" t="n">
-        <v>20.82876716306635</v>
+        <v>17.76895957050342</v>
       </c>
       <c r="M58" t="n">
-        <v>20.82876716306635</v>
+        <v>17.76895957050342</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>592.409058809056</v>
+        <v>598.1053701419573</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>572.1000384468986</v>
+        <v>581.0668078879265</v>
       </c>
       <c r="D59" t="n">
-        <v>488.4568246036011</v>
+        <v>489.3114283975694</v>
       </c>
       <c r="E59" t="n">
-        <v>652.3764892366476</v>
+        <v>656.4514532907148</v>
       </c>
       <c r="F59" t="n">
-        <v>572.1000384468986</v>
+        <v>581.0668078879265</v>
       </c>
       <c r="G59" t="n">
-        <v>572.1000384468986</v>
+        <v>581.0668078879265</v>
       </c>
       <c r="H59" t="n">
-        <v>-1.384662825227482</v>
+        <v>-5.202408247144687</v>
       </c>
       <c r="I59" t="n">
-        <v>-1.384662825227482</v>
+        <v>-5.202408247144687</v>
       </c>
       <c r="J59" t="n">
-        <v>-1.384662825227482</v>
+        <v>-5.202408247144687</v>
       </c>
       <c r="K59" t="n">
-        <v>-1.384662825227482</v>
+        <v>-5.202408247144687</v>
       </c>
       <c r="L59" t="n">
-        <v>-1.384662825227482</v>
+        <v>-5.202408247144687</v>
       </c>
       <c r="M59" t="n">
-        <v>-1.384662825227482</v>
+        <v>-5.202408247144687</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>570.7153756216711</v>
+        <v>575.8643996407818</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>572.6371101411712</v>
+        <v>581.8215517816147</v>
       </c>
       <c r="D60" t="n">
-        <v>485.3083623671059</v>
+        <v>484.1045497353343</v>
       </c>
       <c r="E60" t="n">
-        <v>649.8076331019961</v>
+        <v>650.704619940632</v>
       </c>
       <c r="F60" t="n">
-        <v>572.6371101411712</v>
+        <v>581.8215517816147</v>
       </c>
       <c r="G60" t="n">
-        <v>572.6371101411712</v>
+        <v>581.8215517816147</v>
       </c>
       <c r="H60" t="n">
-        <v>-8.147140066772089</v>
+        <v>-12.67846813030505</v>
       </c>
       <c r="I60" t="n">
-        <v>-8.147140066772089</v>
+        <v>-12.67846813030505</v>
       </c>
       <c r="J60" t="n">
-        <v>-8.147140066772089</v>
+        <v>-12.67846813030505</v>
       </c>
       <c r="K60" t="n">
-        <v>-8.147140066772089</v>
+        <v>-12.67846813030505</v>
       </c>
       <c r="L60" t="n">
-        <v>-8.147140066772089</v>
+        <v>-12.67846813030505</v>
       </c>
       <c r="M60" t="n">
-        <v>-8.147140066772089</v>
+        <v>-12.67846813030505</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>564.4899700743991</v>
+        <v>569.1430836513097</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>573.1568569420801</v>
+        <v>582.5519490980873</v>
       </c>
       <c r="D61" t="n">
-        <v>473.3733377828179</v>
+        <v>478.9193052179611</v>
       </c>
       <c r="E61" t="n">
-        <v>642.3420014173618</v>
+        <v>649.2313618101113</v>
       </c>
       <c r="F61" t="n">
-        <v>573.1568569420801</v>
+        <v>582.5519490980873</v>
       </c>
       <c r="G61" t="n">
-        <v>573.1568569420801</v>
+        <v>582.5519490980873</v>
       </c>
       <c r="H61" t="n">
-        <v>-14.62095178672973</v>
+        <v>-19.64550072227524</v>
       </c>
       <c r="I61" t="n">
-        <v>-14.62095178672973</v>
+        <v>-19.64550072227524</v>
       </c>
       <c r="J61" t="n">
-        <v>-14.62095178672973</v>
+        <v>-19.64550072227524</v>
       </c>
       <c r="K61" t="n">
-        <v>-14.62095178672973</v>
+        <v>-19.64550072227524</v>
       </c>
       <c r="L61" t="n">
-        <v>-14.62095178672973</v>
+        <v>-19.64550072227524</v>
       </c>
       <c r="M61" t="n">
-        <v>-14.62095178672973</v>
+        <v>-19.64550072227524</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>558.5359051553504</v>
+        <v>562.9064483758121</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>573.6939286363528</v>
+        <v>583.3066929917757</v>
       </c>
       <c r="D62" t="n">
-        <v>481.5405654631818</v>
+        <v>480.8980211827408</v>
       </c>
       <c r="E62" t="n">
-        <v>646.2205955979833</v>
+        <v>658.1389910157649</v>
       </c>
       <c r="F62" t="n">
-        <v>573.6939286363528</v>
+        <v>583.3066929917757</v>
       </c>
       <c r="G62" t="n">
-        <v>573.6939286363528</v>
+        <v>583.3066929917757</v>
       </c>
       <c r="H62" t="n">
-        <v>-12.05683188153773</v>
+        <v>-15.33970901657608</v>
       </c>
       <c r="I62" t="n">
-        <v>-12.05683188153773</v>
+        <v>-15.33970901657608</v>
       </c>
       <c r="J62" t="n">
-        <v>-12.05683188153773</v>
+        <v>-15.33970901657608</v>
       </c>
       <c r="K62" t="n">
-        <v>-12.05683188153773</v>
+        <v>-15.33970901657608</v>
       </c>
       <c r="L62" t="n">
-        <v>-12.05683188153773</v>
+        <v>-15.33970901657608</v>
       </c>
       <c r="M62" t="n">
-        <v>-12.05683188153773</v>
+        <v>-15.33970901657608</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>561.637096754815</v>
+        <v>567.9669839751996</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>574.2310003306253</v>
+        <v>584.061436885464</v>
       </c>
       <c r="D63" t="n">
-        <v>467.6635296108437</v>
+        <v>469.8950444412457</v>
       </c>
       <c r="E63" t="n">
-        <v>635.0394189273677</v>
+        <v>644.5566860271399</v>
       </c>
       <c r="F63" t="n">
-        <v>574.2310003306253</v>
+        <v>584.061436885464</v>
       </c>
       <c r="G63" t="n">
-        <v>574.2310003306253</v>
+        <v>584.061436885464</v>
       </c>
       <c r="H63" t="n">
-        <v>-22.03678930794115</v>
+        <v>-25.42214543355691</v>
       </c>
       <c r="I63" t="n">
-        <v>-22.03678930794115</v>
+        <v>-25.42214543355691</v>
       </c>
       <c r="J63" t="n">
-        <v>-22.03678930794115</v>
+        <v>-25.42214543355691</v>
       </c>
       <c r="K63" t="n">
-        <v>-22.03678930794115</v>
+        <v>-25.42214543355691</v>
       </c>
       <c r="L63" t="n">
-        <v>-22.03678930794115</v>
+        <v>-25.42214543355691</v>
       </c>
       <c r="M63" t="n">
-        <v>-22.03678930794115</v>
+        <v>-25.42214543355691</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>552.1942110226842</v>
+        <v>558.6392914519071</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>574.7160973448071</v>
+        <v>584.7431410475051</v>
       </c>
       <c r="D64" t="n">
-        <v>490.1576524141119</v>
+        <v>486.0551923924326</v>
       </c>
       <c r="E64" t="n">
-        <v>657.8486479754669</v>
+        <v>665.5681241066803</v>
       </c>
       <c r="F64" t="n">
-        <v>574.7160973448071</v>
+        <v>584.7431410475051</v>
       </c>
       <c r="G64" t="n">
-        <v>574.7160973448071</v>
+        <v>584.7431410475051</v>
       </c>
       <c r="H64" t="n">
-        <v>-2.390666922372155</v>
+        <v>-6.40844628011916</v>
       </c>
       <c r="I64" t="n">
-        <v>-2.390666922372155</v>
+        <v>-6.40844628011916</v>
       </c>
       <c r="J64" t="n">
-        <v>-2.390666922372155</v>
+        <v>-6.40844628011916</v>
       </c>
       <c r="K64" t="n">
-        <v>-2.390666922372155</v>
+        <v>-6.40844628011916</v>
       </c>
       <c r="L64" t="n">
-        <v>-2.390666922372155</v>
+        <v>-6.40844628011916</v>
       </c>
       <c r="M64" t="n">
-        <v>-2.390666922372155</v>
+        <v>-6.40844628011916</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>572.3254304224349</v>
+        <v>578.3346947673859</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>575.2531690390796</v>
+        <v>585.4978849411933</v>
       </c>
       <c r="D65" t="n">
-        <v>500.8742853632563</v>
+        <v>494.2194341294864</v>
       </c>
       <c r="E65" t="n">
-        <v>657.3599045078572</v>
+        <v>662.0284960171336</v>
       </c>
       <c r="F65" t="n">
-        <v>575.2531690390796</v>
+        <v>585.4978849411933</v>
       </c>
       <c r="G65" t="n">
-        <v>575.2531690390796</v>
+        <v>585.4978849411933</v>
       </c>
       <c r="H65" t="n">
-        <v>4.034762998016868</v>
+        <v>-0.9487749321835373</v>
       </c>
       <c r="I65" t="n">
-        <v>4.034762998016868</v>
+        <v>-0.9487749321835373</v>
       </c>
       <c r="J65" t="n">
-        <v>4.034762998016868</v>
+        <v>-0.9487749321835373</v>
       </c>
       <c r="K65" t="n">
-        <v>4.034762998016868</v>
+        <v>-0.9487749321835373</v>
       </c>
       <c r="L65" t="n">
-        <v>4.034762998016868</v>
+        <v>-0.9487749321835373</v>
       </c>
       <c r="M65" t="n">
-        <v>4.034762998016868</v>
+        <v>-0.9487749321835373</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>579.2879320370964</v>
+        <v>584.5491100090098</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>575.7729158399886</v>
+        <v>586.2282822576659</v>
       </c>
       <c r="D66" t="n">
-        <v>515.0578349770309</v>
+        <v>510.6565964400145</v>
       </c>
       <c r="E66" t="n">
-        <v>671.9603280345963</v>
+        <v>684.1285319430832</v>
       </c>
       <c r="F66" t="n">
-        <v>575.7729158399886</v>
+        <v>586.2282822576659</v>
       </c>
       <c r="G66" t="n">
-        <v>575.7729158399886</v>
+        <v>586.2282822576659</v>
       </c>
       <c r="H66" t="n">
-        <v>14.34855030506043</v>
+        <v>8.588243402100481</v>
       </c>
       <c r="I66" t="n">
-        <v>14.34855030506043</v>
+        <v>8.588243402100481</v>
       </c>
       <c r="J66" t="n">
-        <v>14.34855030506043</v>
+        <v>8.588243402100481</v>
       </c>
       <c r="K66" t="n">
-        <v>14.34855030506043</v>
+        <v>8.588243402100481</v>
       </c>
       <c r="L66" t="n">
-        <v>14.34855030506043</v>
+        <v>8.588243402100481</v>
       </c>
       <c r="M66" t="n">
-        <v>14.34855030506043</v>
+        <v>8.588243402100481</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>590.1214661450491</v>
+        <v>594.8165256597664</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>576.3099875342612</v>
+        <v>586.9830261513542</v>
       </c>
       <c r="D67" t="n">
-        <v>495.724155744941</v>
+        <v>536.868780806104</v>
       </c>
       <c r="E67" t="n">
-        <v>663.8973114880199</v>
+        <v>702.7062569607994</v>
       </c>
       <c r="F67" t="n">
-        <v>576.3094996624646</v>
+        <v>586.9830261513542</v>
       </c>
       <c r="G67" t="n">
-        <v>576.3103686689803</v>
+        <v>586.9830261513542</v>
       </c>
       <c r="H67" t="n">
-        <v>4.410590747335083</v>
+        <v>34.37717542534276</v>
       </c>
       <c r="I67" t="n">
-        <v>4.410590747335083</v>
+        <v>34.37717542534276</v>
       </c>
       <c r="J67" t="n">
-        <v>4.410590747335083</v>
+        <v>34.37717542534276</v>
       </c>
       <c r="K67" t="n">
-        <v>4.410590747335083</v>
+        <v>34.37717542534276</v>
       </c>
       <c r="L67" t="n">
-        <v>4.410590747335083</v>
+        <v>34.37717542534276</v>
       </c>
       <c r="M67" t="n">
-        <v>4.410590747335083</v>
+        <v>34.37717542534276</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>580.7205782815962</v>
+        <v>621.360201576697</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>576.8297343351701</v>
+        <v>587.7134234678268</v>
       </c>
       <c r="D68" t="n">
-        <v>507.3834514832152</v>
+        <v>509.3623003078447</v>
       </c>
       <c r="E68" t="n">
-        <v>667.5902399167234</v>
+        <v>677.6474102038883</v>
       </c>
       <c r="F68" t="n">
-        <v>576.8270343812835</v>
+        <v>587.7131385535705</v>
       </c>
       <c r="G68" t="n">
-        <v>576.8322211171894</v>
+        <v>587.7139875845105</v>
       </c>
       <c r="H68" t="n">
-        <v>10.82475607699962</v>
+        <v>5.539280868557641</v>
       </c>
       <c r="I68" t="n">
-        <v>10.82475607699962</v>
+        <v>5.539280868557641</v>
       </c>
       <c r="J68" t="n">
-        <v>10.82475607699962</v>
+        <v>5.539280868557641</v>
       </c>
       <c r="K68" t="n">
-        <v>10.82475607699962</v>
+        <v>5.539280868557641</v>
       </c>
       <c r="L68" t="n">
-        <v>10.82475607699962</v>
+        <v>5.539280868557641</v>
       </c>
       <c r="M68" t="n">
-        <v>10.82475607699962</v>
+        <v>5.539280868557641</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>587.6544904121697</v>
+        <v>593.2527043363845</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>577.3668060294428</v>
+        <v>588.4681673615152</v>
       </c>
       <c r="D69" t="n">
-        <v>513.8047466973738</v>
+        <v>513.862263892133</v>
       </c>
       <c r="E69" t="n">
-        <v>680.2668266699111</v>
+        <v>686.0298701005191</v>
       </c>
       <c r="F69" t="n">
-        <v>577.3608926785266</v>
+        <v>588.4657273984244</v>
       </c>
       <c r="G69" t="n">
-        <v>577.3718396414388</v>
+        <v>588.4710836157622</v>
       </c>
       <c r="H69" t="n">
-        <v>21.57706798800619</v>
+        <v>16.5665951313321</v>
       </c>
       <c r="I69" t="n">
-        <v>21.57706798800619</v>
+        <v>16.5665951313321</v>
       </c>
       <c r="J69" t="n">
-        <v>21.57706798800619</v>
+        <v>16.5665951313321</v>
       </c>
       <c r="K69" t="n">
-        <v>21.57706798800619</v>
+        <v>16.5665951313321</v>
       </c>
       <c r="L69" t="n">
-        <v>21.57706798800619</v>
+        <v>16.5665951313321</v>
       </c>
       <c r="M69" t="n">
-        <v>21.57706798800619</v>
+        <v>16.5665951313321</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>598.943874017449</v>
+        <v>605.0347624928472</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>577.9038777237154</v>
+        <v>589.2229112552035</v>
       </c>
       <c r="D70" t="n">
-        <v>509.2731169613745</v>
+        <v>510.9700842007882</v>
       </c>
       <c r="E70" t="n">
-        <v>676.3580946698327</v>
+        <v>680.5579391009103</v>
       </c>
       <c r="F70" t="n">
-        <v>577.8940741703069</v>
+        <v>589.217133896143</v>
       </c>
       <c r="G70" t="n">
-        <v>577.9126889923476</v>
+        <v>589.2287721512402</v>
       </c>
       <c r="H70" t="n">
-        <v>15.70554332650893</v>
+        <v>11.13870663545518</v>
       </c>
       <c r="I70" t="n">
-        <v>15.70554332650893</v>
+        <v>11.13870663545518</v>
       </c>
       <c r="J70" t="n">
-        <v>15.70554332650893</v>
+        <v>11.13870663545518</v>
       </c>
       <c r="K70" t="n">
-        <v>15.70554332650893</v>
+        <v>11.13870663545518</v>
       </c>
       <c r="L70" t="n">
-        <v>15.70554332650893</v>
+        <v>11.13870663545518</v>
       </c>
       <c r="M70" t="n">
-        <v>15.70554332650893</v>
+        <v>11.13870663545518</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>593.6094210502243</v>
+        <v>600.3616178906586</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>578.4236245246243</v>
+        <v>589.953308571676</v>
       </c>
       <c r="D71" t="n">
-        <v>501.0549726056382</v>
+        <v>506.0536653368719</v>
       </c>
       <c r="E71" t="n">
-        <v>656.1275261164856</v>
+        <v>671.1859720023838</v>
       </c>
       <c r="F71" t="n">
-        <v>578.4101342431255</v>
+        <v>589.9437937788491</v>
       </c>
       <c r="G71" t="n">
-        <v>578.4362380490226</v>
+        <v>589.9637461769819</v>
       </c>
       <c r="H71" t="n">
-        <v>3.437301322928489</v>
+        <v>-0.547958707374313</v>
       </c>
       <c r="I71" t="n">
-        <v>3.437301322928489</v>
+        <v>-0.547958707374313</v>
       </c>
       <c r="J71" t="n">
-        <v>3.437301322928489</v>
+        <v>-0.547958707374313</v>
       </c>
       <c r="K71" t="n">
-        <v>3.437301322928489</v>
+        <v>-0.547958707374313</v>
       </c>
       <c r="L71" t="n">
-        <v>3.437301322928489</v>
+        <v>-0.547958707374313</v>
       </c>
       <c r="M71" t="n">
-        <v>3.437301322928489</v>
+        <v>-0.547958707374313</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>581.8609258475528</v>
+        <v>589.4053498643017</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>578.9606962188969</v>
+        <v>590.7080524653644</v>
       </c>
       <c r="D72" t="n">
-        <v>498.7864546514051</v>
+        <v>498.9521532334759</v>
       </c>
       <c r="E72" t="n">
-        <v>662.2789570270392</v>
+        <v>672.1725233777186</v>
       </c>
       <c r="F72" t="n">
-        <v>578.9432804222732</v>
+        <v>590.6935795220088</v>
       </c>
       <c r="G72" t="n">
-        <v>578.9778294648082</v>
+        <v>590.7244288315313</v>
       </c>
       <c r="H72" t="n">
-        <v>0.6492678133346969</v>
+        <v>-2.769704344744979</v>
       </c>
       <c r="I72" t="n">
-        <v>0.6492678133346969</v>
+        <v>-2.769704344744979</v>
       </c>
       <c r="J72" t="n">
-        <v>0.6492678133346969</v>
+        <v>-2.769704344744979</v>
       </c>
       <c r="K72" t="n">
-        <v>0.6492678133346969</v>
+        <v>-2.769704344744979</v>
       </c>
       <c r="L72" t="n">
-        <v>0.6492678133346969</v>
+        <v>-2.769704344744979</v>
       </c>
       <c r="M72" t="n">
-        <v>0.6492678133346969</v>
+        <v>-2.769704344744979</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>579.6099640322317</v>
+        <v>587.9383481206195</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>579.4804430198059</v>
+        <v>591.4384497818369</v>
       </c>
       <c r="D73" t="n">
-        <v>482.944046803538</v>
+        <v>491.0299073834464</v>
       </c>
       <c r="E73" t="n">
-        <v>650.6721408750185</v>
+        <v>659.1239252477343</v>
       </c>
       <c r="F73" t="n">
-        <v>579.459074330161</v>
+        <v>591.4188781536066</v>
       </c>
       <c r="G73" t="n">
-        <v>579.5018850879128</v>
+        <v>591.4611413948965</v>
       </c>
       <c r="H73" t="n">
-        <v>-11.56289321906274</v>
+        <v>-14.6773358774655</v>
       </c>
       <c r="I73" t="n">
-        <v>-11.56289321906274</v>
+        <v>-14.6773358774655</v>
       </c>
       <c r="J73" t="n">
-        <v>-11.56289321906274</v>
+        <v>-14.6773358774655</v>
       </c>
       <c r="K73" t="n">
-        <v>-11.56289321906274</v>
+        <v>-14.6773358774655</v>
       </c>
       <c r="L73" t="n">
-        <v>-11.56289321906274</v>
+        <v>-14.6773358774655</v>
       </c>
       <c r="M73" t="n">
-        <v>-11.56289321906274</v>
+        <v>-14.6773358774655</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>567.9175498007431</v>
+        <v>576.7611139043714</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>580.0175147140785</v>
+        <v>592.1931936755252</v>
       </c>
       <c r="D74" t="n">
-        <v>471.0121928667337</v>
+        <v>475.7740519175113</v>
       </c>
       <c r="E74" t="n">
-        <v>641.4796566036397</v>
+        <v>652.5371433620337</v>
       </c>
       <c r="F74" t="n">
-        <v>579.9905703921299</v>
+        <v>592.1678015190676</v>
       </c>
       <c r="G74" t="n">
-        <v>580.0431290146906</v>
+        <v>592.2219399540278</v>
       </c>
       <c r="H74" t="n">
-        <v>-24.98613513550356</v>
+        <v>-27.93236704178642</v>
       </c>
       <c r="I74" t="n">
-        <v>-24.98613513550356</v>
+        <v>-27.93236704178642</v>
       </c>
       <c r="J74" t="n">
-        <v>-24.98613513550356</v>
+        <v>-27.93236704178642</v>
       </c>
       <c r="K74" t="n">
-        <v>-24.98613513550356</v>
+        <v>-27.93236704178642</v>
       </c>
       <c r="L74" t="n">
-        <v>-24.98613513550356</v>
+        <v>-27.93236704178642</v>
       </c>
       <c r="M74" t="n">
-        <v>-24.98613513550356</v>
+        <v>-27.93236704178642</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>555.031379578575</v>
+        <v>564.2608266337388</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>580.5545864083512</v>
+        <v>592.9479375692135</v>
       </c>
       <c r="D75" t="n">
-        <v>479.5435623655644</v>
+        <v>479.5544395115619</v>
       </c>
       <c r="E75" t="n">
-        <v>635.9512974836906</v>
+        <v>654.0208441125216</v>
       </c>
       <c r="F75" t="n">
-        <v>580.5212918293537</v>
+        <v>592.9151291130414</v>
       </c>
       <c r="G75" t="n">
-        <v>580.5858566259516</v>
+        <v>592.9851677963742</v>
       </c>
       <c r="H75" t="n">
-        <v>-22.68534000146277</v>
+        <v>-26.34648387656286</v>
       </c>
       <c r="I75" t="n">
-        <v>-22.68534000146277</v>
+        <v>-26.34648387656286</v>
       </c>
       <c r="J75" t="n">
-        <v>-22.68534000146277</v>
+        <v>-26.34648387656286</v>
       </c>
       <c r="K75" t="n">
-        <v>-22.68534000146277</v>
+        <v>-26.34648387656286</v>
       </c>
       <c r="L75" t="n">
-        <v>-22.68534000146277</v>
+        <v>-26.34648387656286</v>
       </c>
       <c r="M75" t="n">
-        <v>-22.68534000146277</v>
+        <v>-26.34648387656286</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>557.8692464068884</v>
+        <v>566.6014536926507</v>
       </c>
     </row>
     <row r="76">
@@ -4449,37 +4449,37 @@
         <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>581.0396834225328</v>
+        <v>593.6296417312545</v>
       </c>
       <c r="D76" t="n">
-        <v>491.9645717503225</v>
+        <v>495.9562292471603</v>
       </c>
       <c r="E76" t="n">
-        <v>657.91813789976</v>
+        <v>670.4195305181755</v>
       </c>
       <c r="F76" t="n">
-        <v>581.0012713064383</v>
+        <v>593.59012405382</v>
       </c>
       <c r="G76" t="n">
-        <v>581.0763961326849</v>
+        <v>593.6739893029151</v>
       </c>
       <c r="H76" t="n">
-        <v>-5.258277229670575</v>
+        <v>-10.08447354341611</v>
       </c>
       <c r="I76" t="n">
-        <v>-5.258277229670575</v>
+        <v>-10.08447354341611</v>
       </c>
       <c r="J76" t="n">
-        <v>-5.258277229670575</v>
+        <v>-10.08447354341611</v>
       </c>
       <c r="K76" t="n">
-        <v>-5.258277229670575</v>
+        <v>-10.08447354341611</v>
       </c>
       <c r="L76" t="n">
-        <v>-5.258277229670575</v>
+        <v>-10.08447354341611</v>
       </c>
       <c r="M76" t="n">
-        <v>-5.258277229670575</v>
+        <v>-10.08447354341611</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>575.7814061928622</v>
+        <v>583.5451681878384</v>
       </c>
     </row>
     <row r="77">
@@ -4502,37 +4502,37 @@
         <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>581.5767551168054</v>
+        <v>594.384385624943</v>
       </c>
       <c r="D77" t="n">
-        <v>514.8643375764644</v>
+        <v>515.2403545525884</v>
       </c>
       <c r="E77" t="n">
-        <v>676.6743836946217</v>
+        <v>683.4839348761354</v>
       </c>
       <c r="F77" t="n">
-        <v>581.5326303781164</v>
+        <v>594.3369933395729</v>
       </c>
       <c r="G77" t="n">
-        <v>581.6198526864181</v>
+        <v>594.4373218725132</v>
       </c>
       <c r="H77" t="n">
-        <v>13.37826535747313</v>
+        <v>6.135108770232957</v>
       </c>
       <c r="I77" t="n">
-        <v>13.37826535747313</v>
+        <v>6.135108770232957</v>
       </c>
       <c r="J77" t="n">
-        <v>13.37826535747313</v>
+        <v>6.135108770232957</v>
       </c>
       <c r="K77" t="n">
-        <v>13.37826535747313</v>
+        <v>6.135108770232957</v>
       </c>
       <c r="L77" t="n">
-        <v>13.37826535747313</v>
+        <v>6.135108770232957</v>
       </c>
       <c r="M77" t="n">
-        <v>13.37826535747313</v>
+        <v>6.135108770232957</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>594.9550204742785</v>
+        <v>600.5194943951759</v>
       </c>
     </row>
     <row r="78">
@@ -4555,37 +4555,37 @@
         <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>582.0965019177144</v>
+        <v>595.1147829414155</v>
       </c>
       <c r="D78" t="n">
-        <v>515.4291658904485</v>
+        <v>520.545577944773</v>
       </c>
       <c r="E78" t="n">
-        <v>681.8784472518967</v>
+        <v>692.5474090591979</v>
       </c>
       <c r="F78" t="n">
-        <v>582.0447505581478</v>
+        <v>595.0620770982632</v>
       </c>
       <c r="G78" t="n">
-        <v>582.1449738016498</v>
+        <v>595.1759360165981</v>
       </c>
       <c r="H78" t="n">
-        <v>17.9117639717299</v>
+        <v>9.037298153254495</v>
       </c>
       <c r="I78" t="n">
-        <v>17.9117639717299</v>
+        <v>9.037298153254495</v>
       </c>
       <c r="J78" t="n">
-        <v>17.9117639717299</v>
+        <v>9.037298153254495</v>
       </c>
       <c r="K78" t="n">
-        <v>17.9117639717299</v>
+        <v>9.037298153254495</v>
       </c>
       <c r="L78" t="n">
-        <v>17.9117639717299</v>
+        <v>9.037298153254495</v>
       </c>
       <c r="M78" t="n">
-        <v>17.9117639717299</v>
+        <v>9.037298153254495</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>600.0082658894443</v>
+        <v>604.1520810946699</v>
       </c>
     </row>
     <row r="79">
@@ -4608,37 +4608,37 @@
         <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>582.633573611987</v>
+        <v>595.8695268351038</v>
       </c>
       <c r="D79" t="n">
-        <v>500.308284009394</v>
+        <v>561.3820444370655</v>
       </c>
       <c r="E79" t="n">
-        <v>671.8958849707326</v>
+        <v>724.6503330335634</v>
       </c>
       <c r="F79" t="n">
-        <v>582.5739466168932</v>
+        <v>595.808819822338</v>
       </c>
       <c r="G79" t="n">
-        <v>582.6895236036206</v>
+        <v>595.9389746377658</v>
       </c>
       <c r="H79" t="n">
-        <v>4.140836614286761</v>
+        <v>45.42799644813192</v>
       </c>
       <c r="I79" t="n">
-        <v>4.140836614286761</v>
+        <v>45.42799644813192</v>
       </c>
       <c r="J79" t="n">
-        <v>4.140836614286761</v>
+        <v>45.42799644813192</v>
       </c>
       <c r="K79" t="n">
-        <v>4.140836614286761</v>
+        <v>45.42799644813192</v>
       </c>
       <c r="L79" t="n">
-        <v>4.140836614286761</v>
+        <v>45.42799644813192</v>
       </c>
       <c r="M79" t="n">
-        <v>4.140836614286761</v>
+        <v>45.42799644813192</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>586.7744102262737</v>
+        <v>641.2975232832357</v>
       </c>
     </row>
     <row r="80">
@@ -4661,37 +4661,37 @@
         <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>583.1533204128959</v>
+        <v>596.5999241515764</v>
       </c>
       <c r="D80" t="n">
-        <v>504.3888239140842</v>
+        <v>498.9216814369087</v>
       </c>
       <c r="E80" t="n">
-        <v>667.6895959104758</v>
+        <v>670.6854589902342</v>
       </c>
       <c r="F80" t="n">
-        <v>583.08511312667</v>
+        <v>596.5276239143549</v>
       </c>
       <c r="G80" t="n">
-        <v>583.2157253415904</v>
+        <v>596.6778642186628</v>
       </c>
       <c r="H80" t="n">
-        <v>1.299227254295889</v>
+        <v>-7.747279059396163</v>
       </c>
       <c r="I80" t="n">
-        <v>1.299227254295889</v>
+        <v>-7.747279059396163</v>
       </c>
       <c r="J80" t="n">
-        <v>1.299227254295889</v>
+        <v>-7.747279059396163</v>
       </c>
       <c r="K80" t="n">
-        <v>1.299227254295889</v>
+        <v>-7.747279059396163</v>
       </c>
       <c r="L80" t="n">
-        <v>1.299227254295889</v>
+        <v>-7.747279059396163</v>
       </c>
       <c r="M80" t="n">
-        <v>1.299227254295889</v>
+        <v>-7.747279059396163</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>584.4525476671919</v>
+        <v>588.8526450921802</v>
       </c>
     </row>
     <row r="81">
@@ -4714,37 +4714,37 @@
         <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>583.6903921071686</v>
+        <v>597.3546680452647</v>
       </c>
       <c r="D81" t="n">
-        <v>532.172081660206</v>
+        <v>529.3099836483881</v>
       </c>
       <c r="E81" t="n">
-        <v>687.9385050568509</v>
+        <v>698.3638070990733</v>
       </c>
       <c r="F81" t="n">
-        <v>583.6145493797674</v>
+        <v>597.271146814321</v>
       </c>
       <c r="G81" t="n">
-        <v>583.7606313567987</v>
+        <v>597.441943291344</v>
       </c>
       <c r="H81" t="n">
-        <v>23.0505691845305</v>
+        <v>15.36856266182466</v>
       </c>
       <c r="I81" t="n">
-        <v>23.0505691845305</v>
+        <v>15.36856266182466</v>
       </c>
       <c r="J81" t="n">
-        <v>23.0505691845305</v>
+        <v>15.36856266182466</v>
       </c>
       <c r="K81" t="n">
-        <v>23.0505691845305</v>
+        <v>15.36856266182466</v>
       </c>
       <c r="L81" t="n">
-        <v>23.0505691845305</v>
+        <v>15.36856266182466</v>
       </c>
       <c r="M81" t="n">
-        <v>23.0505691845305</v>
+        <v>15.36856266182466</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>606.740961291699</v>
+        <v>612.7232307070893</v>
       </c>
     </row>
     <row r="82">
@@ -4767,37 +4767,37 @@
         <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>584.2274638014411</v>
+        <v>598.109411938953</v>
       </c>
       <c r="D82" t="n">
-        <v>514.805862531754</v>
+        <v>516.5004354220022</v>
       </c>
       <c r="E82" t="n">
-        <v>678.7167354011499</v>
+        <v>689.6137450995694</v>
       </c>
       <c r="F82" t="n">
-        <v>584.1424565029436</v>
+        <v>598.0150829353698</v>
       </c>
       <c r="G82" t="n">
-        <v>584.3045646093137</v>
+        <v>598.2096314941471</v>
       </c>
       <c r="H82" t="n">
-        <v>10.72501883333157</v>
+        <v>4.693119132086458</v>
       </c>
       <c r="I82" t="n">
-        <v>10.72501883333157</v>
+        <v>4.693119132086458</v>
       </c>
       <c r="J82" t="n">
-        <v>10.72501883333157</v>
+        <v>4.693119132086458</v>
       </c>
       <c r="K82" t="n">
-        <v>10.72501883333157</v>
+        <v>4.693119132086458</v>
       </c>
       <c r="L82" t="n">
-        <v>10.72501883333157</v>
+        <v>4.693119132086458</v>
       </c>
       <c r="M82" t="n">
-        <v>10.72501883333157</v>
+        <v>4.693119132086458</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>594.9524826347727</v>
+        <v>602.8025310710395</v>
       </c>
     </row>
     <row r="83">
@@ -4820,37 +4820,37 @@
         <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>584.7472106023502</v>
+        <v>598.8398092554256</v>
       </c>
       <c r="D83" t="n">
-        <v>508.3525512632729</v>
+        <v>513.4465995025751</v>
       </c>
       <c r="E83" t="n">
-        <v>676.4733297127098</v>
+        <v>687.8204434870148</v>
       </c>
       <c r="F83" t="n">
-        <v>584.6539084925485</v>
+        <v>598.7347478128879</v>
       </c>
       <c r="G83" t="n">
-        <v>584.8310562117001</v>
+        <v>598.9475902099904</v>
       </c>
       <c r="H83" t="n">
-        <v>8.460943979195331</v>
+        <v>4.373730597723553</v>
       </c>
       <c r="I83" t="n">
-        <v>8.460943979195331</v>
+        <v>4.373730597723553</v>
       </c>
       <c r="J83" t="n">
-        <v>8.460943979195331</v>
+        <v>4.373730597723553</v>
       </c>
       <c r="K83" t="n">
-        <v>8.460943979195331</v>
+        <v>4.373730597723553</v>
       </c>
       <c r="L83" t="n">
-        <v>8.460943979195331</v>
+        <v>4.373730597723553</v>
       </c>
       <c r="M83" t="n">
-        <v>8.460943979195331</v>
+        <v>4.373730597723553</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,7 +4862,60 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>593.2081545815455</v>
+        <v>603.2135398531492</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C84" t="n">
+        <v>599.5945531491138</v>
+      </c>
+      <c r="D84" t="n">
+        <v>520.5892017682386</v>
+      </c>
+      <c r="E84" t="n">
+        <v>686.6589484169077</v>
+      </c>
+      <c r="F84" t="n">
+        <v>599.4806436086925</v>
+      </c>
+      <c r="G84" t="n">
+        <v>599.712973764424</v>
+      </c>
+      <c r="H84" t="n">
+        <v>7.125212474943972</v>
+      </c>
+      <c r="I84" t="n">
+        <v>7.125212474943972</v>
+      </c>
+      <c r="J84" t="n">
+        <v>7.125212474943972</v>
+      </c>
+      <c r="K84" t="n">
+        <v>7.125212474943972</v>
+      </c>
+      <c r="L84" t="n">
+        <v>7.125212474943972</v>
+      </c>
+      <c r="M84" t="n">
+        <v>7.125212474943972</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>606.7197656240578</v>
       </c>
     </row>
   </sheetData>
